--- a/database/industries/methanol/shekolor/product/monthly.xlsx
+++ b/database/industries/methanol/shekolor/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657B38CE-4420-4983-A3C2-EC8CEDE92267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B94EC-90B6-47E2-B679-575D82711252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/methanol/shekolor/product/monthly.xlsx
+++ b/database/industries/methanol/shekolor/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B94EC-90B6-47E2-B679-575D82711252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A9543-257E-4FD1-9223-E32A5FE79678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکلر-نیروکلر</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/05</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/06</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/09</t>
   </si>
   <si>
     <t>کلرورفریک</t>
@@ -1436,82 +1436,82 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="F11" s="11">
+        <v>295</v>
+      </c>
+      <c r="G11" s="11">
+        <v>322</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="11">
+        <v>202</v>
+      </c>
+      <c r="J11" s="11">
+        <v>223</v>
+      </c>
+      <c r="K11" s="11">
+        <v>261</v>
+      </c>
+      <c r="L11" s="11">
+        <v>636</v>
+      </c>
+      <c r="M11" s="11">
+        <v>710</v>
+      </c>
+      <c r="N11" s="11">
+        <v>742</v>
+      </c>
+      <c r="O11" s="11">
+        <v>390</v>
+      </c>
+      <c r="P11" s="11">
+        <v>651</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>642</v>
+      </c>
+      <c r="R11" s="11">
+        <v>285</v>
+      </c>
+      <c r="S11" s="11">
+        <v>260</v>
+      </c>
+      <c r="T11" s="11">
         <v>185</v>
       </c>
-      <c r="G11" s="11">
-        <v>295</v>
-      </c>
-      <c r="H11" s="11">
-        <v>322</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="11">
-        <v>202</v>
-      </c>
-      <c r="K11" s="11">
-        <v>223</v>
-      </c>
-      <c r="L11" s="11">
-        <v>261</v>
-      </c>
-      <c r="M11" s="11">
-        <v>636</v>
-      </c>
-      <c r="N11" s="11">
-        <v>710</v>
-      </c>
-      <c r="O11" s="11">
-        <v>742</v>
-      </c>
-      <c r="P11" s="11">
-        <v>390</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>651</v>
-      </c>
-      <c r="R11" s="11">
-        <v>642</v>
-      </c>
-      <c r="S11" s="11">
-        <v>285</v>
-      </c>
-      <c r="T11" s="11">
-        <v>260</v>
-      </c>
       <c r="U11" s="11">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="V11" s="11">
-        <v>195</v>
+        <v>575</v>
       </c>
       <c r="W11" s="11">
-        <v>575</v>
+        <v>206</v>
       </c>
       <c r="X11" s="11">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="Y11" s="11">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="Z11" s="11">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="AA11" s="11">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AB11" s="11">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="AC11" s="11">
-        <v>65</v>
-      </c>
-      <c r="AD11" s="11">
         <v>62</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE11" s="11" t="s">
         <v>57</v>
@@ -1595,83 +1595,83 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="F12" s="13">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="G12" s="13">
-        <v>149</v>
-      </c>
-      <c r="H12" s="13">
         <v>232</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>57</v>
+      <c r="H12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="13">
+        <v>291</v>
       </c>
       <c r="J12" s="13">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="K12" s="13">
+        <v>264</v>
+      </c>
+      <c r="L12" s="13">
+        <v>250</v>
+      </c>
+      <c r="M12" s="13">
+        <v>267</v>
+      </c>
+      <c r="N12" s="13">
+        <v>231</v>
+      </c>
+      <c r="O12" s="13">
+        <v>239</v>
+      </c>
+      <c r="P12" s="13">
+        <v>186</v>
+      </c>
+      <c r="Q12" s="13">
         <v>259</v>
       </c>
-      <c r="L12" s="13">
-        <v>264</v>
-      </c>
-      <c r="M12" s="13">
-        <v>250</v>
-      </c>
-      <c r="N12" s="13">
+      <c r="R12" s="13">
         <v>267</v>
       </c>
-      <c r="O12" s="13">
-        <v>231</v>
-      </c>
-      <c r="P12" s="13">
-        <v>239</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>186</v>
-      </c>
-      <c r="R12" s="13">
-        <v>259</v>
-      </c>
       <c r="S12" s="13">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="T12" s="13">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="U12" s="13">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="V12" s="13">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="W12" s="13">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="X12" s="13">
         <v>324</v>
       </c>
       <c r="Y12" s="13">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Z12" s="13">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="AA12" s="13">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AB12" s="13">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AC12" s="13">
-        <v>356</v>
-      </c>
-      <c r="AD12" s="13">
         <v>318</v>
       </c>
+      <c r="AD12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1690,8 +1690,8 @@
       <c r="AJ12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK12" s="13" t="s">
-        <v>57</v>
+      <c r="AK12" s="13">
+        <v>0</v>
       </c>
       <c r="AL12" s="13">
         <v>0</v>
@@ -1705,8 +1705,8 @@
       <c r="AO12" s="13">
         <v>0</v>
       </c>
-      <c r="AP12" s="13">
-        <v>0</v>
+      <c r="AP12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ12" s="13" t="s">
         <v>57</v>
@@ -1754,82 +1754,82 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1741</v>
+        <v>1923</v>
       </c>
       <c r="F13" s="11">
-        <v>1923</v>
+        <v>1568</v>
       </c>
       <c r="G13" s="11">
-        <v>1568</v>
-      </c>
-      <c r="H13" s="11">
         <v>1949</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>57</v>
+      <c r="H13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1745</v>
       </c>
       <c r="J13" s="11">
-        <v>1745</v>
+        <v>1876</v>
       </c>
       <c r="K13" s="11">
-        <v>1876</v>
+        <v>2033</v>
       </c>
       <c r="L13" s="11">
-        <v>2033</v>
+        <v>2056</v>
       </c>
       <c r="M13" s="11">
-        <v>2056</v>
+        <v>1714</v>
       </c>
       <c r="N13" s="11">
-        <v>1714</v>
+        <v>2054</v>
       </c>
       <c r="O13" s="11">
-        <v>2054</v>
+        <v>1981</v>
       </c>
       <c r="P13" s="11">
-        <v>1981</v>
+        <v>1962</v>
       </c>
       <c r="Q13" s="11">
-        <v>1962</v>
+        <v>2228</v>
       </c>
       <c r="R13" s="11">
-        <v>2228</v>
+        <v>2091</v>
       </c>
       <c r="S13" s="11">
-        <v>2091</v>
+        <v>2324</v>
       </c>
       <c r="T13" s="11">
-        <v>2324</v>
+        <v>2170</v>
       </c>
       <c r="U13" s="11">
-        <v>2170</v>
+        <v>2235</v>
       </c>
       <c r="V13" s="11">
-        <v>2235</v>
+        <v>2289</v>
       </c>
       <c r="W13" s="11">
-        <v>2289</v>
+        <v>2252</v>
       </c>
       <c r="X13" s="11">
-        <v>2252</v>
+        <v>2237</v>
       </c>
       <c r="Y13" s="11">
-        <v>2237</v>
+        <v>2248</v>
       </c>
       <c r="Z13" s="11">
-        <v>2248</v>
+        <v>2339</v>
       </c>
       <c r="AA13" s="11">
-        <v>2339</v>
+        <v>2236</v>
       </c>
       <c r="AB13" s="11">
-        <v>2236</v>
+        <v>2286</v>
       </c>
       <c r="AC13" s="11">
-        <v>2286</v>
-      </c>
-      <c r="AD13" s="11">
         <v>1177</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE13" s="11" t="s">
         <v>57</v>
@@ -1913,82 +1913,82 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>708</v>
+        <v>870</v>
       </c>
       <c r="F14" s="13">
-        <v>870</v>
+        <v>1199</v>
       </c>
       <c r="G14" s="13">
-        <v>1199</v>
-      </c>
-      <c r="H14" s="13">
         <v>1644</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>57</v>
+      <c r="H14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1934</v>
       </c>
       <c r="J14" s="13">
-        <v>1934</v>
+        <v>2210</v>
       </c>
       <c r="K14" s="13">
-        <v>2210</v>
+        <v>2326</v>
       </c>
       <c r="L14" s="13">
-        <v>2326</v>
+        <v>2484</v>
       </c>
       <c r="M14" s="13">
-        <v>2484</v>
+        <v>2175</v>
       </c>
       <c r="N14" s="13">
-        <v>2175</v>
+        <v>2414</v>
       </c>
       <c r="O14" s="13">
-        <v>2414</v>
+        <v>2932</v>
       </c>
       <c r="P14" s="13">
-        <v>2932</v>
+        <v>1837</v>
       </c>
       <c r="Q14" s="13">
-        <v>1837</v>
+        <v>1651</v>
       </c>
       <c r="R14" s="13">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="S14" s="13">
-        <v>1656</v>
+        <v>2240</v>
       </c>
       <c r="T14" s="13">
-        <v>2240</v>
+        <v>2279</v>
       </c>
       <c r="U14" s="13">
-        <v>2279</v>
+        <v>2208</v>
       </c>
       <c r="V14" s="13">
-        <v>2208</v>
+        <v>2338</v>
       </c>
       <c r="W14" s="13">
-        <v>2338</v>
+        <v>2287</v>
       </c>
       <c r="X14" s="13">
-        <v>2287</v>
+        <v>2155</v>
       </c>
       <c r="Y14" s="13">
-        <v>2155</v>
+        <v>2380</v>
       </c>
       <c r="Z14" s="13">
-        <v>2380</v>
+        <v>2731</v>
       </c>
       <c r="AA14" s="13">
-        <v>2731</v>
+        <v>2969</v>
       </c>
       <c r="AB14" s="13">
-        <v>2969</v>
+        <v>3272</v>
       </c>
       <c r="AC14" s="13">
-        <v>3272</v>
-      </c>
-      <c r="AD14" s="13">
         <v>1301</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE14" s="13" t="s">
         <v>57</v>
@@ -2072,82 +2072,82 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>1260</v>
+        <v>1671</v>
       </c>
       <c r="F15" s="11">
-        <v>1671</v>
+        <v>1960</v>
       </c>
       <c r="G15" s="11">
-        <v>1960</v>
-      </c>
-      <c r="H15" s="11">
         <v>2214</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>57</v>
+      <c r="H15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2652</v>
       </c>
       <c r="J15" s="11">
-        <v>2652</v>
+        <v>2557</v>
       </c>
       <c r="K15" s="11">
-        <v>2557</v>
+        <v>2077</v>
       </c>
       <c r="L15" s="11">
-        <v>2077</v>
+        <v>2387</v>
       </c>
       <c r="M15" s="11">
-        <v>2387</v>
+        <v>2409</v>
       </c>
       <c r="N15" s="11">
-        <v>2409</v>
+        <v>2391</v>
       </c>
       <c r="O15" s="11">
-        <v>2391</v>
+        <v>2270</v>
       </c>
       <c r="P15" s="11">
-        <v>2270</v>
+        <v>2115</v>
       </c>
       <c r="Q15" s="11">
-        <v>2115</v>
+        <v>2507</v>
       </c>
       <c r="R15" s="11">
-        <v>2507</v>
+        <v>1692</v>
       </c>
       <c r="S15" s="11">
-        <v>1692</v>
+        <v>2161</v>
       </c>
       <c r="T15" s="11">
-        <v>2161</v>
+        <v>2232</v>
       </c>
       <c r="U15" s="11">
-        <v>2232</v>
+        <v>2560</v>
       </c>
       <c r="V15" s="11">
-        <v>2560</v>
+        <v>2698</v>
       </c>
       <c r="W15" s="11">
-        <v>2698</v>
+        <v>2492</v>
       </c>
       <c r="X15" s="11">
-        <v>2492</v>
+        <v>2388</v>
       </c>
       <c r="Y15" s="11">
-        <v>2388</v>
+        <v>2590</v>
       </c>
       <c r="Z15" s="11">
-        <v>2590</v>
+        <v>2799</v>
       </c>
       <c r="AA15" s="11">
-        <v>2799</v>
+        <v>2588</v>
       </c>
       <c r="AB15" s="11">
-        <v>2588</v>
+        <v>2558</v>
       </c>
       <c r="AC15" s="11">
-        <v>2558</v>
-      </c>
-      <c r="AD15" s="11">
         <v>1800</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE15" s="11" t="s">
         <v>57</v>
@@ -2231,82 +2231,82 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>782</v>
+        <v>901</v>
       </c>
       <c r="F16" s="13">
-        <v>901</v>
+        <v>792</v>
       </c>
       <c r="G16" s="13">
-        <v>792</v>
-      </c>
-      <c r="H16" s="13">
         <v>759</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>57</v>
+      <c r="H16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="13">
+        <v>720</v>
       </c>
       <c r="J16" s="13">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="K16" s="13">
-        <v>742</v>
+        <v>638</v>
       </c>
       <c r="L16" s="13">
-        <v>638</v>
+        <v>1203</v>
       </c>
       <c r="M16" s="13">
-        <v>1203</v>
+        <v>535</v>
       </c>
       <c r="N16" s="13">
-        <v>535</v>
+        <v>685</v>
       </c>
       <c r="O16" s="13">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="P16" s="13">
-        <v>733</v>
+        <v>817</v>
       </c>
       <c r="Q16" s="13">
-        <v>817</v>
+        <v>886</v>
       </c>
       <c r="R16" s="13">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="S16" s="13">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="T16" s="13">
-        <v>895</v>
+        <v>761</v>
       </c>
       <c r="U16" s="13">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="V16" s="13">
-        <v>854</v>
+        <v>974</v>
       </c>
       <c r="W16" s="13">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="X16" s="13">
-        <v>944</v>
+        <v>1009</v>
       </c>
       <c r="Y16" s="13">
-        <v>1009</v>
+        <v>917</v>
       </c>
       <c r="Z16" s="13">
-        <v>917</v>
+        <v>997</v>
       </c>
       <c r="AA16" s="13">
-        <v>997</v>
+        <v>1041</v>
       </c>
       <c r="AB16" s="13">
-        <v>1041</v>
+        <v>992</v>
       </c>
       <c r="AC16" s="13">
-        <v>992</v>
-      </c>
-      <c r="AD16" s="13">
         <v>787</v>
+      </c>
+      <c r="AD16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE16" s="13" t="s">
         <v>57</v>
@@ -2413,8 +2413,8 @@
       <c r="L17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>57</v>
+      <c r="M17" s="11">
+        <v>0</v>
       </c>
       <c r="N17" s="11">
         <v>0</v>
@@ -2428,14 +2428,14 @@
       <c r="Q17" s="11">
         <v>0</v>
       </c>
-      <c r="R17" s="11">
-        <v>0</v>
+      <c r="R17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>57</v>
+      <c r="T17" s="11">
+        <v>0</v>
       </c>
       <c r="U17" s="11">
         <v>0</v>
@@ -2461,8 +2461,8 @@
       <c r="AB17" s="11">
         <v>0</v>
       </c>
-      <c r="AC17" s="11">
-        <v>0</v>
+      <c r="AC17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD17" s="11" t="s">
         <v>57</v>
@@ -2623,80 +2623,80 @@
       <c r="AC18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="13" t="s">
-        <v>57</v>
+      <c r="AD18" s="13">
+        <v>3648</v>
       </c>
       <c r="AE18" s="13">
-        <v>3648</v>
+        <v>5661</v>
       </c>
       <c r="AF18" s="13">
-        <v>5661</v>
+        <v>5688</v>
       </c>
       <c r="AG18" s="13">
-        <v>5688</v>
+        <v>5703</v>
       </c>
       <c r="AH18" s="13">
-        <v>5703</v>
+        <v>6361</v>
       </c>
       <c r="AI18" s="13">
-        <v>6361</v>
+        <v>6370</v>
       </c>
       <c r="AJ18" s="13">
-        <v>6370</v>
+        <v>6198</v>
       </c>
       <c r="AK18" s="13">
-        <v>6198</v>
+        <v>6100</v>
       </c>
       <c r="AL18" s="13">
-        <v>6100</v>
+        <v>5856</v>
       </c>
       <c r="AM18" s="13">
-        <v>5856</v>
+        <v>6136</v>
       </c>
       <c r="AN18" s="13">
-        <v>6136</v>
+        <v>6013</v>
       </c>
       <c r="AO18" s="13">
-        <v>6013</v>
+        <v>5941</v>
       </c>
       <c r="AP18" s="13">
-        <v>5941</v>
+        <v>6685</v>
       </c>
       <c r="AQ18" s="13">
-        <v>6685</v>
+        <v>6418</v>
       </c>
       <c r="AR18" s="13">
-        <v>6418</v>
+        <v>7173</v>
       </c>
       <c r="AS18" s="13">
-        <v>7173</v>
+        <v>8022</v>
       </c>
       <c r="AT18" s="13">
-        <v>8022</v>
+        <v>7227</v>
       </c>
       <c r="AU18" s="13">
-        <v>7227</v>
+        <v>7333</v>
       </c>
       <c r="AV18" s="13">
-        <v>7333</v>
+        <v>7123</v>
       </c>
       <c r="AW18" s="13">
-        <v>7123</v>
+        <v>7008</v>
       </c>
       <c r="AX18" s="13">
-        <v>7008</v>
+        <v>7462</v>
       </c>
       <c r="AY18" s="13">
-        <v>7462</v>
+        <v>7270</v>
       </c>
       <c r="AZ18" s="13">
-        <v>7270</v>
+        <v>6945</v>
       </c>
       <c r="BA18" s="13">
-        <v>6945</v>
+        <v>6397</v>
       </c>
       <c r="BB18" s="13">
-        <v>6397</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2782,80 +2782,80 @@
       <c r="AC19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD19" s="11" t="s">
-        <v>57</v>
+      <c r="AD19" s="11">
+        <v>2119</v>
       </c>
       <c r="AE19" s="11">
-        <v>2119</v>
+        <v>2729</v>
       </c>
       <c r="AF19" s="11">
-        <v>2729</v>
+        <v>2841</v>
       </c>
       <c r="AG19" s="11">
+        <v>2453</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>2745</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>5481</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>2714</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>3308</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>1250</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>864</v>
+      </c>
+      <c r="AN19" s="11">
         <v>2841</v>
       </c>
-      <c r="AH19" s="11">
-        <v>2453</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>2745</v>
-      </c>
-      <c r="AJ19" s="11">
-        <v>5481</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>2714</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>3308</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>1250</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>864</v>
-      </c>
       <c r="AO19" s="11">
-        <v>2841</v>
+        <v>2537</v>
       </c>
       <c r="AP19" s="11">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="AQ19" s="11">
-        <v>2536</v>
+        <v>1734</v>
       </c>
       <c r="AR19" s="11">
-        <v>1734</v>
+        <v>2279</v>
       </c>
       <c r="AS19" s="11">
-        <v>2279</v>
+        <v>2600</v>
       </c>
       <c r="AT19" s="11">
-        <v>2600</v>
+        <v>3557</v>
       </c>
       <c r="AU19" s="11">
-        <v>3557</v>
+        <v>2701</v>
       </c>
       <c r="AV19" s="11">
-        <v>2701</v>
+        <v>2630</v>
       </c>
       <c r="AW19" s="11">
-        <v>2630</v>
+        <v>2271</v>
       </c>
       <c r="AX19" s="11">
-        <v>2271</v>
+        <v>2733</v>
       </c>
       <c r="AY19" s="11">
-        <v>2733</v>
+        <v>2843</v>
       </c>
       <c r="AZ19" s="11">
-        <v>2843</v>
+        <v>2707</v>
       </c>
       <c r="BA19" s="11">
-        <v>2707</v>
+        <v>2552</v>
       </c>
       <c r="BB19" s="11">
-        <v>2552</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2941,80 +2941,80 @@
       <c r="AC20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="13" t="s">
-        <v>57</v>
+      <c r="AD20" s="13">
+        <v>344</v>
       </c>
       <c r="AE20" s="13">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AF20" s="13">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="AG20" s="13">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="AH20" s="13">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AI20" s="13">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="AJ20" s="13">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AK20" s="13">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="AL20" s="13">
+        <v>288</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>304</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>317</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>284</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>339</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>169</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>289</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>441</v>
+      </c>
+      <c r="AT20" s="13">
         <v>291</v>
       </c>
-      <c r="AM20" s="13">
-        <v>288</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>304</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>317</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>284</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>339</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>169</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>289</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>441</v>
-      </c>
       <c r="AU20" s="13">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="AV20" s="13">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="AW20" s="13">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="AX20" s="13">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="AY20" s="13">
+        <v>347</v>
+      </c>
+      <c r="AZ20" s="13">
+        <v>350</v>
+      </c>
+      <c r="BA20" s="13">
+        <v>371</v>
+      </c>
+      <c r="BB20" s="13">
         <v>355</v>
-      </c>
-      <c r="AZ20" s="13">
-        <v>347</v>
-      </c>
-      <c r="BA20" s="13">
-        <v>350</v>
-      </c>
-      <c r="BB20" s="13">
-        <v>371</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3157,8 +3157,8 @@
       <c r="AC22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD22" s="11" t="s">
-        <v>57</v>
+      <c r="AD22" s="11">
+        <v>0</v>
       </c>
       <c r="AE22" s="11">
         <v>0</v>
@@ -3166,8 +3166,8 @@
       <c r="AF22" s="11">
         <v>0</v>
       </c>
-      <c r="AG22" s="11">
-        <v>0</v>
+      <c r="AG22" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH22" s="11" t="s">
         <v>57</v>
@@ -3314,8 +3314,8 @@
       <c r="AC23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD23" s="15" t="s">
-        <v>57</v>
+      <c r="AD23" s="15">
+        <v>0</v>
       </c>
       <c r="AE23" s="15">
         <v>0</v>
@@ -3397,154 +3397,154 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>4823</v>
+        <v>5791</v>
       </c>
       <c r="F24" s="17">
-        <v>5791</v>
+        <v>5963</v>
       </c>
       <c r="G24" s="17">
-        <v>5963</v>
+        <v>7120</v>
       </c>
       <c r="H24" s="17">
-        <v>7120</v>
+        <v>0</v>
       </c>
       <c r="I24" s="17">
-        <v>0</v>
+        <v>7544</v>
       </c>
       <c r="J24" s="17">
-        <v>7544</v>
+        <v>7867</v>
       </c>
       <c r="K24" s="17">
-        <v>7867</v>
+        <v>7599</v>
       </c>
       <c r="L24" s="17">
-        <v>7599</v>
+        <v>9016</v>
       </c>
       <c r="M24" s="17">
-        <v>9016</v>
+        <v>7810</v>
       </c>
       <c r="N24" s="17">
-        <v>7810</v>
+        <v>8517</v>
       </c>
       <c r="O24" s="17">
-        <v>8517</v>
+        <v>8545</v>
       </c>
       <c r="P24" s="17">
-        <v>8545</v>
+        <v>7568</v>
       </c>
       <c r="Q24" s="17">
-        <v>7568</v>
+        <v>8173</v>
       </c>
       <c r="R24" s="17">
-        <v>8173</v>
+        <v>6891</v>
       </c>
       <c r="S24" s="17">
-        <v>6891</v>
+        <v>8195</v>
       </c>
       <c r="T24" s="17">
-        <v>8195</v>
+        <v>7977</v>
       </c>
       <c r="U24" s="17">
-        <v>7977</v>
+        <v>8332</v>
       </c>
       <c r="V24" s="17">
-        <v>8332</v>
+        <v>9170</v>
       </c>
       <c r="W24" s="17">
-        <v>9170</v>
+        <v>8505</v>
       </c>
       <c r="X24" s="17">
-        <v>8505</v>
+        <v>8451</v>
       </c>
       <c r="Y24" s="17">
-        <v>8451</v>
+        <v>8853</v>
       </c>
       <c r="Z24" s="17">
-        <v>8853</v>
+        <v>9451</v>
       </c>
       <c r="AA24" s="17">
-        <v>9451</v>
+        <v>9380</v>
       </c>
       <c r="AB24" s="17">
-        <v>9380</v>
+        <v>9529</v>
       </c>
       <c r="AC24" s="17">
-        <v>9529</v>
+        <v>5445</v>
       </c>
       <c r="AD24" s="17">
-        <v>5445</v>
+        <v>6111</v>
       </c>
       <c r="AE24" s="17">
-        <v>6111</v>
+        <v>8695</v>
       </c>
       <c r="AF24" s="17">
-        <v>8695</v>
+        <v>8752</v>
       </c>
       <c r="AG24" s="17">
-        <v>8752</v>
+        <v>8439</v>
       </c>
       <c r="AH24" s="17">
-        <v>8439</v>
+        <v>9402</v>
       </c>
       <c r="AI24" s="17">
-        <v>9402</v>
+        <v>12092</v>
       </c>
       <c r="AJ24" s="17">
-        <v>12092</v>
+        <v>9140</v>
       </c>
       <c r="AK24" s="17">
-        <v>9140</v>
+        <v>9699</v>
       </c>
       <c r="AL24" s="17">
-        <v>9699</v>
+        <v>7394</v>
       </c>
       <c r="AM24" s="17">
-        <v>7394</v>
+        <v>7304</v>
       </c>
       <c r="AN24" s="17">
-        <v>7304</v>
+        <v>9171</v>
       </c>
       <c r="AO24" s="17">
-        <v>9171</v>
+        <v>8762</v>
       </c>
       <c r="AP24" s="17">
-        <v>8762</v>
+        <v>9560</v>
       </c>
       <c r="AQ24" s="17">
-        <v>9560</v>
+        <v>8321</v>
       </c>
       <c r="AR24" s="17">
-        <v>8321</v>
+        <v>9741</v>
       </c>
       <c r="AS24" s="17">
-        <v>9741</v>
+        <v>11063</v>
       </c>
       <c r="AT24" s="17">
-        <v>11063</v>
+        <v>11075</v>
       </c>
       <c r="AU24" s="17">
-        <v>11075</v>
+        <v>10347</v>
       </c>
       <c r="AV24" s="17">
-        <v>10347</v>
+        <v>10129</v>
       </c>
       <c r="AW24" s="17">
-        <v>10129</v>
+        <v>9519</v>
       </c>
       <c r="AX24" s="17">
-        <v>9519</v>
+        <v>10550</v>
       </c>
       <c r="AY24" s="17">
-        <v>10550</v>
+        <v>10460</v>
       </c>
       <c r="AZ24" s="17">
-        <v>10460</v>
+        <v>10002</v>
       </c>
       <c r="BA24" s="17">
-        <v>10002</v>
+        <v>9320</v>
       </c>
       <c r="BB24" s="17">
-        <v>9320</v>
+        <v>9438</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3990,82 +3990,82 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F31" s="11">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="G31" s="11">
-        <v>356</v>
-      </c>
-      <c r="H31" s="11">
         <v>81</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>57</v>
+      <c r="H31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="11">
+        <v>411</v>
       </c>
       <c r="J31" s="11">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="K31" s="11">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="L31" s="11">
-        <v>272</v>
+        <v>597</v>
       </c>
       <c r="M31" s="11">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="N31" s="11">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="O31" s="11">
-        <v>592</v>
+        <v>506</v>
       </c>
       <c r="P31" s="11">
-        <v>506</v>
+        <v>724</v>
       </c>
       <c r="Q31" s="11">
-        <v>724</v>
+        <v>451</v>
       </c>
       <c r="R31" s="11">
-        <v>451</v>
+        <v>232</v>
       </c>
       <c r="S31" s="11">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="T31" s="11">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="U31" s="11">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="V31" s="11">
-        <v>380</v>
+        <v>202</v>
       </c>
       <c r="W31" s="11">
-        <v>202</v>
+        <v>586</v>
       </c>
       <c r="X31" s="11">
-        <v>586</v>
+        <v>251</v>
       </c>
       <c r="Y31" s="11">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="Z31" s="11">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="AA31" s="11">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="AB31" s="11">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AC31" s="11">
-        <v>148</v>
-      </c>
-      <c r="AD31" s="11">
         <v>104</v>
+      </c>
+      <c r="AD31" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE31" s="11" t="s">
         <v>57</v>
@@ -4149,83 +4149,83 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="F32" s="13">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="G32" s="13">
-        <v>321</v>
-      </c>
-      <c r="H32" s="13">
         <v>250</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>57</v>
+      <c r="H32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="13">
+        <v>283</v>
       </c>
       <c r="J32" s="13">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="K32" s="13">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L32" s="13">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="M32" s="13">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="N32" s="13">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="O32" s="13">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="P32" s="13">
+        <v>202</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>280</v>
+      </c>
+      <c r="R32" s="13">
+        <v>186</v>
+      </c>
+      <c r="S32" s="13">
+        <v>281</v>
+      </c>
+      <c r="T32" s="13">
+        <v>254</v>
+      </c>
+      <c r="U32" s="13">
+        <v>206</v>
+      </c>
+      <c r="V32" s="13">
+        <v>257</v>
+      </c>
+      <c r="W32" s="13">
+        <v>310</v>
+      </c>
+      <c r="X32" s="13">
         <v>253</v>
       </c>
-      <c r="Q32" s="13">
-        <v>202</v>
-      </c>
-      <c r="R32" s="13">
-        <v>280</v>
-      </c>
-      <c r="S32" s="13">
-        <v>186</v>
-      </c>
-      <c r="T32" s="13">
-        <v>281</v>
-      </c>
-      <c r="U32" s="13">
-        <v>254</v>
-      </c>
-      <c r="V32" s="13">
-        <v>206</v>
-      </c>
-      <c r="W32" s="13">
-        <v>257</v>
-      </c>
-      <c r="X32" s="13">
-        <v>310</v>
-      </c>
       <c r="Y32" s="13">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="Z32" s="13">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="AA32" s="13">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="AB32" s="13">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AC32" s="13">
-        <v>287</v>
-      </c>
-      <c r="AD32" s="13">
         <v>190</v>
       </c>
+      <c r="AD32" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE32" s="13" t="s">
         <v>57</v>
       </c>
@@ -4244,23 +4244,23 @@
       <c r="AJ32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK32" s="13" t="s">
-        <v>57</v>
+      <c r="AK32" s="13">
+        <v>21</v>
       </c>
       <c r="AL32" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM32" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN32" s="13">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="AO32" s="13">
-        <v>168</v>
-      </c>
-      <c r="AP32" s="13">
         <v>96</v>
+      </c>
+      <c r="AP32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ32" s="13" t="s">
         <v>57</v>
@@ -4308,82 +4308,82 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>1619</v>
+        <v>1919</v>
       </c>
       <c r="F33" s="11">
-        <v>1919</v>
+        <v>1678</v>
       </c>
       <c r="G33" s="11">
-        <v>1678</v>
-      </c>
-      <c r="H33" s="11">
         <v>1889</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>57</v>
+      <c r="H33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1779</v>
       </c>
       <c r="J33" s="11">
-        <v>1779</v>
+        <v>1854</v>
       </c>
       <c r="K33" s="11">
-        <v>1854</v>
+        <v>2072</v>
       </c>
       <c r="L33" s="11">
-        <v>2072</v>
+        <v>2009</v>
       </c>
       <c r="M33" s="11">
-        <v>2009</v>
+        <v>1760</v>
       </c>
       <c r="N33" s="11">
-        <v>1760</v>
+        <v>2036</v>
       </c>
       <c r="O33" s="11">
-        <v>2036</v>
+        <v>1944</v>
       </c>
       <c r="P33" s="11">
-        <v>1944</v>
+        <v>1987</v>
       </c>
       <c r="Q33" s="11">
-        <v>1987</v>
+        <v>2213</v>
       </c>
       <c r="R33" s="11">
-        <v>2213</v>
+        <v>2048</v>
       </c>
       <c r="S33" s="11">
-        <v>2048</v>
+        <v>2264</v>
       </c>
       <c r="T33" s="11">
-        <v>2264</v>
+        <v>2189</v>
       </c>
       <c r="U33" s="11">
-        <v>2189</v>
+        <v>2164</v>
       </c>
       <c r="V33" s="11">
-        <v>2164</v>
+        <v>2319</v>
       </c>
       <c r="W33" s="11">
-        <v>2319</v>
+        <v>2195</v>
       </c>
       <c r="X33" s="11">
-        <v>2195</v>
+        <v>2175</v>
       </c>
       <c r="Y33" s="11">
+        <v>2117</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>2276</v>
+      </c>
+      <c r="AA33" s="11">
         <v>2175</v>
       </c>
-      <c r="Z33" s="11">
-        <v>2117</v>
-      </c>
-      <c r="AA33" s="11">
-        <v>2276</v>
-      </c>
       <c r="AB33" s="11">
-        <v>2175</v>
+        <v>2215</v>
       </c>
       <c r="AC33" s="11">
-        <v>2215</v>
-      </c>
-      <c r="AD33" s="11">
         <v>1026</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE33" s="11" t="s">
         <v>57</v>
@@ -4467,82 +4467,82 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>683</v>
+        <v>898</v>
       </c>
       <c r="F34" s="13">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="G34" s="13">
-        <v>1199</v>
-      </c>
-      <c r="H34" s="13">
         <v>1664</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>57</v>
+      <c r="H34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1884</v>
       </c>
       <c r="J34" s="13">
-        <v>1884</v>
+        <v>2273</v>
       </c>
       <c r="K34" s="13">
-        <v>2273</v>
+        <v>2287</v>
       </c>
       <c r="L34" s="13">
-        <v>2287</v>
+        <v>2275</v>
       </c>
       <c r="M34" s="13">
+        <v>2413</v>
+      </c>
+      <c r="N34" s="13">
+        <v>2449</v>
+      </c>
+      <c r="O34" s="13">
+        <v>2376</v>
+      </c>
+      <c r="P34" s="13">
+        <v>1793</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>2211</v>
+      </c>
+      <c r="R34" s="13">
+        <v>1731</v>
+      </c>
+      <c r="S34" s="13">
+        <v>2211</v>
+      </c>
+      <c r="T34" s="13">
+        <v>2301</v>
+      </c>
+      <c r="U34" s="13">
+        <v>2180</v>
+      </c>
+      <c r="V34" s="13">
+        <v>2344</v>
+      </c>
+      <c r="W34" s="13">
+        <v>2331</v>
+      </c>
+      <c r="X34" s="13">
+        <v>2152</v>
+      </c>
+      <c r="Y34" s="13">
         <v>2275</v>
       </c>
-      <c r="N34" s="13">
-        <v>2413</v>
-      </c>
-      <c r="O34" s="13">
-        <v>2449</v>
-      </c>
-      <c r="P34" s="13">
-        <v>2376</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>1793</v>
-      </c>
-      <c r="R34" s="13">
-        <v>2211</v>
-      </c>
-      <c r="S34" s="13">
-        <v>1731</v>
-      </c>
-      <c r="T34" s="13">
-        <v>2211</v>
-      </c>
-      <c r="U34" s="13">
-        <v>2301</v>
-      </c>
-      <c r="V34" s="13">
-        <v>2180</v>
-      </c>
-      <c r="W34" s="13">
-        <v>2344</v>
-      </c>
-      <c r="X34" s="13">
-        <v>2331</v>
-      </c>
-      <c r="Y34" s="13">
-        <v>2152</v>
-      </c>
       <c r="Z34" s="13">
-        <v>2275</v>
+        <v>2797</v>
       </c>
       <c r="AA34" s="13">
-        <v>2797</v>
+        <v>3036</v>
       </c>
       <c r="AB34" s="13">
-        <v>3036</v>
+        <v>3133</v>
       </c>
       <c r="AC34" s="13">
-        <v>3133</v>
-      </c>
-      <c r="AD34" s="13">
         <v>1379</v>
+      </c>
+      <c r="AD34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE34" s="13" t="s">
         <v>57</v>
@@ -4626,82 +4626,82 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>1255</v>
+        <v>1699</v>
       </c>
       <c r="F35" s="11">
-        <v>1699</v>
+        <v>1962</v>
       </c>
       <c r="G35" s="11">
-        <v>1962</v>
-      </c>
-      <c r="H35" s="11">
         <v>2222</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>57</v>
+      <c r="H35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="11">
+        <v>2435</v>
       </c>
       <c r="J35" s="11">
-        <v>2435</v>
+        <v>1853</v>
       </c>
       <c r="K35" s="11">
-        <v>1853</v>
+        <v>2936</v>
       </c>
       <c r="L35" s="11">
-        <v>2936</v>
+        <v>2176</v>
       </c>
       <c r="M35" s="11">
-        <v>2176</v>
+        <v>775</v>
       </c>
       <c r="N35" s="11">
-        <v>775</v>
+        <v>2653</v>
       </c>
       <c r="O35" s="11">
-        <v>2653</v>
+        <v>2254</v>
       </c>
       <c r="P35" s="11">
-        <v>2254</v>
+        <v>2236</v>
       </c>
       <c r="Q35" s="11">
-        <v>2236</v>
+        <v>2614</v>
       </c>
       <c r="R35" s="11">
-        <v>2614</v>
+        <v>1848</v>
       </c>
       <c r="S35" s="11">
-        <v>1848</v>
+        <v>2270</v>
       </c>
       <c r="T35" s="11">
-        <v>2270</v>
+        <v>2089</v>
       </c>
       <c r="U35" s="11">
-        <v>2089</v>
+        <v>2133</v>
       </c>
       <c r="V35" s="11">
-        <v>2133</v>
+        <v>2744</v>
       </c>
       <c r="W35" s="11">
-        <v>2744</v>
+        <v>2855</v>
       </c>
       <c r="X35" s="11">
-        <v>2855</v>
+        <v>2491</v>
       </c>
       <c r="Y35" s="11">
-        <v>2491</v>
+        <v>2128</v>
       </c>
       <c r="Z35" s="11">
-        <v>2128</v>
+        <v>2360</v>
       </c>
       <c r="AA35" s="11">
-        <v>2360</v>
+        <v>2719</v>
       </c>
       <c r="AB35" s="11">
-        <v>2719</v>
+        <v>2489</v>
       </c>
       <c r="AC35" s="11">
-        <v>2489</v>
-      </c>
-      <c r="AD35" s="11">
         <v>1252</v>
+      </c>
+      <c r="AD35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE35" s="11" t="s">
         <v>57</v>
@@ -4785,82 +4785,82 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>777</v>
+        <v>937</v>
       </c>
       <c r="F36" s="13">
-        <v>937</v>
+        <v>781</v>
       </c>
       <c r="G36" s="13">
-        <v>781</v>
-      </c>
-      <c r="H36" s="13">
         <v>760</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>57</v>
+      <c r="H36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="13">
+        <v>719</v>
       </c>
       <c r="J36" s="13">
-        <v>719</v>
+        <v>748</v>
       </c>
       <c r="K36" s="13">
-        <v>748</v>
+        <v>624</v>
       </c>
       <c r="L36" s="13">
-        <v>624</v>
+        <v>802</v>
       </c>
       <c r="M36" s="13">
-        <v>802</v>
+        <v>641</v>
       </c>
       <c r="N36" s="13">
-        <v>641</v>
+        <v>951</v>
       </c>
       <c r="O36" s="13">
-        <v>951</v>
+        <v>687</v>
       </c>
       <c r="P36" s="13">
-        <v>687</v>
+        <v>856</v>
       </c>
       <c r="Q36" s="13">
-        <v>856</v>
+        <v>888</v>
       </c>
       <c r="R36" s="13">
+        <v>897</v>
+      </c>
+      <c r="S36" s="13">
+        <v>896</v>
+      </c>
+      <c r="T36" s="13">
+        <v>765</v>
+      </c>
+      <c r="U36" s="13">
+        <v>855</v>
+      </c>
+      <c r="V36" s="13">
+        <v>959</v>
+      </c>
+      <c r="W36" s="13">
+        <v>948</v>
+      </c>
+      <c r="X36" s="13">
+        <v>1007</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>889</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>977</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>1048</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>979</v>
+      </c>
+      <c r="AC36" s="13">
         <v>888</v>
       </c>
-      <c r="S36" s="13">
-        <v>897</v>
-      </c>
-      <c r="T36" s="13">
-        <v>896</v>
-      </c>
-      <c r="U36" s="13">
-        <v>765</v>
-      </c>
-      <c r="V36" s="13">
-        <v>855</v>
-      </c>
-      <c r="W36" s="13">
-        <v>959</v>
-      </c>
-      <c r="X36" s="13">
-        <v>948</v>
-      </c>
-      <c r="Y36" s="13">
-        <v>1007</v>
-      </c>
-      <c r="Z36" s="13">
-        <v>889</v>
-      </c>
-      <c r="AA36" s="13">
-        <v>977</v>
-      </c>
-      <c r="AB36" s="13">
-        <v>1048</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>979</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>888</v>
+      <c r="AD36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE36" s="13" t="s">
         <v>57</v>
@@ -4967,8 +4967,8 @@
       <c r="L37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>57</v>
+      <c r="M37" s="11">
+        <v>0</v>
       </c>
       <c r="N37" s="11">
         <v>0</v>
@@ -4982,14 +4982,14 @@
       <c r="Q37" s="11">
         <v>0</v>
       </c>
-      <c r="R37" s="11">
-        <v>0</v>
+      <c r="R37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T37" s="11" t="s">
-        <v>57</v>
+      <c r="T37" s="11">
+        <v>0</v>
       </c>
       <c r="U37" s="11">
         <v>0</v>
@@ -5015,8 +5015,8 @@
       <c r="AB37" s="11">
         <v>0</v>
       </c>
-      <c r="AC37" s="11">
-        <v>0</v>
+      <c r="AC37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD37" s="11" t="s">
         <v>57</v>
@@ -5177,80 +5177,80 @@
       <c r="AC38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD38" s="13" t="s">
-        <v>57</v>
+      <c r="AD38" s="13">
+        <v>3620</v>
       </c>
       <c r="AE38" s="13">
-        <v>3620</v>
+        <v>5812</v>
       </c>
       <c r="AF38" s="13">
-        <v>5812</v>
+        <v>5364</v>
       </c>
       <c r="AG38" s="13">
-        <v>5364</v>
+        <v>5686</v>
       </c>
       <c r="AH38" s="13">
-        <v>5686</v>
+        <v>6299</v>
       </c>
       <c r="AI38" s="13">
-        <v>6299</v>
+        <v>6401</v>
       </c>
       <c r="AJ38" s="13">
-        <v>6401</v>
+        <v>6131</v>
       </c>
       <c r="AK38" s="13">
-        <v>6131</v>
+        <v>5683</v>
       </c>
       <c r="AL38" s="13">
-        <v>5683</v>
+        <v>5915</v>
       </c>
       <c r="AM38" s="13">
-        <v>5915</v>
+        <v>6457</v>
       </c>
       <c r="AN38" s="13">
-        <v>6457</v>
+        <v>6487</v>
       </c>
       <c r="AO38" s="13">
-        <v>6487</v>
+        <v>6003</v>
       </c>
       <c r="AP38" s="13">
-        <v>6003</v>
+        <v>6540</v>
       </c>
       <c r="AQ38" s="13">
-        <v>6540</v>
+        <v>6581</v>
       </c>
       <c r="AR38" s="13">
-        <v>6581</v>
+        <v>6908</v>
       </c>
       <c r="AS38" s="13">
-        <v>6908</v>
+        <v>8056</v>
       </c>
       <c r="AT38" s="13">
-        <v>8056</v>
+        <v>7066</v>
       </c>
       <c r="AU38" s="13">
-        <v>7066</v>
+        <v>7316</v>
       </c>
       <c r="AV38" s="13">
-        <v>7316</v>
+        <v>7249</v>
       </c>
       <c r="AW38" s="13">
-        <v>7249</v>
+        <v>6989</v>
       </c>
       <c r="AX38" s="13">
-        <v>6989</v>
+        <v>7525</v>
       </c>
       <c r="AY38" s="13">
-        <v>7525</v>
+        <v>7478</v>
       </c>
       <c r="AZ38" s="13">
-        <v>7478</v>
+        <v>6650</v>
       </c>
       <c r="BA38" s="13">
-        <v>6650</v>
+        <v>6414</v>
       </c>
       <c r="BB38" s="13">
-        <v>6414</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5336,80 +5336,80 @@
       <c r="AC39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD39" s="11" t="s">
-        <v>57</v>
+      <c r="AD39" s="11">
+        <v>1454</v>
       </c>
       <c r="AE39" s="11">
-        <v>1454</v>
+        <v>2676</v>
       </c>
       <c r="AF39" s="11">
-        <v>2676</v>
+        <v>2698</v>
       </c>
       <c r="AG39" s="11">
-        <v>2698</v>
+        <v>4086</v>
       </c>
       <c r="AH39" s="11">
-        <v>4086</v>
+        <v>2760</v>
       </c>
       <c r="AI39" s="11">
-        <v>2760</v>
+        <v>2498</v>
       </c>
       <c r="AJ39" s="11">
-        <v>2498</v>
+        <v>3824</v>
       </c>
       <c r="AK39" s="11">
-        <v>3824</v>
+        <v>3308</v>
       </c>
       <c r="AL39" s="11">
-        <v>3308</v>
+        <v>2801</v>
       </c>
       <c r="AM39" s="11">
-        <v>2801</v>
+        <v>3041</v>
       </c>
       <c r="AN39" s="11">
-        <v>3041</v>
+        <v>2660</v>
       </c>
       <c r="AO39" s="11">
-        <v>2660</v>
+        <v>1820</v>
       </c>
       <c r="AP39" s="11">
-        <v>1820</v>
+        <v>2106</v>
       </c>
       <c r="AQ39" s="11">
-        <v>2106</v>
+        <v>2893</v>
       </c>
       <c r="AR39" s="11">
-        <v>2893</v>
+        <v>2451</v>
       </c>
       <c r="AS39" s="11">
-        <v>2451</v>
+        <v>2461</v>
       </c>
       <c r="AT39" s="11">
-        <v>2461</v>
+        <v>2697</v>
       </c>
       <c r="AU39" s="11">
-        <v>2697</v>
+        <v>1908</v>
       </c>
       <c r="AV39" s="11">
-        <v>1908</v>
+        <v>2415</v>
       </c>
       <c r="AW39" s="11">
-        <v>2415</v>
+        <v>1683</v>
       </c>
       <c r="AX39" s="11">
-        <v>1683</v>
+        <v>2770</v>
       </c>
       <c r="AY39" s="11">
-        <v>2770</v>
+        <v>3773</v>
       </c>
       <c r="AZ39" s="11">
-        <v>3773</v>
+        <v>2533</v>
       </c>
       <c r="BA39" s="11">
-        <v>2533</v>
+        <v>2599</v>
       </c>
       <c r="BB39" s="11">
-        <v>2599</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5495,80 +5495,80 @@
       <c r="AC40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD40" s="13" t="s">
-        <v>57</v>
+      <c r="AD40" s="13">
+        <v>353</v>
       </c>
       <c r="AE40" s="13">
+        <v>309</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>286</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>311</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>306</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>283</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>87</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>270</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>329</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>346</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>252</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>281</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>290</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>189</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>201</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>361</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>170</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>443</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>507</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>155</v>
+      </c>
+      <c r="AX40" s="13">
         <v>353</v>
       </c>
-      <c r="AF40" s="13">
-        <v>309</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>286</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>311</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>306</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>283</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>87</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>270</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>329</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>346</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>252</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>281</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>290</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>189</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>201</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>361</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>170</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>443</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>507</v>
-      </c>
-      <c r="AX40" s="13">
-        <v>155</v>
-      </c>
       <c r="AY40" s="13">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="AZ40" s="13">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="BA40" s="13">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="BB40" s="13">
-        <v>244</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5711,8 +5711,8 @@
       <c r="AC42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD42" s="11" t="s">
-        <v>57</v>
+      <c r="AD42" s="11">
+        <v>0</v>
       </c>
       <c r="AE42" s="11">
         <v>0</v>
@@ -5720,8 +5720,8 @@
       <c r="AF42" s="11">
         <v>0</v>
       </c>
-      <c r="AG42" s="11">
-        <v>0</v>
+      <c r="AG42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH42" s="11" t="s">
         <v>57</v>
@@ -5868,8 +5868,8 @@
       <c r="AC43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD43" s="15" t="s">
-        <v>57</v>
+      <c r="AD43" s="15">
+        <v>0</v>
       </c>
       <c r="AE43" s="15">
         <v>0</v>
@@ -6082,8 +6082,8 @@
       <c r="AC45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="17" t="s">
-        <v>57</v>
+      <c r="AD45" s="17">
+        <v>0</v>
       </c>
       <c r="AE45" s="17">
         <v>0</v>
@@ -6165,154 +6165,154 @@
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>4746</v>
+        <v>5849</v>
       </c>
       <c r="F46" s="15">
-        <v>5849</v>
+        <v>6297</v>
       </c>
       <c r="G46" s="15">
-        <v>6297</v>
+        <v>6866</v>
       </c>
       <c r="H46" s="15">
-        <v>6866</v>
+        <v>0</v>
       </c>
       <c r="I46" s="15">
-        <v>0</v>
+        <v>7511</v>
       </c>
       <c r="J46" s="15">
-        <v>7511</v>
+        <v>7298</v>
       </c>
       <c r="K46" s="15">
-        <v>7298</v>
+        <v>8452</v>
       </c>
       <c r="L46" s="15">
-        <v>8452</v>
+        <v>8110</v>
       </c>
       <c r="M46" s="15">
-        <v>8110</v>
+        <v>6354</v>
       </c>
       <c r="N46" s="15">
-        <v>6354</v>
+        <v>9014</v>
       </c>
       <c r="O46" s="15">
-        <v>9014</v>
+        <v>8020</v>
       </c>
       <c r="P46" s="15">
-        <v>8020</v>
+        <v>7798</v>
       </c>
       <c r="Q46" s="15">
-        <v>7798</v>
+        <v>8657</v>
       </c>
       <c r="R46" s="15">
-        <v>8657</v>
+        <v>6942</v>
       </c>
       <c r="S46" s="15">
-        <v>6942</v>
+        <v>8183</v>
       </c>
       <c r="T46" s="15">
-        <v>8183</v>
+        <v>7999</v>
       </c>
       <c r="U46" s="15">
-        <v>7999</v>
+        <v>7918</v>
       </c>
       <c r="V46" s="15">
-        <v>7918</v>
+        <v>8825</v>
       </c>
       <c r="W46" s="15">
-        <v>8825</v>
+        <v>9225</v>
       </c>
       <c r="X46" s="15">
-        <v>9225</v>
+        <v>8329</v>
       </c>
       <c r="Y46" s="15">
-        <v>8329</v>
+        <v>7813</v>
       </c>
       <c r="Z46" s="15">
-        <v>7813</v>
+        <v>8913</v>
       </c>
       <c r="AA46" s="15">
-        <v>8913</v>
+        <v>9426</v>
       </c>
       <c r="AB46" s="15">
-        <v>9426</v>
+        <v>9251</v>
       </c>
       <c r="AC46" s="15">
-        <v>9251</v>
+        <v>4839</v>
       </c>
       <c r="AD46" s="15">
-        <v>4839</v>
+        <v>5427</v>
       </c>
       <c r="AE46" s="15">
-        <v>5427</v>
+        <v>8797</v>
       </c>
       <c r="AF46" s="15">
-        <v>8797</v>
+        <v>8348</v>
       </c>
       <c r="AG46" s="15">
-        <v>8348</v>
+        <v>10083</v>
       </c>
       <c r="AH46" s="15">
-        <v>10083</v>
+        <v>9365</v>
       </c>
       <c r="AI46" s="15">
-        <v>9365</v>
+        <v>9182</v>
       </c>
       <c r="AJ46" s="15">
-        <v>9182</v>
+        <v>10042</v>
       </c>
       <c r="AK46" s="15">
-        <v>10042</v>
+        <v>9282</v>
       </c>
       <c r="AL46" s="15">
-        <v>9282</v>
+        <v>9068</v>
       </c>
       <c r="AM46" s="15">
-        <v>9068</v>
+        <v>9868</v>
       </c>
       <c r="AN46" s="15">
-        <v>9868</v>
+        <v>9567</v>
       </c>
       <c r="AO46" s="15">
-        <v>9567</v>
+        <v>8200</v>
       </c>
       <c r="AP46" s="15">
-        <v>8200</v>
+        <v>8936</v>
       </c>
       <c r="AQ46" s="15">
-        <v>8936</v>
+        <v>9663</v>
       </c>
       <c r="AR46" s="15">
-        <v>9663</v>
+        <v>9560</v>
       </c>
       <c r="AS46" s="15">
-        <v>9560</v>
+        <v>10878</v>
       </c>
       <c r="AT46" s="15">
-        <v>10878</v>
+        <v>9933</v>
       </c>
       <c r="AU46" s="15">
-        <v>9933</v>
+        <v>9667</v>
       </c>
       <c r="AV46" s="15">
-        <v>9667</v>
+        <v>10171</v>
       </c>
       <c r="AW46" s="15">
-        <v>10171</v>
+        <v>8827</v>
       </c>
       <c r="AX46" s="15">
-        <v>8827</v>
+        <v>10648</v>
       </c>
       <c r="AY46" s="15">
-        <v>10648</v>
+        <v>11416</v>
       </c>
       <c r="AZ46" s="15">
-        <v>11416</v>
+        <v>9476</v>
       </c>
       <c r="BA46" s="15">
-        <v>9476</v>
+        <v>9257</v>
       </c>
       <c r="BB46" s="15">
-        <v>9257</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6758,82 +6758,82 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="F53" s="11">
-        <v>871</v>
+        <v>2399</v>
       </c>
       <c r="G53" s="11">
-        <v>2399</v>
-      </c>
-      <c r="H53" s="11">
         <v>681</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>57</v>
+      <c r="H53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="11">
+        <v>2843</v>
       </c>
       <c r="J53" s="11">
-        <v>2843</v>
+        <v>2121</v>
       </c>
       <c r="K53" s="11">
-        <v>2121</v>
+        <v>1581</v>
       </c>
       <c r="L53" s="11">
-        <v>1581</v>
+        <v>3129</v>
       </c>
       <c r="M53" s="11">
-        <v>3129</v>
+        <v>3689</v>
       </c>
       <c r="N53" s="11">
-        <v>3689</v>
+        <v>2579</v>
       </c>
       <c r="O53" s="11">
-        <v>2579</v>
+        <v>2457</v>
       </c>
       <c r="P53" s="11">
-        <v>2457</v>
+        <v>3708</v>
       </c>
       <c r="Q53" s="11">
-        <v>3708</v>
+        <v>1620</v>
       </c>
       <c r="R53" s="11">
-        <v>1620</v>
+        <v>685</v>
       </c>
       <c r="S53" s="11">
-        <v>685</v>
+        <v>1053</v>
       </c>
       <c r="T53" s="11">
-        <v>1053</v>
+        <v>1183</v>
       </c>
       <c r="U53" s="11">
-        <v>1183</v>
+        <v>2375</v>
       </c>
       <c r="V53" s="11">
-        <v>2375</v>
+        <v>779</v>
       </c>
       <c r="W53" s="11">
-        <v>779</v>
+        <v>2720</v>
       </c>
       <c r="X53" s="11">
-        <v>2720</v>
+        <v>2628</v>
       </c>
       <c r="Y53" s="11">
-        <v>2628</v>
+        <v>1481</v>
       </c>
       <c r="Z53" s="11">
-        <v>1481</v>
+        <v>1165</v>
       </c>
       <c r="AA53" s="11">
-        <v>1165</v>
+        <v>1442</v>
       </c>
       <c r="AB53" s="11">
-        <v>1442</v>
+        <v>1504</v>
       </c>
       <c r="AC53" s="11">
-        <v>1504</v>
-      </c>
-      <c r="AD53" s="11">
         <v>1079</v>
+      </c>
+      <c r="AD53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE53" s="11" t="s">
         <v>57</v>
@@ -6917,83 +6917,83 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>8599</v>
+        <v>11726</v>
       </c>
       <c r="F54" s="13">
-        <v>11726</v>
+        <v>17052</v>
       </c>
       <c r="G54" s="13">
-        <v>17052</v>
-      </c>
-      <c r="H54" s="13">
         <v>22519</v>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>57</v>
+      <c r="H54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="13">
+        <v>29843</v>
       </c>
       <c r="J54" s="13">
-        <v>29843</v>
+        <v>22584</v>
       </c>
       <c r="K54" s="13">
-        <v>22584</v>
+        <v>20153</v>
       </c>
       <c r="L54" s="13">
-        <v>20153</v>
+        <v>23129</v>
       </c>
       <c r="M54" s="13">
-        <v>23129</v>
+        <v>10199</v>
       </c>
       <c r="N54" s="13">
-        <v>10199</v>
+        <v>29159</v>
       </c>
       <c r="O54" s="13">
-        <v>29159</v>
+        <v>25377</v>
       </c>
       <c r="P54" s="13">
-        <v>25377</v>
+        <v>21308</v>
       </c>
       <c r="Q54" s="13">
-        <v>21308</v>
+        <v>26495</v>
       </c>
       <c r="R54" s="13">
-        <v>26495</v>
+        <v>20991</v>
       </c>
       <c r="S54" s="13">
-        <v>20991</v>
+        <v>31188</v>
       </c>
       <c r="T54" s="13">
-        <v>31188</v>
+        <v>27844</v>
       </c>
       <c r="U54" s="13">
-        <v>27844</v>
+        <v>21989</v>
       </c>
       <c r="V54" s="13">
-        <v>21989</v>
+        <v>27151</v>
       </c>
       <c r="W54" s="13">
-        <v>27151</v>
+        <v>31995</v>
       </c>
       <c r="X54" s="13">
-        <v>31995</v>
+        <v>27395</v>
       </c>
       <c r="Y54" s="13">
-        <v>27395</v>
+        <v>23126</v>
       </c>
       <c r="Z54" s="13">
-        <v>23126</v>
+        <v>40136</v>
       </c>
       <c r="AA54" s="13">
-        <v>40136</v>
+        <v>33872</v>
       </c>
       <c r="AB54" s="13">
-        <v>33872</v>
+        <v>36498</v>
       </c>
       <c r="AC54" s="13">
-        <v>36498</v>
-      </c>
-      <c r="AD54" s="13">
         <v>25229</v>
       </c>
+      <c r="AD54" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE54" s="13" t="s">
         <v>57</v>
       </c>
@@ -7012,23 +7012,23 @@
       <c r="AJ54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK54" s="13" t="s">
-        <v>57</v>
+      <c r="AK54" s="13">
+        <v>5155</v>
       </c>
       <c r="AL54" s="13">
-        <v>5155</v>
+        <v>6868</v>
       </c>
       <c r="AM54" s="13">
-        <v>6868</v>
+        <v>8072</v>
       </c>
       <c r="AN54" s="13">
-        <v>8072</v>
+        <v>58652</v>
       </c>
       <c r="AO54" s="13">
-        <v>58652</v>
-      </c>
-      <c r="AP54" s="13">
         <v>36818</v>
+      </c>
+      <c r="AP54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ54" s="13" t="s">
         <v>57</v>
@@ -7076,82 +7076,82 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>7797</v>
+        <v>9701</v>
       </c>
       <c r="F55" s="11">
-        <v>9701</v>
+        <v>9419</v>
       </c>
       <c r="G55" s="11">
-        <v>9419</v>
-      </c>
-      <c r="H55" s="11">
         <v>11308</v>
       </c>
-      <c r="I55" s="11" t="s">
-        <v>57</v>
+      <c r="H55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="11">
+        <v>10559</v>
       </c>
       <c r="J55" s="11">
-        <v>10559</v>
+        <v>10931</v>
       </c>
       <c r="K55" s="11">
-        <v>10931</v>
+        <v>12226</v>
       </c>
       <c r="L55" s="11">
-        <v>12226</v>
+        <v>11920</v>
       </c>
       <c r="M55" s="11">
-        <v>11920</v>
+        <v>10154</v>
       </c>
       <c r="N55" s="11">
-        <v>10154</v>
+        <v>12220</v>
       </c>
       <c r="O55" s="11">
-        <v>12220</v>
+        <v>11694</v>
       </c>
       <c r="P55" s="11">
-        <v>11694</v>
+        <v>11895</v>
       </c>
       <c r="Q55" s="11">
-        <v>11895</v>
+        <v>13076</v>
       </c>
       <c r="R55" s="11">
-        <v>13076</v>
+        <v>12227</v>
       </c>
       <c r="S55" s="11">
-        <v>12227</v>
+        <v>13978</v>
       </c>
       <c r="T55" s="11">
-        <v>13978</v>
+        <v>13427</v>
       </c>
       <c r="U55" s="11">
-        <v>13427</v>
+        <v>13234</v>
       </c>
       <c r="V55" s="11">
-        <v>13234</v>
+        <v>14341</v>
       </c>
       <c r="W55" s="11">
-        <v>14341</v>
+        <v>13661</v>
       </c>
       <c r="X55" s="11">
-        <v>13661</v>
+        <v>14062</v>
       </c>
       <c r="Y55" s="11">
-        <v>14062</v>
+        <v>14374</v>
       </c>
       <c r="Z55" s="11">
-        <v>14374</v>
+        <v>15049</v>
       </c>
       <c r="AA55" s="11">
-        <v>15049</v>
+        <v>14951</v>
       </c>
       <c r="AB55" s="11">
-        <v>14951</v>
+        <v>15834</v>
       </c>
       <c r="AC55" s="11">
-        <v>15834</v>
-      </c>
-      <c r="AD55" s="11">
         <v>7187</v>
+      </c>
+      <c r="AD55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE55" s="11" t="s">
         <v>57</v>
@@ -7235,82 +7235,82 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>902</v>
+        <v>1001</v>
       </c>
       <c r="F56" s="13">
-        <v>1001</v>
+        <v>1189</v>
       </c>
       <c r="G56" s="13">
-        <v>1189</v>
-      </c>
-      <c r="H56" s="13">
         <v>1739</v>
       </c>
-      <c r="I56" s="13" t="s">
-        <v>57</v>
+      <c r="H56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="13">
+        <v>2864</v>
       </c>
       <c r="J56" s="13">
-        <v>2864</v>
+        <v>1865</v>
       </c>
       <c r="K56" s="13">
-        <v>1865</v>
+        <v>1719</v>
       </c>
       <c r="L56" s="13">
-        <v>1719</v>
+        <v>1850</v>
       </c>
       <c r="M56" s="13">
-        <v>1850</v>
+        <v>1916</v>
       </c>
       <c r="N56" s="13">
-        <v>1916</v>
+        <v>1871</v>
       </c>
       <c r="O56" s="13">
-        <v>1871</v>
+        <v>2346</v>
       </c>
       <c r="P56" s="13">
-        <v>2346</v>
+        <v>3535</v>
       </c>
       <c r="Q56" s="13">
-        <v>3535</v>
+        <v>4188</v>
       </c>
       <c r="R56" s="13">
-        <v>4188</v>
+        <v>2990</v>
       </c>
       <c r="S56" s="13">
-        <v>2990</v>
+        <v>3454</v>
       </c>
       <c r="T56" s="13">
-        <v>3454</v>
+        <v>3098</v>
       </c>
       <c r="U56" s="13">
-        <v>3098</v>
+        <v>2976</v>
       </c>
       <c r="V56" s="13">
-        <v>2976</v>
+        <v>3019</v>
       </c>
       <c r="W56" s="13">
-        <v>3019</v>
+        <v>2965</v>
       </c>
       <c r="X56" s="13">
-        <v>2965</v>
+        <v>3090</v>
       </c>
       <c r="Y56" s="13">
-        <v>3090</v>
+        <v>1953</v>
       </c>
       <c r="Z56" s="13">
-        <v>1953</v>
+        <v>2853</v>
       </c>
       <c r="AA56" s="13">
-        <v>2853</v>
+        <v>3547</v>
       </c>
       <c r="AB56" s="13">
-        <v>3547</v>
+        <v>3873</v>
       </c>
       <c r="AC56" s="13">
-        <v>3873</v>
-      </c>
-      <c r="AD56" s="13">
         <v>2764</v>
+      </c>
+      <c r="AD56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE56" s="13" t="s">
         <v>57</v>
@@ -7394,82 +7394,82 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>41600</v>
+        <v>60163</v>
       </c>
       <c r="F57" s="11">
-        <v>60163</v>
+        <v>63167</v>
       </c>
       <c r="G57" s="11">
-        <v>63167</v>
-      </c>
-      <c r="H57" s="11">
         <v>75103</v>
       </c>
-      <c r="I57" s="11" t="s">
-        <v>57</v>
+      <c r="H57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="11">
+        <v>68470</v>
       </c>
       <c r="J57" s="11">
-        <v>68470</v>
+        <v>55517</v>
       </c>
       <c r="K57" s="11">
-        <v>55517</v>
+        <v>103487</v>
       </c>
       <c r="L57" s="11">
-        <v>103487</v>
+        <v>73835</v>
       </c>
       <c r="M57" s="11">
-        <v>73835</v>
+        <v>31335</v>
       </c>
       <c r="N57" s="11">
-        <v>31335</v>
+        <v>104041</v>
       </c>
       <c r="O57" s="11">
-        <v>104041</v>
+        <v>81505</v>
       </c>
       <c r="P57" s="11">
-        <v>81505</v>
+        <v>73977</v>
       </c>
       <c r="Q57" s="11">
-        <v>73977</v>
+        <v>77172</v>
       </c>
       <c r="R57" s="11">
-        <v>77172</v>
+        <v>54990</v>
       </c>
       <c r="S57" s="11">
-        <v>54990</v>
+        <v>68033</v>
       </c>
       <c r="T57" s="11">
-        <v>68033</v>
+        <v>59708</v>
       </c>
       <c r="U57" s="11">
-        <v>59708</v>
+        <v>64036</v>
       </c>
       <c r="V57" s="11">
-        <v>64036</v>
+        <v>92329</v>
       </c>
       <c r="W57" s="11">
-        <v>92329</v>
+        <v>94504</v>
       </c>
       <c r="X57" s="11">
-        <v>94504</v>
+        <v>96680</v>
       </c>
       <c r="Y57" s="11">
-        <v>96680</v>
+        <v>69404</v>
       </c>
       <c r="Z57" s="11">
-        <v>69404</v>
+        <v>77128</v>
       </c>
       <c r="AA57" s="11">
-        <v>77128</v>
+        <v>93745</v>
       </c>
       <c r="AB57" s="11">
-        <v>93745</v>
+        <v>102102</v>
       </c>
       <c r="AC57" s="11">
-        <v>102102</v>
-      </c>
-      <c r="AD57" s="11">
         <v>58592</v>
+      </c>
+      <c r="AD57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE57" s="11" t="s">
         <v>57</v>
@@ -7553,82 +7553,82 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>21869</v>
+        <v>28085</v>
       </c>
       <c r="F58" s="13">
-        <v>28085</v>
+        <v>26249</v>
       </c>
       <c r="G58" s="13">
-        <v>26249</v>
-      </c>
-      <c r="H58" s="13">
         <v>27235</v>
       </c>
-      <c r="I58" s="13" t="s">
-        <v>57</v>
+      <c r="H58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="13">
+        <v>25454</v>
       </c>
       <c r="J58" s="13">
-        <v>25454</v>
+        <v>26848</v>
       </c>
       <c r="K58" s="13">
-        <v>26848</v>
+        <v>22414</v>
       </c>
       <c r="L58" s="13">
-        <v>22414</v>
+        <v>20377</v>
       </c>
       <c r="M58" s="13">
-        <v>20377</v>
+        <v>26394</v>
       </c>
       <c r="N58" s="13">
-        <v>26394</v>
+        <v>32572</v>
       </c>
       <c r="O58" s="13">
-        <v>32572</v>
+        <v>32467</v>
       </c>
       <c r="P58" s="13">
-        <v>32467</v>
+        <v>38429</v>
       </c>
       <c r="Q58" s="13">
-        <v>38429</v>
+        <v>33996</v>
       </c>
       <c r="R58" s="13">
-        <v>33996</v>
+        <v>34127</v>
       </c>
       <c r="S58" s="13">
-        <v>34127</v>
+        <v>34090</v>
       </c>
       <c r="T58" s="13">
-        <v>34090</v>
+        <v>37701</v>
       </c>
       <c r="U58" s="13">
-        <v>37701</v>
+        <v>23826</v>
       </c>
       <c r="V58" s="13">
-        <v>23826</v>
+        <v>35383</v>
       </c>
       <c r="W58" s="13">
-        <v>35383</v>
+        <v>43474</v>
       </c>
       <c r="X58" s="13">
-        <v>43474</v>
+        <v>41237</v>
       </c>
       <c r="Y58" s="13">
-        <v>41237</v>
+        <v>41245</v>
       </c>
       <c r="Z58" s="13">
-        <v>41245</v>
+        <v>49340</v>
       </c>
       <c r="AA58" s="13">
-        <v>49340</v>
+        <v>50952</v>
       </c>
       <c r="AB58" s="13">
-        <v>50952</v>
+        <v>57750</v>
       </c>
       <c r="AC58" s="13">
-        <v>57750</v>
-      </c>
-      <c r="AD58" s="13">
         <v>36801</v>
+      </c>
+      <c r="AD58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE58" s="13" t="s">
         <v>57</v>
@@ -7735,14 +7735,14 @@
       <c r="L59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M59" s="11" t="s">
-        <v>57</v>
+      <c r="M59" s="11">
+        <v>2050</v>
       </c>
       <c r="N59" s="11">
-        <v>2050</v>
+        <v>12141</v>
       </c>
       <c r="O59" s="11">
-        <v>12141</v>
+        <v>0</v>
       </c>
       <c r="P59" s="11">
         <v>0</v>
@@ -7750,41 +7750,41 @@
       <c r="Q59" s="11">
         <v>0</v>
       </c>
-      <c r="R59" s="11">
-        <v>0</v>
+      <c r="R59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T59" s="11" t="s">
-        <v>57</v>
+      <c r="T59" s="11">
+        <v>7737</v>
       </c>
       <c r="U59" s="11">
-        <v>7737</v>
+        <v>0</v>
       </c>
       <c r="V59" s="11">
         <v>0</v>
       </c>
       <c r="W59" s="11">
-        <v>0</v>
+        <v>62852</v>
       </c>
       <c r="X59" s="11">
-        <v>62852</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="11">
         <v>0</v>
       </c>
       <c r="Z59" s="11">
-        <v>0</v>
+        <v>45376</v>
       </c>
       <c r="AA59" s="11">
-        <v>45376</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="11">
         <v>0</v>
       </c>
-      <c r="AC59" s="11">
-        <v>0</v>
+      <c r="AC59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD59" s="11" t="s">
         <v>57</v>
@@ -7945,80 +7945,80 @@
       <c r="AC60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD60" s="13" t="s">
-        <v>57</v>
+      <c r="AD60" s="13">
+        <v>111422</v>
       </c>
       <c r="AE60" s="13">
-        <v>111422</v>
+        <v>88692</v>
       </c>
       <c r="AF60" s="13">
-        <v>88692</v>
+        <v>86963</v>
       </c>
       <c r="AG60" s="13">
-        <v>86963</v>
+        <v>81270</v>
       </c>
       <c r="AH60" s="13">
-        <v>81270</v>
+        <v>91617</v>
       </c>
       <c r="AI60" s="13">
-        <v>91617</v>
+        <v>76117</v>
       </c>
       <c r="AJ60" s="13">
-        <v>76117</v>
+        <v>71073</v>
       </c>
       <c r="AK60" s="13">
-        <v>71073</v>
+        <v>83868</v>
       </c>
       <c r="AL60" s="13">
-        <v>83868</v>
+        <v>87893</v>
       </c>
       <c r="AM60" s="13">
-        <v>87893</v>
+        <v>96073</v>
       </c>
       <c r="AN60" s="13">
-        <v>96073</v>
+        <v>105760</v>
       </c>
       <c r="AO60" s="13">
-        <v>105760</v>
+        <v>99478</v>
       </c>
       <c r="AP60" s="13">
-        <v>99478</v>
+        <v>97816</v>
       </c>
       <c r="AQ60" s="13">
-        <v>97816</v>
+        <v>94817</v>
       </c>
       <c r="AR60" s="13">
-        <v>94817</v>
+        <v>86864</v>
       </c>
       <c r="AS60" s="13">
-        <v>86864</v>
+        <v>103902</v>
       </c>
       <c r="AT60" s="13">
-        <v>103902</v>
+        <v>97515</v>
       </c>
       <c r="AU60" s="13">
-        <v>97515</v>
+        <v>117214</v>
       </c>
       <c r="AV60" s="13">
-        <v>117214</v>
+        <v>126325</v>
       </c>
       <c r="AW60" s="13">
-        <v>126325</v>
+        <v>123383</v>
       </c>
       <c r="AX60" s="13">
-        <v>123383</v>
+        <v>148234</v>
       </c>
       <c r="AY60" s="13">
-        <v>148234</v>
+        <v>152457</v>
       </c>
       <c r="AZ60" s="13">
-        <v>152457</v>
+        <v>188533</v>
       </c>
       <c r="BA60" s="13">
-        <v>188533</v>
+        <v>204146</v>
       </c>
       <c r="BB60" s="13">
-        <v>204146</v>
+        <v>194334</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8104,80 +8104,80 @@
       <c r="AC61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD61" s="11" t="s">
-        <v>57</v>
+      <c r="AD61" s="11">
+        <v>59150</v>
       </c>
       <c r="AE61" s="11">
-        <v>59150</v>
+        <v>126215</v>
       </c>
       <c r="AF61" s="11">
-        <v>126215</v>
+        <v>127164</v>
       </c>
       <c r="AG61" s="11">
-        <v>127164</v>
+        <v>192508</v>
       </c>
       <c r="AH61" s="11">
-        <v>192508</v>
+        <v>127171</v>
       </c>
       <c r="AI61" s="11">
-        <v>127171</v>
+        <v>139994</v>
       </c>
       <c r="AJ61" s="11">
-        <v>139994</v>
+        <v>214738</v>
       </c>
       <c r="AK61" s="11">
-        <v>214738</v>
+        <v>198239</v>
       </c>
       <c r="AL61" s="11">
-        <v>198239</v>
+        <v>187780</v>
       </c>
       <c r="AM61" s="11">
-        <v>187780</v>
+        <v>213926</v>
       </c>
       <c r="AN61" s="11">
-        <v>213926</v>
+        <v>250760</v>
       </c>
       <c r="AO61" s="11">
-        <v>250760</v>
+        <v>287421</v>
       </c>
       <c r="AP61" s="11">
-        <v>287421</v>
+        <v>297267</v>
       </c>
       <c r="AQ61" s="11">
-        <v>297267</v>
+        <v>401192</v>
       </c>
       <c r="AR61" s="11">
-        <v>401192</v>
+        <v>543446</v>
       </c>
       <c r="AS61" s="11">
-        <v>543446</v>
+        <v>500023</v>
       </c>
       <c r="AT61" s="11">
-        <v>500023</v>
+        <v>558681</v>
       </c>
       <c r="AU61" s="11">
-        <v>558681</v>
+        <v>375573</v>
       </c>
       <c r="AV61" s="11">
-        <v>375573</v>
+        <v>417769</v>
       </c>
       <c r="AW61" s="11">
-        <v>417769</v>
+        <v>253405</v>
       </c>
       <c r="AX61" s="11">
-        <v>253405</v>
+        <v>390108</v>
       </c>
       <c r="AY61" s="11">
-        <v>390108</v>
+        <v>532338</v>
       </c>
       <c r="AZ61" s="11">
-        <v>532338</v>
+        <v>449504</v>
       </c>
       <c r="BA61" s="11">
-        <v>449504</v>
+        <v>517716</v>
       </c>
       <c r="BB61" s="11">
-        <v>517716</v>
+        <v>426011</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8263,80 +8263,80 @@
       <c r="AC62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD62" s="13" t="s">
-        <v>57</v>
+      <c r="AD62" s="13">
+        <v>56013</v>
       </c>
       <c r="AE62" s="13">
-        <v>56013</v>
+        <v>55553</v>
       </c>
       <c r="AF62" s="13">
-        <v>55553</v>
+        <v>50428</v>
       </c>
       <c r="AG62" s="13">
-        <v>50428</v>
+        <v>61800</v>
       </c>
       <c r="AH62" s="13">
-        <v>61800</v>
+        <v>92501</v>
       </c>
       <c r="AI62" s="13">
-        <v>92501</v>
+        <v>102864</v>
       </c>
       <c r="AJ62" s="13">
-        <v>102864</v>
+        <v>29145</v>
       </c>
       <c r="AK62" s="13">
-        <v>29145</v>
+        <v>79245</v>
       </c>
       <c r="AL62" s="13">
-        <v>79245</v>
+        <v>115226</v>
       </c>
       <c r="AM62" s="13">
-        <v>115226</v>
+        <v>111128</v>
       </c>
       <c r="AN62" s="13">
-        <v>111128</v>
+        <v>73604</v>
       </c>
       <c r="AO62" s="13">
-        <v>73604</v>
+        <v>98345</v>
       </c>
       <c r="AP62" s="13">
-        <v>98345</v>
+        <v>119028</v>
       </c>
       <c r="AQ62" s="13">
-        <v>119028</v>
+        <v>85876</v>
       </c>
       <c r="AR62" s="13">
-        <v>85876</v>
+        <v>77495</v>
       </c>
       <c r="AS62" s="13">
-        <v>77495</v>
+        <v>124570</v>
       </c>
       <c r="AT62" s="13">
-        <v>124570</v>
+        <v>57270</v>
       </c>
       <c r="AU62" s="13">
-        <v>57270</v>
+        <v>145160</v>
       </c>
       <c r="AV62" s="13">
-        <v>145160</v>
+        <v>175642</v>
       </c>
       <c r="AW62" s="13">
-        <v>175642</v>
+        <v>66371</v>
       </c>
       <c r="AX62" s="13">
-        <v>66371</v>
+        <v>133080</v>
       </c>
       <c r="AY62" s="13">
-        <v>133080</v>
+        <v>59251</v>
       </c>
       <c r="AZ62" s="13">
-        <v>59251</v>
+        <v>100630</v>
       </c>
       <c r="BA62" s="13">
-        <v>100630</v>
+        <v>83335</v>
       </c>
       <c r="BB62" s="13">
-        <v>83335</v>
+        <v>50806</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8479,8 +8479,8 @@
       <c r="AC64" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD64" s="11" t="s">
-        <v>57</v>
+      <c r="AD64" s="11">
+        <v>0</v>
       </c>
       <c r="AE64" s="11">
         <v>0</v>
@@ -8488,8 +8488,8 @@
       <c r="AF64" s="11">
         <v>0</v>
       </c>
-      <c r="AG64" s="11">
-        <v>0</v>
+      <c r="AG64" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH64" s="11" t="s">
         <v>57</v>
@@ -8638,8 +8638,8 @@
       <c r="AC65" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD65" s="15" t="s">
-        <v>57</v>
+      <c r="AD65" s="15">
+        <v>0</v>
       </c>
       <c r="AE65" s="15">
         <v>0</v>
@@ -8854,8 +8854,8 @@
       <c r="AC67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD67" s="17" t="s">
-        <v>57</v>
+      <c r="AD67" s="17">
+        <v>0</v>
       </c>
       <c r="AE67" s="17">
         <v>0</v>
@@ -9070,8 +9070,8 @@
       <c r="AC69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD69" s="11" t="s">
-        <v>57</v>
+      <c r="AD69" s="11">
+        <v>0</v>
       </c>
       <c r="AE69" s="11">
         <v>0</v>
@@ -9153,154 +9153,154 @@
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
-        <v>81620</v>
+        <v>111547</v>
       </c>
       <c r="F70" s="15">
-        <v>111547</v>
+        <v>119475</v>
       </c>
       <c r="G70" s="15">
-        <v>119475</v>
+        <v>138585</v>
       </c>
       <c r="H70" s="15">
-        <v>138585</v>
+        <v>0</v>
       </c>
       <c r="I70" s="15">
-        <v>0</v>
+        <v>140033</v>
       </c>
       <c r="J70" s="15">
-        <v>140033</v>
+        <v>119866</v>
       </c>
       <c r="K70" s="15">
-        <v>119866</v>
+        <v>161580</v>
       </c>
       <c r="L70" s="15">
-        <v>161580</v>
+        <v>134240</v>
       </c>
       <c r="M70" s="15">
-        <v>134240</v>
+        <v>85737</v>
       </c>
       <c r="N70" s="15">
-        <v>85737</v>
+        <v>194583</v>
       </c>
       <c r="O70" s="15">
-        <v>194583</v>
+        <v>155846</v>
       </c>
       <c r="P70" s="15">
-        <v>155846</v>
+        <v>152852</v>
       </c>
       <c r="Q70" s="15">
-        <v>152852</v>
+        <v>156547</v>
       </c>
       <c r="R70" s="15">
-        <v>156547</v>
+        <v>126010</v>
       </c>
       <c r="S70" s="15">
-        <v>126010</v>
+        <v>151796</v>
       </c>
       <c r="T70" s="15">
-        <v>151796</v>
+        <v>150698</v>
       </c>
       <c r="U70" s="15">
-        <v>150698</v>
+        <v>128436</v>
       </c>
       <c r="V70" s="15">
-        <v>128436</v>
+        <v>173002</v>
       </c>
       <c r="W70" s="15">
-        <v>173002</v>
+        <v>252171</v>
       </c>
       <c r="X70" s="15">
-        <v>252171</v>
+        <v>185092</v>
       </c>
       <c r="Y70" s="15">
-        <v>185092</v>
+        <v>151583</v>
       </c>
       <c r="Z70" s="15">
-        <v>151583</v>
+        <v>231047</v>
       </c>
       <c r="AA70" s="15">
-        <v>231047</v>
+        <v>198509</v>
       </c>
       <c r="AB70" s="15">
-        <v>198509</v>
+        <v>217561</v>
       </c>
       <c r="AC70" s="15">
-        <v>217561</v>
+        <v>131652</v>
       </c>
       <c r="AD70" s="15">
-        <v>131652</v>
+        <v>226585</v>
       </c>
       <c r="AE70" s="15">
-        <v>226585</v>
+        <v>270460</v>
       </c>
       <c r="AF70" s="15">
-        <v>270460</v>
+        <v>264555</v>
       </c>
       <c r="AG70" s="15">
-        <v>264555</v>
+        <v>335578</v>
       </c>
       <c r="AH70" s="15">
-        <v>335578</v>
+        <v>311289</v>
       </c>
       <c r="AI70" s="15">
-        <v>311289</v>
+        <v>318975</v>
       </c>
       <c r="AJ70" s="15">
-        <v>318975</v>
+        <v>314956</v>
       </c>
       <c r="AK70" s="15">
-        <v>314956</v>
+        <v>366507</v>
       </c>
       <c r="AL70" s="15">
-        <v>366507</v>
+        <v>397767</v>
       </c>
       <c r="AM70" s="15">
-        <v>397767</v>
+        <v>429199</v>
       </c>
       <c r="AN70" s="15">
-        <v>429199</v>
+        <v>488776</v>
       </c>
       <c r="AO70" s="15">
-        <v>488776</v>
+        <v>522062</v>
       </c>
       <c r="AP70" s="15">
-        <v>522062</v>
+        <v>514111</v>
       </c>
       <c r="AQ70" s="15">
-        <v>514111</v>
+        <v>581885</v>
       </c>
       <c r="AR70" s="15">
-        <v>581885</v>
+        <v>707805</v>
       </c>
       <c r="AS70" s="15">
-        <v>707805</v>
+        <v>728495</v>
       </c>
       <c r="AT70" s="15">
-        <v>728495</v>
+        <v>713466</v>
       </c>
       <c r="AU70" s="15">
-        <v>713466</v>
+        <v>637947</v>
       </c>
       <c r="AV70" s="15">
-        <v>637947</v>
+        <v>719736</v>
       </c>
       <c r="AW70" s="15">
-        <v>719736</v>
+        <v>443159</v>
       </c>
       <c r="AX70" s="15">
-        <v>443159</v>
+        <v>671422</v>
       </c>
       <c r="AY70" s="15">
-        <v>671422</v>
+        <v>744046</v>
       </c>
       <c r="AZ70" s="15">
-        <v>744046</v>
+        <v>738667</v>
       </c>
       <c r="BA70" s="15">
-        <v>738667</v>
+        <v>805197</v>
       </c>
       <c r="BB70" s="15">
-        <v>805197</v>
+        <v>671151</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9746,82 +9746,82 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>3808036</v>
+        <v>5246988</v>
       </c>
       <c r="F77" s="11">
-        <v>5246988</v>
+        <v>6738764</v>
       </c>
       <c r="G77" s="11">
-        <v>6738764</v>
-      </c>
-      <c r="H77" s="11">
         <v>8407407</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>57</v>
+      <c r="H77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="11">
+        <v>6917275</v>
       </c>
       <c r="J77" s="11">
-        <v>6917275</v>
+        <v>6275148</v>
       </c>
       <c r="K77" s="11">
-        <v>6275148</v>
+        <v>5812500</v>
       </c>
       <c r="L77" s="11">
-        <v>5812500</v>
+        <v>5241206</v>
       </c>
       <c r="M77" s="11">
-        <v>5241206</v>
+        <v>5589394</v>
       </c>
       <c r="N77" s="11">
-        <v>5589394</v>
+        <v>4356419</v>
       </c>
       <c r="O77" s="11">
-        <v>4356419</v>
+        <v>4855731</v>
       </c>
       <c r="P77" s="11">
-        <v>4855731</v>
+        <v>5121547</v>
       </c>
       <c r="Q77" s="11">
-        <v>5121547</v>
+        <v>3592018</v>
       </c>
       <c r="R77" s="11">
-        <v>3592018</v>
+        <v>2952586</v>
       </c>
       <c r="S77" s="11">
-        <v>2952586</v>
+        <v>4034483</v>
       </c>
       <c r="T77" s="11">
-        <v>4034483</v>
+        <v>2950125</v>
       </c>
       <c r="U77" s="11">
-        <v>2950125</v>
+        <v>6250000</v>
       </c>
       <c r="V77" s="11">
-        <v>6250000</v>
+        <v>3856436</v>
       </c>
       <c r="W77" s="11">
-        <v>3856436</v>
+        <v>4641638</v>
       </c>
       <c r="X77" s="11">
-        <v>4641638</v>
+        <v>10470120</v>
       </c>
       <c r="Y77" s="11">
-        <v>10470120</v>
+        <v>7405000</v>
       </c>
       <c r="Z77" s="11">
-        <v>7405000</v>
+        <v>9628099</v>
       </c>
       <c r="AA77" s="11">
-        <v>9628099</v>
+        <v>9363636</v>
       </c>
       <c r="AB77" s="11">
-        <v>9363636</v>
+        <v>10162162</v>
       </c>
       <c r="AC77" s="11">
-        <v>10162162</v>
-      </c>
-      <c r="AD77" s="11">
         <v>10375000</v>
+      </c>
+      <c r="AD77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE77" s="11" t="s">
         <v>57</v>
@@ -9905,83 +9905,83 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>45739362</v>
+        <v>50982609</v>
       </c>
       <c r="F78" s="13">
-        <v>50982609</v>
+        <v>53121495</v>
       </c>
       <c r="G78" s="13">
-        <v>53121495</v>
-      </c>
-      <c r="H78" s="13">
         <v>90076000</v>
       </c>
-      <c r="I78" s="13" t="s">
-        <v>57</v>
+      <c r="H78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="13">
+        <v>105452297</v>
       </c>
       <c r="J78" s="13">
-        <v>105452297</v>
+        <v>97344828</v>
       </c>
       <c r="K78" s="13">
-        <v>97344828</v>
+        <v>77214559</v>
       </c>
       <c r="L78" s="13">
-        <v>77214559</v>
+        <v>92147410</v>
       </c>
       <c r="M78" s="13">
-        <v>92147410</v>
+        <v>97133333</v>
       </c>
       <c r="N78" s="13">
-        <v>97133333</v>
+        <v>87564565</v>
       </c>
       <c r="O78" s="13">
-        <v>87564565</v>
+        <v>100304348</v>
       </c>
       <c r="P78" s="13">
-        <v>100304348</v>
+        <v>105485149</v>
       </c>
       <c r="Q78" s="13">
-        <v>105485149</v>
+        <v>94625000</v>
       </c>
       <c r="R78" s="13">
-        <v>94625000</v>
+        <v>112854839</v>
       </c>
       <c r="S78" s="13">
-        <v>112854839</v>
+        <v>110989324</v>
       </c>
       <c r="T78" s="13">
-        <v>110989324</v>
+        <v>109622047</v>
       </c>
       <c r="U78" s="13">
-        <v>109622047</v>
+        <v>106742718</v>
       </c>
       <c r="V78" s="13">
-        <v>106742718</v>
+        <v>105645914</v>
       </c>
       <c r="W78" s="13">
-        <v>105645914</v>
+        <v>103209677</v>
       </c>
       <c r="X78" s="13">
-        <v>103209677</v>
+        <v>108280632</v>
       </c>
       <c r="Y78" s="13">
-        <v>108280632</v>
+        <v>113362745</v>
       </c>
       <c r="Z78" s="13">
-        <v>113362745</v>
+        <v>105068063</v>
       </c>
       <c r="AA78" s="13">
-        <v>105068063</v>
+        <v>115210884</v>
       </c>
       <c r="AB78" s="13">
-        <v>115210884</v>
+        <v>127170732</v>
       </c>
       <c r="AC78" s="13">
-        <v>127170732</v>
-      </c>
-      <c r="AD78" s="13">
         <v>132784211</v>
       </c>
+      <c r="AD78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE78" s="13" t="s">
         <v>57</v>
       </c>
@@ -10000,23 +10000,23 @@
       <c r="AJ78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK78" s="13" t="s">
-        <v>57</v>
+      <c r="AK78" s="13">
+        <v>245476190</v>
       </c>
       <c r="AL78" s="13">
-        <v>245476190</v>
+        <v>298608696</v>
       </c>
       <c r="AM78" s="13">
-        <v>298608696</v>
+        <v>336333333</v>
       </c>
       <c r="AN78" s="13">
-        <v>336333333</v>
+        <v>349119048</v>
       </c>
       <c r="AO78" s="13">
-        <v>349119048</v>
-      </c>
-      <c r="AP78" s="13">
         <v>383520833</v>
+      </c>
+      <c r="AP78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ78" s="13" t="s">
         <v>57</v>
@@ -10064,82 +10064,82 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>4815936</v>
+        <v>5055237</v>
       </c>
       <c r="F79" s="11">
-        <v>5055237</v>
+        <v>5613230</v>
       </c>
       <c r="G79" s="11">
-        <v>5613230</v>
-      </c>
-      <c r="H79" s="11">
         <v>5986236</v>
       </c>
-      <c r="I79" s="11" t="s">
-        <v>57</v>
+      <c r="H79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="11">
+        <v>5935357</v>
       </c>
       <c r="J79" s="11">
-        <v>5935357</v>
+        <v>5895901</v>
       </c>
       <c r="K79" s="11">
-        <v>5895901</v>
+        <v>5900579</v>
       </c>
       <c r="L79" s="11">
-        <v>5900579</v>
+        <v>5933300</v>
       </c>
       <c r="M79" s="11">
-        <v>5933300</v>
+        <v>5769318</v>
       </c>
       <c r="N79" s="11">
-        <v>5769318</v>
+        <v>6001965</v>
       </c>
       <c r="O79" s="11">
-        <v>6001965</v>
+        <v>6015432</v>
       </c>
       <c r="P79" s="11">
-        <v>6015432</v>
+        <v>5986412</v>
       </c>
       <c r="Q79" s="11">
-        <v>5986412</v>
+        <v>5908721</v>
       </c>
       <c r="R79" s="11">
-        <v>5908721</v>
+        <v>5970215</v>
       </c>
       <c r="S79" s="11">
-        <v>5970215</v>
+        <v>6174028</v>
       </c>
       <c r="T79" s="11">
-        <v>6174028</v>
+        <v>6133851</v>
       </c>
       <c r="U79" s="11">
-        <v>6133851</v>
+        <v>6115527</v>
       </c>
       <c r="V79" s="11">
-        <v>6115527</v>
+        <v>6184131</v>
       </c>
       <c r="W79" s="11">
-        <v>6184131</v>
+        <v>6223690</v>
       </c>
       <c r="X79" s="11">
-        <v>6223690</v>
+        <v>6465287</v>
       </c>
       <c r="Y79" s="11">
-        <v>6465287</v>
+        <v>6789797</v>
       </c>
       <c r="Z79" s="11">
-        <v>6789797</v>
+        <v>6612039</v>
       </c>
       <c r="AA79" s="11">
-        <v>6612039</v>
+        <v>6874023</v>
       </c>
       <c r="AB79" s="11">
-        <v>6874023</v>
+        <v>7148533</v>
       </c>
       <c r="AC79" s="11">
-        <v>7148533</v>
-      </c>
-      <c r="AD79" s="11">
         <v>7004873</v>
+      </c>
+      <c r="AD79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE79" s="11" t="s">
         <v>57</v>
@@ -10223,82 +10223,82 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>1320644</v>
+        <v>1114699</v>
       </c>
       <c r="F80" s="13">
-        <v>1114699</v>
+        <v>991660</v>
       </c>
       <c r="G80" s="13">
-        <v>991660</v>
-      </c>
-      <c r="H80" s="13">
         <v>1045072</v>
       </c>
-      <c r="I80" s="13" t="s">
-        <v>57</v>
+      <c r="H80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="13">
+        <v>1520170</v>
       </c>
       <c r="J80" s="13">
-        <v>1520170</v>
+        <v>820502</v>
       </c>
       <c r="K80" s="13">
-        <v>820502</v>
+        <v>751640</v>
       </c>
       <c r="L80" s="13">
-        <v>751640</v>
+        <v>813187</v>
       </c>
       <c r="M80" s="13">
-        <v>813187</v>
+        <v>794032</v>
       </c>
       <c r="N80" s="13">
-        <v>794032</v>
+        <v>763985</v>
       </c>
       <c r="O80" s="13">
-        <v>763985</v>
+        <v>987374</v>
       </c>
       <c r="P80" s="13">
-        <v>987374</v>
+        <v>1971556</v>
       </c>
       <c r="Q80" s="13">
-        <v>1971556</v>
+        <v>1894166</v>
       </c>
       <c r="R80" s="13">
-        <v>1894166</v>
+        <v>1727325</v>
       </c>
       <c r="S80" s="13">
-        <v>1727325</v>
+        <v>1562189</v>
       </c>
       <c r="T80" s="13">
-        <v>1562189</v>
+        <v>1346371</v>
       </c>
       <c r="U80" s="13">
-        <v>1346371</v>
+        <v>1365138</v>
       </c>
       <c r="V80" s="13">
-        <v>1365138</v>
+        <v>1287969</v>
       </c>
       <c r="W80" s="13">
-        <v>1287969</v>
+        <v>1271986</v>
       </c>
       <c r="X80" s="13">
-        <v>1271986</v>
+        <v>1435874</v>
       </c>
       <c r="Y80" s="13">
-        <v>1435874</v>
+        <v>858462</v>
       </c>
       <c r="Z80" s="13">
-        <v>858462</v>
+        <v>1020021</v>
       </c>
       <c r="AA80" s="13">
-        <v>1020021</v>
+        <v>1168314</v>
       </c>
       <c r="AB80" s="13">
-        <v>1168314</v>
+        <v>1236195</v>
       </c>
       <c r="AC80" s="13">
-        <v>1236195</v>
-      </c>
-      <c r="AD80" s="13">
         <v>2004351</v>
+      </c>
+      <c r="AD80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE80" s="13" t="s">
         <v>57</v>
@@ -10382,82 +10382,82 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>33147410</v>
+        <v>35410830</v>
       </c>
       <c r="F81" s="11">
-        <v>35410830</v>
+        <v>32195209</v>
       </c>
       <c r="G81" s="11">
-        <v>32195209</v>
-      </c>
-      <c r="H81" s="11">
         <v>33799730</v>
       </c>
-      <c r="I81" s="11" t="s">
-        <v>57</v>
+      <c r="H81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="11">
+        <v>28119097</v>
       </c>
       <c r="J81" s="11">
-        <v>28119097</v>
+        <v>29960604</v>
       </c>
       <c r="K81" s="11">
-        <v>29960604</v>
+        <v>35247616</v>
       </c>
       <c r="L81" s="11">
-        <v>35247616</v>
+        <v>33931526</v>
       </c>
       <c r="M81" s="11">
-        <v>33931526</v>
+        <v>40432258</v>
       </c>
       <c r="N81" s="11">
-        <v>40432258</v>
+        <v>39216359</v>
       </c>
       <c r="O81" s="11">
-        <v>39216359</v>
+        <v>36160160</v>
       </c>
       <c r="P81" s="11">
-        <v>36160160</v>
+        <v>33084526</v>
       </c>
       <c r="Q81" s="11">
-        <v>33084526</v>
+        <v>29522571</v>
       </c>
       <c r="R81" s="11">
-        <v>29522571</v>
+        <v>29756494</v>
       </c>
       <c r="S81" s="11">
-        <v>29756494</v>
+        <v>29970485</v>
       </c>
       <c r="T81" s="11">
-        <v>29970485</v>
+        <v>28582097</v>
       </c>
       <c r="U81" s="11">
-        <v>28582097</v>
+        <v>30021566</v>
       </c>
       <c r="V81" s="11">
-        <v>30021566</v>
+        <v>33647595</v>
       </c>
       <c r="W81" s="11">
-        <v>33647595</v>
+        <v>33101226</v>
       </c>
       <c r="X81" s="11">
-        <v>33101226</v>
+        <v>38811722</v>
       </c>
       <c r="Y81" s="11">
-        <v>38811722</v>
+        <v>32614662</v>
       </c>
       <c r="Z81" s="11">
-        <v>32614662</v>
+        <v>32681356</v>
       </c>
       <c r="AA81" s="11">
-        <v>32681356</v>
+        <v>34477749</v>
       </c>
       <c r="AB81" s="11">
-        <v>34477749</v>
+        <v>41021294</v>
       </c>
       <c r="AC81" s="11">
-        <v>41021294</v>
-      </c>
-      <c r="AD81" s="11">
         <v>46798722</v>
+      </c>
+      <c r="AD81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE81" s="11" t="s">
         <v>57</v>
@@ -10541,82 +10541,82 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
-        <v>28145431</v>
+        <v>29973319</v>
       </c>
       <c r="F82" s="13">
-        <v>29973319</v>
+        <v>33609475</v>
       </c>
       <c r="G82" s="13">
-        <v>33609475</v>
-      </c>
-      <c r="H82" s="13">
         <v>35835526</v>
       </c>
-      <c r="I82" s="13" t="s">
-        <v>57</v>
+      <c r="H82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="13">
+        <v>35401947</v>
       </c>
       <c r="J82" s="13">
-        <v>35401947</v>
+        <v>35893048</v>
       </c>
       <c r="K82" s="13">
-        <v>35893048</v>
+        <v>35919872</v>
       </c>
       <c r="L82" s="13">
-        <v>35919872</v>
+        <v>25407731</v>
       </c>
       <c r="M82" s="13">
-        <v>25407731</v>
+        <v>41176287</v>
       </c>
       <c r="N82" s="13">
-        <v>41176287</v>
+        <v>34250263</v>
       </c>
       <c r="O82" s="13">
-        <v>34250263</v>
+        <v>47259098</v>
       </c>
       <c r="P82" s="13">
-        <v>47259098</v>
+        <v>44893692</v>
       </c>
       <c r="Q82" s="13">
-        <v>44893692</v>
+        <v>38283784</v>
       </c>
       <c r="R82" s="13">
-        <v>38283784</v>
+        <v>38045708</v>
       </c>
       <c r="S82" s="13">
-        <v>38045708</v>
+        <v>38046875</v>
       </c>
       <c r="T82" s="13">
-        <v>38046875</v>
+        <v>49282353</v>
       </c>
       <c r="U82" s="13">
-        <v>49282353</v>
+        <v>27866667</v>
       </c>
       <c r="V82" s="13">
-        <v>27866667</v>
+        <v>36895725</v>
       </c>
       <c r="W82" s="13">
-        <v>36895725</v>
+        <v>45858650</v>
       </c>
       <c r="X82" s="13">
-        <v>45858650</v>
+        <v>40950348</v>
       </c>
       <c r="Y82" s="13">
-        <v>40950348</v>
+        <v>46394826</v>
       </c>
       <c r="Z82" s="13">
-        <v>46394826</v>
+        <v>50501535</v>
       </c>
       <c r="AA82" s="13">
-        <v>50501535</v>
+        <v>48618321</v>
       </c>
       <c r="AB82" s="13">
-        <v>48618321</v>
+        <v>58988764</v>
       </c>
       <c r="AC82" s="13">
-        <v>58988764</v>
-      </c>
-      <c r="AD82" s="13">
         <v>41442568</v>
+      </c>
+      <c r="AD82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE82" s="13" t="s">
         <v>57</v>
@@ -10723,8 +10723,8 @@
       <c r="L83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M83" s="11" t="s">
-        <v>57</v>
+      <c r="M83" s="11">
+        <v>0</v>
       </c>
       <c r="N83" s="11">
         <v>0</v>
@@ -10738,14 +10738,14 @@
       <c r="Q83" s="11">
         <v>0</v>
       </c>
-      <c r="R83" s="11">
-        <v>0</v>
+      <c r="R83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="S83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T83" s="11" t="s">
-        <v>57</v>
+      <c r="T83" s="11">
+        <v>0</v>
       </c>
       <c r="U83" s="11">
         <v>0</v>
@@ -10771,8 +10771,8 @@
       <c r="AB83" s="11">
         <v>0</v>
       </c>
-      <c r="AC83" s="11">
-        <v>0</v>
+      <c r="AC83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD83" s="11" t="s">
         <v>57</v>
@@ -10933,80 +10933,80 @@
       <c r="AC84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD84" s="13" t="s">
-        <v>57</v>
+      <c r="AD84" s="13">
+        <v>30779558</v>
       </c>
       <c r="AE84" s="13">
-        <v>30779558</v>
+        <v>15260151</v>
       </c>
       <c r="AF84" s="13">
-        <v>15260151</v>
+        <v>16212342</v>
       </c>
       <c r="AG84" s="13">
-        <v>16212342</v>
+        <v>14293000</v>
       </c>
       <c r="AH84" s="13">
-        <v>14293000</v>
+        <v>14544690</v>
       </c>
       <c r="AI84" s="13">
-        <v>14544690</v>
+        <v>11891423</v>
       </c>
       <c r="AJ84" s="13">
-        <v>11891423</v>
+        <v>11592399</v>
       </c>
       <c r="AK84" s="13">
-        <v>11592399</v>
+        <v>14757698</v>
       </c>
       <c r="AL84" s="13">
-        <v>14757698</v>
+        <v>14859341</v>
       </c>
       <c r="AM84" s="13">
-        <v>14859341</v>
+        <v>14878891</v>
       </c>
       <c r="AN84" s="13">
-        <v>14878891</v>
+        <v>16303376</v>
       </c>
       <c r="AO84" s="13">
-        <v>16303376</v>
+        <v>16571381</v>
       </c>
       <c r="AP84" s="13">
-        <v>16571381</v>
+        <v>14956575</v>
       </c>
       <c r="AQ84" s="13">
-        <v>14956575</v>
+        <v>14407689</v>
       </c>
       <c r="AR84" s="13">
-        <v>14407689</v>
+        <v>12574406</v>
       </c>
       <c r="AS84" s="13">
-        <v>12574406</v>
+        <v>11482610</v>
       </c>
       <c r="AT84" s="13">
-        <v>11482610</v>
+        <v>13800594</v>
       </c>
       <c r="AU84" s="13">
-        <v>13800594</v>
+        <v>16021597</v>
       </c>
       <c r="AV84" s="13">
-        <v>16021597</v>
+        <v>17426542</v>
       </c>
       <c r="AW84" s="13">
-        <v>17426542</v>
+        <v>17653885</v>
       </c>
       <c r="AX84" s="13">
-        <v>17653885</v>
+        <v>19698870</v>
       </c>
       <c r="AY84" s="13">
-        <v>19698870</v>
+        <v>20387403</v>
       </c>
       <c r="AZ84" s="13">
-        <v>20387403</v>
+        <v>28350827</v>
       </c>
       <c r="BA84" s="13">
-        <v>28350827</v>
+        <v>31828188</v>
       </c>
       <c r="BB84" s="13">
-        <v>31828188</v>
+        <v>30087320</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11092,80 +11092,80 @@
       <c r="AC85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD85" s="11" t="s">
-        <v>57</v>
+      <c r="AD85" s="11">
+        <v>40680880</v>
       </c>
       <c r="AE85" s="11">
-        <v>40680880</v>
+        <v>47165546</v>
       </c>
       <c r="AF85" s="11">
-        <v>47165546</v>
+        <v>47132691</v>
       </c>
       <c r="AG85" s="11">
-        <v>47132691</v>
+        <v>47114048</v>
       </c>
       <c r="AH85" s="11">
-        <v>47114048</v>
+        <v>46076449</v>
       </c>
       <c r="AI85" s="11">
-        <v>46076449</v>
+        <v>56042434</v>
       </c>
       <c r="AJ85" s="11">
-        <v>56042434</v>
+        <v>56155335</v>
       </c>
       <c r="AK85" s="11">
-        <v>56155335</v>
+        <v>59927146</v>
       </c>
       <c r="AL85" s="11">
-        <v>59927146</v>
+        <v>67040343</v>
       </c>
       <c r="AM85" s="11">
-        <v>67040343</v>
+        <v>70347254</v>
       </c>
       <c r="AN85" s="11">
-        <v>70347254</v>
+        <v>94270677</v>
       </c>
       <c r="AO85" s="11">
-        <v>94270677</v>
+        <v>157923626</v>
       </c>
       <c r="AP85" s="11">
-        <v>157923626</v>
+        <v>141152422</v>
       </c>
       <c r="AQ85" s="11">
-        <v>141152422</v>
+        <v>138676806</v>
       </c>
       <c r="AR85" s="11">
-        <v>138676806</v>
+        <v>221724194</v>
       </c>
       <c r="AS85" s="11">
-        <v>221724194</v>
+        <v>203178789</v>
       </c>
       <c r="AT85" s="11">
-        <v>203178789</v>
+        <v>207149055</v>
       </c>
       <c r="AU85" s="11">
-        <v>207149055</v>
+        <v>196841195</v>
       </c>
       <c r="AV85" s="11">
-        <v>196841195</v>
+        <v>172989234</v>
       </c>
       <c r="AW85" s="11">
-        <v>172989234</v>
+        <v>150567439</v>
       </c>
       <c r="AX85" s="11">
-        <v>150567439</v>
+        <v>140833213</v>
       </c>
       <c r="AY85" s="11">
-        <v>140833213</v>
+        <v>141091439</v>
       </c>
       <c r="AZ85" s="11">
-        <v>141091439</v>
+        <v>177459139</v>
       </c>
       <c r="BA85" s="11">
-        <v>177459139</v>
+        <v>199198153</v>
       </c>
       <c r="BB85" s="11">
-        <v>199198153</v>
+        <v>218467179</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11251,80 +11251,80 @@
       <c r="AC86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD86" s="13" t="s">
-        <v>57</v>
+      <c r="AD86" s="13">
+        <v>158677054</v>
       </c>
       <c r="AE86" s="13">
-        <v>158677054</v>
+        <v>179783172</v>
       </c>
       <c r="AF86" s="13">
-        <v>179783172</v>
+        <v>176321678</v>
       </c>
       <c r="AG86" s="13">
-        <v>176321678</v>
+        <v>198713826</v>
       </c>
       <c r="AH86" s="13">
-        <v>198713826</v>
+        <v>302290850</v>
       </c>
       <c r="AI86" s="13">
-        <v>302290850</v>
+        <v>363477032</v>
       </c>
       <c r="AJ86" s="13">
-        <v>363477032</v>
+        <v>335000000</v>
       </c>
       <c r="AK86" s="13">
-        <v>335000000</v>
+        <v>293500000</v>
       </c>
       <c r="AL86" s="13">
-        <v>293500000</v>
+        <v>350231003</v>
       </c>
       <c r="AM86" s="13">
-        <v>350231003</v>
+        <v>321179191</v>
       </c>
       <c r="AN86" s="13">
-        <v>321179191</v>
+        <v>292079365</v>
       </c>
       <c r="AO86" s="13">
-        <v>292079365</v>
+        <v>349982206</v>
       </c>
       <c r="AP86" s="13">
-        <v>349982206</v>
+        <v>410441379</v>
       </c>
       <c r="AQ86" s="13">
-        <v>410441379</v>
+        <v>454370370</v>
       </c>
       <c r="AR86" s="13">
-        <v>454370370</v>
+        <v>385547264</v>
       </c>
       <c r="AS86" s="13">
-        <v>385547264</v>
+        <v>345069252</v>
       </c>
       <c r="AT86" s="13">
-        <v>345069252</v>
+        <v>336882353</v>
       </c>
       <c r="AU86" s="13">
-        <v>336882353</v>
+        <v>327674944</v>
       </c>
       <c r="AV86" s="13">
-        <v>327674944</v>
+        <v>346433925</v>
       </c>
       <c r="AW86" s="13">
-        <v>346433925</v>
+        <v>428200000</v>
       </c>
       <c r="AX86" s="13">
-        <v>428200000</v>
+        <v>376997167</v>
       </c>
       <c r="AY86" s="13">
-        <v>376997167</v>
+        <v>359096970</v>
       </c>
       <c r="AZ86" s="13">
-        <v>359096970</v>
+        <v>343447099</v>
       </c>
       <c r="BA86" s="13">
-        <v>343447099</v>
+        <v>341536885</v>
       </c>
       <c r="BB86" s="13">
-        <v>341536885</v>
+        <v>365510791</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11467,8 +11467,8 @@
       <c r="AC88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD88" s="11" t="s">
-        <v>57</v>
+      <c r="AD88" s="11">
+        <v>0</v>
       </c>
       <c r="AE88" s="11">
         <v>0</v>
@@ -11476,8 +11476,8 @@
       <c r="AF88" s="11">
         <v>0</v>
       </c>
-      <c r="AG88" s="11">
-        <v>0</v>
+      <c r="AG88" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH88" s="11" t="s">
         <v>57</v>

--- a/database/industries/methanol/shekolor/product/monthly.xlsx
+++ b/database/industries/methanol/shekolor/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A9543-257E-4FD1-9223-E32A5FE79678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A581C2-A2C4-4C5D-B13D-60BC7A6419BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,16 +37,10 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 1 منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>ماه 2 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 3 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/08</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1397/09</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کلرورفریک</t>
@@ -760,12 +760,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -820,7 +820,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -989,7 +989,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1436,80 +1436,80 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>295</v>
+      </c>
+      <c r="F11" s="11">
+        <v>322</v>
+      </c>
+      <c r="G11" s="11">
+        <v>202</v>
+      </c>
+      <c r="H11" s="11">
+        <v>223</v>
+      </c>
+      <c r="I11" s="11">
+        <v>261</v>
+      </c>
+      <c r="J11" s="11">
+        <v>636</v>
+      </c>
+      <c r="K11" s="11">
+        <v>710</v>
+      </c>
+      <c r="L11" s="11">
+        <v>742</v>
+      </c>
+      <c r="M11" s="11">
+        <v>390</v>
+      </c>
+      <c r="N11" s="11">
+        <v>651</v>
+      </c>
+      <c r="O11" s="11">
+        <v>642</v>
+      </c>
+      <c r="P11" s="11">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>260</v>
+      </c>
+      <c r="R11" s="11">
         <v>185</v>
       </c>
-      <c r="F11" s="11">
-        <v>295</v>
-      </c>
-      <c r="G11" s="11">
-        <v>322</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="11">
-        <v>202</v>
-      </c>
-      <c r="J11" s="11">
-        <v>223</v>
-      </c>
-      <c r="K11" s="11">
-        <v>261</v>
-      </c>
-      <c r="L11" s="11">
-        <v>636</v>
-      </c>
-      <c r="M11" s="11">
-        <v>710</v>
-      </c>
-      <c r="N11" s="11">
-        <v>742</v>
-      </c>
-      <c r="O11" s="11">
-        <v>390</v>
-      </c>
-      <c r="P11" s="11">
-        <v>651</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>642</v>
-      </c>
-      <c r="R11" s="11">
-        <v>285</v>
-      </c>
       <c r="S11" s="11">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="T11" s="11">
-        <v>185</v>
+        <v>575</v>
       </c>
       <c r="U11" s="11">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="V11" s="11">
-        <v>575</v>
+        <v>338</v>
       </c>
       <c r="W11" s="11">
-        <v>206</v>
+        <v>399</v>
       </c>
       <c r="X11" s="11">
-        <v>338</v>
+        <v>200</v>
       </c>
       <c r="Y11" s="11">
-        <v>399</v>
+        <v>193</v>
       </c>
       <c r="Z11" s="11">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AA11" s="11">
-        <v>193</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>65</v>
-      </c>
-      <c r="AC11" s="11">
         <v>62</v>
       </c>
+      <c r="AB11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1595,80 +1595,80 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="F12" s="13">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="G12" s="13">
-        <v>232</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>57</v>
+        <v>291</v>
+      </c>
+      <c r="H12" s="13">
+        <v>259</v>
       </c>
       <c r="I12" s="13">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="J12" s="13">
+        <v>250</v>
+      </c>
+      <c r="K12" s="13">
+        <v>267</v>
+      </c>
+      <c r="L12" s="13">
+        <v>231</v>
+      </c>
+      <c r="M12" s="13">
+        <v>239</v>
+      </c>
+      <c r="N12" s="13">
+        <v>186</v>
+      </c>
+      <c r="O12" s="13">
         <v>259</v>
       </c>
-      <c r="K12" s="13">
-        <v>264</v>
-      </c>
-      <c r="L12" s="13">
-        <v>250</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="P12" s="13">
         <v>267</v>
       </c>
-      <c r="N12" s="13">
-        <v>231</v>
-      </c>
-      <c r="O12" s="13">
-        <v>239</v>
-      </c>
-      <c r="P12" s="13">
-        <v>186</v>
-      </c>
       <c r="Q12" s="13">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="R12" s="13">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="S12" s="13">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="T12" s="13">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="U12" s="13">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="V12" s="13">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="W12" s="13">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="X12" s="13">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="Y12" s="13">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="Z12" s="13">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="AA12" s="13">
-        <v>353</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>356</v>
-      </c>
-      <c r="AC12" s="13">
         <v>318</v>
       </c>
+      <c r="AB12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1684,11 +1684,11 @@
       <c r="AH12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ12" s="13" t="s">
-        <v>57</v>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
       </c>
       <c r="AK12" s="13">
         <v>0</v>
@@ -1699,11 +1699,11 @@
       <c r="AM12" s="13">
         <v>0</v>
       </c>
-      <c r="AN12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>0</v>
+      <c r="AN12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP12" s="13" t="s">
         <v>57</v>
@@ -1745,7 +1745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1754,80 +1754,80 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1923</v>
+        <v>1568</v>
       </c>
       <c r="F13" s="11">
-        <v>1568</v>
+        <v>1949</v>
       </c>
       <c r="G13" s="11">
-        <v>1949</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>57</v>
+        <v>1745</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1876</v>
       </c>
       <c r="I13" s="11">
-        <v>1745</v>
+        <v>2033</v>
       </c>
       <c r="J13" s="11">
-        <v>1876</v>
+        <v>2056</v>
       </c>
       <c r="K13" s="11">
-        <v>2033</v>
+        <v>1714</v>
       </c>
       <c r="L13" s="11">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="M13" s="11">
-        <v>1714</v>
+        <v>1981</v>
       </c>
       <c r="N13" s="11">
-        <v>2054</v>
+        <v>1962</v>
       </c>
       <c r="O13" s="11">
-        <v>1981</v>
+        <v>2228</v>
       </c>
       <c r="P13" s="11">
-        <v>1962</v>
+        <v>2091</v>
       </c>
       <c r="Q13" s="11">
-        <v>2228</v>
+        <v>2324</v>
       </c>
       <c r="R13" s="11">
-        <v>2091</v>
+        <v>2170</v>
       </c>
       <c r="S13" s="11">
-        <v>2324</v>
+        <v>2235</v>
       </c>
       <c r="T13" s="11">
-        <v>2170</v>
+        <v>2289</v>
       </c>
       <c r="U13" s="11">
-        <v>2235</v>
+        <v>2252</v>
       </c>
       <c r="V13" s="11">
-        <v>2289</v>
+        <v>2237</v>
       </c>
       <c r="W13" s="11">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="X13" s="11">
-        <v>2237</v>
+        <v>2339</v>
       </c>
       <c r="Y13" s="11">
-        <v>2248</v>
+        <v>2236</v>
       </c>
       <c r="Z13" s="11">
-        <v>2339</v>
+        <v>2286</v>
       </c>
       <c r="AA13" s="11">
-        <v>2236</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>2286</v>
-      </c>
-      <c r="AC13" s="11">
         <v>1177</v>
       </c>
+      <c r="AB13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1913,80 +1913,80 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>870</v>
+        <v>1199</v>
       </c>
       <c r="F14" s="13">
-        <v>1199</v>
+        <v>1644</v>
       </c>
       <c r="G14" s="13">
-        <v>1644</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
+        <v>1934</v>
+      </c>
+      <c r="H14" s="13">
+        <v>2210</v>
       </c>
       <c r="I14" s="13">
-        <v>1934</v>
+        <v>2326</v>
       </c>
       <c r="J14" s="13">
-        <v>2210</v>
+        <v>2484</v>
       </c>
       <c r="K14" s="13">
-        <v>2326</v>
+        <v>2175</v>
       </c>
       <c r="L14" s="13">
-        <v>2484</v>
+        <v>2414</v>
       </c>
       <c r="M14" s="13">
-        <v>2175</v>
+        <v>2932</v>
       </c>
       <c r="N14" s="13">
-        <v>2414</v>
+        <v>1837</v>
       </c>
       <c r="O14" s="13">
-        <v>2932</v>
+        <v>1651</v>
       </c>
       <c r="P14" s="13">
-        <v>1837</v>
+        <v>1656</v>
       </c>
       <c r="Q14" s="13">
-        <v>1651</v>
+        <v>2240</v>
       </c>
       <c r="R14" s="13">
-        <v>1656</v>
+        <v>2279</v>
       </c>
       <c r="S14" s="13">
-        <v>2240</v>
+        <v>2208</v>
       </c>
       <c r="T14" s="13">
-        <v>2279</v>
+        <v>2338</v>
       </c>
       <c r="U14" s="13">
-        <v>2208</v>
+        <v>2287</v>
       </c>
       <c r="V14" s="13">
-        <v>2338</v>
+        <v>2155</v>
       </c>
       <c r="W14" s="13">
-        <v>2287</v>
+        <v>2380</v>
       </c>
       <c r="X14" s="13">
-        <v>2155</v>
+        <v>2731</v>
       </c>
       <c r="Y14" s="13">
-        <v>2380</v>
+        <v>2969</v>
       </c>
       <c r="Z14" s="13">
-        <v>2731</v>
+        <v>3272</v>
       </c>
       <c r="AA14" s="13">
-        <v>2969</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>3272</v>
-      </c>
-      <c r="AC14" s="13">
         <v>1301</v>
       </c>
+      <c r="AB14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2072,80 +2072,80 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>1671</v>
+        <v>1960</v>
       </c>
       <c r="F15" s="11">
-        <v>1960</v>
+        <v>2214</v>
       </c>
       <c r="G15" s="11">
-        <v>2214</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>57</v>
+        <v>2652</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2557</v>
       </c>
       <c r="I15" s="11">
-        <v>2652</v>
+        <v>2077</v>
       </c>
       <c r="J15" s="11">
-        <v>2557</v>
+        <v>2387</v>
       </c>
       <c r="K15" s="11">
-        <v>2077</v>
+        <v>2409</v>
       </c>
       <c r="L15" s="11">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="M15" s="11">
-        <v>2409</v>
+        <v>2270</v>
       </c>
       <c r="N15" s="11">
-        <v>2391</v>
+        <v>2115</v>
       </c>
       <c r="O15" s="11">
-        <v>2270</v>
+        <v>2507</v>
       </c>
       <c r="P15" s="11">
-        <v>2115</v>
+        <v>1692</v>
       </c>
       <c r="Q15" s="11">
-        <v>2507</v>
+        <v>2161</v>
       </c>
       <c r="R15" s="11">
-        <v>1692</v>
+        <v>2232</v>
       </c>
       <c r="S15" s="11">
-        <v>2161</v>
+        <v>2560</v>
       </c>
       <c r="T15" s="11">
-        <v>2232</v>
+        <v>2698</v>
       </c>
       <c r="U15" s="11">
-        <v>2560</v>
+        <v>2492</v>
       </c>
       <c r="V15" s="11">
-        <v>2698</v>
+        <v>2388</v>
       </c>
       <c r="W15" s="11">
-        <v>2492</v>
+        <v>2590</v>
       </c>
       <c r="X15" s="11">
-        <v>2388</v>
+        <v>2799</v>
       </c>
       <c r="Y15" s="11">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="Z15" s="11">
-        <v>2799</v>
+        <v>2558</v>
       </c>
       <c r="AA15" s="11">
-        <v>2588</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>2558</v>
-      </c>
-      <c r="AC15" s="11">
         <v>1800</v>
       </c>
+      <c r="AB15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2231,80 +2231,80 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>901</v>
+        <v>792</v>
       </c>
       <c r="F16" s="13">
-        <v>792</v>
+        <v>759</v>
       </c>
       <c r="G16" s="13">
-        <v>759</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>57</v>
+        <v>720</v>
+      </c>
+      <c r="H16" s="13">
+        <v>742</v>
       </c>
       <c r="I16" s="13">
-        <v>720</v>
+        <v>638</v>
       </c>
       <c r="J16" s="13">
-        <v>742</v>
+        <v>1203</v>
       </c>
       <c r="K16" s="13">
-        <v>638</v>
+        <v>535</v>
       </c>
       <c r="L16" s="13">
-        <v>1203</v>
+        <v>685</v>
       </c>
       <c r="M16" s="13">
-        <v>535</v>
+        <v>733</v>
       </c>
       <c r="N16" s="13">
-        <v>685</v>
+        <v>817</v>
       </c>
       <c r="O16" s="13">
-        <v>733</v>
+        <v>886</v>
       </c>
       <c r="P16" s="13">
-        <v>817</v>
+        <v>900</v>
       </c>
       <c r="Q16" s="13">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="R16" s="13">
-        <v>900</v>
+        <v>761</v>
       </c>
       <c r="S16" s="13">
-        <v>895</v>
+        <v>854</v>
       </c>
       <c r="T16" s="13">
-        <v>761</v>
+        <v>974</v>
       </c>
       <c r="U16" s="13">
-        <v>854</v>
+        <v>944</v>
       </c>
       <c r="V16" s="13">
-        <v>974</v>
+        <v>1009</v>
       </c>
       <c r="W16" s="13">
-        <v>944</v>
+        <v>917</v>
       </c>
       <c r="X16" s="13">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="Y16" s="13">
-        <v>917</v>
+        <v>1041</v>
       </c>
       <c r="Z16" s="13">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="AA16" s="13">
-        <v>1041</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>992</v>
-      </c>
-      <c r="AC16" s="13">
         <v>787</v>
       </c>
+      <c r="AB16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2407,11 +2407,11 @@
       <c r="J17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>57</v>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
       </c>
       <c r="M17" s="11">
         <v>0</v>
@@ -2422,17 +2422,17 @@
       <c r="O17" s="11">
         <v>0</v>
       </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>57</v>
+      <c r="P17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
       </c>
       <c r="T17" s="11">
         <v>0</v>
@@ -2455,11 +2455,11 @@
       <c r="Z17" s="11">
         <v>0</v>
       </c>
-      <c r="AA17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>0</v>
+      <c r="AA17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AC17" s="11" t="s">
         <v>57</v>
@@ -2540,7 +2540,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2617,89 +2617,89 @@
       <c r="AA18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>57</v>
+      <c r="AB18" s="13">
+        <v>3648</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>5661</v>
       </c>
       <c r="AD18" s="13">
-        <v>3648</v>
+        <v>5688</v>
       </c>
       <c r="AE18" s="13">
-        <v>5661</v>
+        <v>5703</v>
       </c>
       <c r="AF18" s="13">
-        <v>5688</v>
+        <v>6361</v>
       </c>
       <c r="AG18" s="13">
-        <v>5703</v>
+        <v>6370</v>
       </c>
       <c r="AH18" s="13">
-        <v>6361</v>
+        <v>6198</v>
       </c>
       <c r="AI18" s="13">
-        <v>6370</v>
+        <v>6100</v>
       </c>
       <c r="AJ18" s="13">
-        <v>6198</v>
+        <v>5856</v>
       </c>
       <c r="AK18" s="13">
-        <v>6100</v>
+        <v>6136</v>
       </c>
       <c r="AL18" s="13">
-        <v>5856</v>
+        <v>6013</v>
       </c>
       <c r="AM18" s="13">
-        <v>6136</v>
+        <v>5941</v>
       </c>
       <c r="AN18" s="13">
-        <v>6013</v>
+        <v>6685</v>
       </c>
       <c r="AO18" s="13">
-        <v>5941</v>
+        <v>6418</v>
       </c>
       <c r="AP18" s="13">
-        <v>6685</v>
+        <v>7173</v>
       </c>
       <c r="AQ18" s="13">
-        <v>6418</v>
+        <v>8022</v>
       </c>
       <c r="AR18" s="13">
-        <v>7173</v>
+        <v>7227</v>
       </c>
       <c r="AS18" s="13">
-        <v>8022</v>
+        <v>7333</v>
       </c>
       <c r="AT18" s="13">
-        <v>7227</v>
+        <v>7123</v>
       </c>
       <c r="AU18" s="13">
-        <v>7333</v>
+        <v>7008</v>
       </c>
       <c r="AV18" s="13">
-        <v>7123</v>
+        <v>7462</v>
       </c>
       <c r="AW18" s="13">
-        <v>7008</v>
+        <v>7270</v>
       </c>
       <c r="AX18" s="13">
-        <v>7462</v>
+        <v>6945</v>
       </c>
       <c r="AY18" s="13">
-        <v>7270</v>
+        <v>6397</v>
       </c>
       <c r="AZ18" s="13">
-        <v>6945</v>
+        <v>6489</v>
       </c>
       <c r="BA18" s="13">
-        <v>6397</v>
+        <v>6808</v>
       </c>
       <c r="BB18" s="13">
-        <v>6489</v>
+        <v>5995</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2776,89 +2776,89 @@
       <c r="AA19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC19" s="11" t="s">
-        <v>57</v>
+      <c r="AB19" s="11">
+        <v>2119</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>2729</v>
       </c>
       <c r="AD19" s="11">
-        <v>2119</v>
+        <v>2841</v>
       </c>
       <c r="AE19" s="11">
-        <v>2729</v>
+        <v>2453</v>
       </c>
       <c r="AF19" s="11">
+        <v>2745</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>5481</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>2714</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>3308</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>1250</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>864</v>
+      </c>
+      <c r="AL19" s="11">
         <v>2841</v>
       </c>
-      <c r="AG19" s="11">
-        <v>2453</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>2745</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>5481</v>
-      </c>
-      <c r="AJ19" s="11">
-        <v>2714</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>3308</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>1250</v>
-      </c>
       <c r="AM19" s="11">
-        <v>864</v>
+        <v>2537</v>
       </c>
       <c r="AN19" s="11">
-        <v>2841</v>
+        <v>2536</v>
       </c>
       <c r="AO19" s="11">
-        <v>2537</v>
+        <v>1734</v>
       </c>
       <c r="AP19" s="11">
-        <v>2536</v>
+        <v>2279</v>
       </c>
       <c r="AQ19" s="11">
-        <v>1734</v>
+        <v>2600</v>
       </c>
       <c r="AR19" s="11">
-        <v>2279</v>
+        <v>3557</v>
       </c>
       <c r="AS19" s="11">
-        <v>2600</v>
+        <v>2701</v>
       </c>
       <c r="AT19" s="11">
-        <v>3557</v>
+        <v>2630</v>
       </c>
       <c r="AU19" s="11">
-        <v>2701</v>
+        <v>2271</v>
       </c>
       <c r="AV19" s="11">
-        <v>2630</v>
+        <v>2733</v>
       </c>
       <c r="AW19" s="11">
-        <v>2271</v>
+        <v>2843</v>
       </c>
       <c r="AX19" s="11">
-        <v>2733</v>
+        <v>2707</v>
       </c>
       <c r="AY19" s="11">
-        <v>2843</v>
+        <v>2552</v>
       </c>
       <c r="AZ19" s="11">
-        <v>2707</v>
+        <v>2594</v>
       </c>
       <c r="BA19" s="11">
-        <v>2552</v>
+        <v>2261</v>
       </c>
       <c r="BB19" s="11">
-        <v>2594</v>
+        <v>2444</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2935,89 +2935,89 @@
       <c r="AA20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC20" s="13" t="s">
-        <v>57</v>
+      <c r="AB20" s="13">
+        <v>344</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>305</v>
       </c>
       <c r="AD20" s="13">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="AE20" s="13">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="AF20" s="13">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AG20" s="13">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AH20" s="13">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="AI20" s="13">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="AJ20" s="13">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="AK20" s="13">
+        <v>304</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>317</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>284</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>339</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>169</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>289</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>441</v>
+      </c>
+      <c r="AR20" s="13">
         <v>291</v>
       </c>
-      <c r="AL20" s="13">
-        <v>288</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>304</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>317</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>284</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>339</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>169</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>289</v>
-      </c>
       <c r="AS20" s="13">
-        <v>441</v>
+        <v>313</v>
       </c>
       <c r="AT20" s="13">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="AU20" s="13">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="AV20" s="13">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AW20" s="13">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="AX20" s="13">
+        <v>350</v>
+      </c>
+      <c r="AY20" s="13">
+        <v>371</v>
+      </c>
+      <c r="AZ20" s="13">
         <v>355</v>
       </c>
-      <c r="AY20" s="13">
-        <v>347</v>
-      </c>
-      <c r="AZ20" s="13">
-        <v>350</v>
-      </c>
       <c r="BA20" s="13">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="BB20" s="13">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
@@ -3151,20 +3151,20 @@
       <c r="AA22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC22" s="11" t="s">
-        <v>57</v>
+      <c r="AB22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="11">
+        <v>0</v>
       </c>
       <c r="AD22" s="11">
         <v>0</v>
       </c>
-      <c r="AE22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="11">
-        <v>0</v>
+      <c r="AE22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF22" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG22" s="11" t="s">
         <v>57</v>
@@ -3233,7 +3233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>70</v>
       </c>
@@ -3308,11 +3308,11 @@
       <c r="AA23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AB23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC23" s="15" t="s">
-        <v>57</v>
+      <c r="AB23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>0</v>
       </c>
       <c r="AD23" s="15">
         <v>0</v>
@@ -3390,164 +3390,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>5791</v>
+        <v>5963</v>
       </c>
       <c r="F24" s="17">
-        <v>5963</v>
+        <v>7120</v>
       </c>
       <c r="G24" s="17">
-        <v>7120</v>
+        <v>7544</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
+        <v>7867</v>
       </c>
       <c r="I24" s="17">
-        <v>7544</v>
+        <v>7599</v>
       </c>
       <c r="J24" s="17">
-        <v>7867</v>
+        <v>9016</v>
       </c>
       <c r="K24" s="17">
-        <v>7599</v>
+        <v>7810</v>
       </c>
       <c r="L24" s="17">
-        <v>9016</v>
+        <v>8517</v>
       </c>
       <c r="M24" s="17">
-        <v>7810</v>
+        <v>8545</v>
       </c>
       <c r="N24" s="17">
-        <v>8517</v>
+        <v>7568</v>
       </c>
       <c r="O24" s="17">
-        <v>8545</v>
+        <v>8173</v>
       </c>
       <c r="P24" s="17">
-        <v>7568</v>
+        <v>6891</v>
       </c>
       <c r="Q24" s="17">
-        <v>8173</v>
+        <v>8195</v>
       </c>
       <c r="R24" s="17">
-        <v>6891</v>
+        <v>7977</v>
       </c>
       <c r="S24" s="17">
-        <v>8195</v>
+        <v>8332</v>
       </c>
       <c r="T24" s="17">
-        <v>7977</v>
+        <v>9170</v>
       </c>
       <c r="U24" s="17">
-        <v>8332</v>
+        <v>8505</v>
       </c>
       <c r="V24" s="17">
-        <v>9170</v>
+        <v>8451</v>
       </c>
       <c r="W24" s="17">
-        <v>8505</v>
+        <v>8853</v>
       </c>
       <c r="X24" s="17">
-        <v>8451</v>
+        <v>9451</v>
       </c>
       <c r="Y24" s="17">
-        <v>8853</v>
+        <v>9380</v>
       </c>
       <c r="Z24" s="17">
-        <v>9451</v>
+        <v>9529</v>
       </c>
       <c r="AA24" s="17">
-        <v>9380</v>
+        <v>5445</v>
       </c>
       <c r="AB24" s="17">
-        <v>9529</v>
+        <v>6111</v>
       </c>
       <c r="AC24" s="17">
-        <v>5445</v>
+        <v>8695</v>
       </c>
       <c r="AD24" s="17">
-        <v>6111</v>
+        <v>8752</v>
       </c>
       <c r="AE24" s="17">
-        <v>8695</v>
+        <v>8439</v>
       </c>
       <c r="AF24" s="17">
-        <v>8752</v>
+        <v>9402</v>
       </c>
       <c r="AG24" s="17">
-        <v>8439</v>
+        <v>12092</v>
       </c>
       <c r="AH24" s="17">
-        <v>9402</v>
+        <v>9140</v>
       </c>
       <c r="AI24" s="17">
-        <v>12092</v>
+        <v>9699</v>
       </c>
       <c r="AJ24" s="17">
-        <v>9140</v>
+        <v>7394</v>
       </c>
       <c r="AK24" s="17">
-        <v>9699</v>
+        <v>7304</v>
       </c>
       <c r="AL24" s="17">
-        <v>7394</v>
+        <v>9171</v>
       </c>
       <c r="AM24" s="17">
-        <v>7304</v>
+        <v>8762</v>
       </c>
       <c r="AN24" s="17">
-        <v>9171</v>
+        <v>9560</v>
       </c>
       <c r="AO24" s="17">
-        <v>8762</v>
+        <v>8321</v>
       </c>
       <c r="AP24" s="17">
-        <v>9560</v>
+        <v>9741</v>
       </c>
       <c r="AQ24" s="17">
-        <v>8321</v>
+        <v>11063</v>
       </c>
       <c r="AR24" s="17">
-        <v>9741</v>
+        <v>11075</v>
       </c>
       <c r="AS24" s="17">
-        <v>11063</v>
+        <v>10347</v>
       </c>
       <c r="AT24" s="17">
-        <v>11075</v>
+        <v>10129</v>
       </c>
       <c r="AU24" s="17">
-        <v>10347</v>
+        <v>9519</v>
       </c>
       <c r="AV24" s="17">
-        <v>10129</v>
+        <v>10550</v>
       </c>
       <c r="AW24" s="17">
-        <v>9519</v>
+        <v>10460</v>
       </c>
       <c r="AX24" s="17">
-        <v>10550</v>
+        <v>10002</v>
       </c>
       <c r="AY24" s="17">
-        <v>10460</v>
+        <v>9320</v>
       </c>
       <c r="AZ24" s="17">
-        <v>10002</v>
+        <v>9438</v>
       </c>
       <c r="BA24" s="17">
-        <v>9320</v>
+        <v>9230</v>
       </c>
       <c r="BB24" s="17">
-        <v>9438</v>
+        <v>8775</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3602,7 +3602,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3657,7 +3657,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3712,7 +3712,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3924,7 +3924,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3990,80 +3990,80 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="F31" s="11">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="G31" s="11">
-        <v>81</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>57</v>
+        <v>411</v>
+      </c>
+      <c r="H31" s="11">
+        <v>338</v>
       </c>
       <c r="I31" s="11">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="J31" s="11">
-        <v>338</v>
+        <v>597</v>
       </c>
       <c r="K31" s="11">
-        <v>272</v>
+        <v>660</v>
       </c>
       <c r="L31" s="11">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M31" s="11">
-        <v>660</v>
+        <v>506</v>
       </c>
       <c r="N31" s="11">
-        <v>592</v>
+        <v>724</v>
       </c>
       <c r="O31" s="11">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="P31" s="11">
-        <v>724</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="11">
-        <v>451</v>
+        <v>261</v>
       </c>
       <c r="R31" s="11">
-        <v>232</v>
+        <v>401</v>
       </c>
       <c r="S31" s="11">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="T31" s="11">
-        <v>401</v>
+        <v>202</v>
       </c>
       <c r="U31" s="11">
-        <v>380</v>
+        <v>586</v>
       </c>
       <c r="V31" s="11">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="W31" s="11">
-        <v>586</v>
+        <v>200</v>
       </c>
       <c r="X31" s="11">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="Y31" s="11">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="Z31" s="11">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="AA31" s="11">
-        <v>154</v>
-      </c>
-      <c r="AB31" s="11">
-        <v>148</v>
-      </c>
-      <c r="AC31" s="11">
         <v>104</v>
       </c>
+      <c r="AB31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC31" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD31" s="11" t="s">
         <v>57</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
@@ -4149,80 +4149,80 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="F32" s="13">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="G32" s="13">
-        <v>250</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>57</v>
+        <v>283</v>
+      </c>
+      <c r="H32" s="13">
+        <v>232</v>
       </c>
       <c r="I32" s="13">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="J32" s="13">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="K32" s="13">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c r="L32" s="13">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="M32" s="13">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="N32" s="13">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c r="O32" s="13">
+        <v>280</v>
+      </c>
+      <c r="P32" s="13">
+        <v>186</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>281</v>
+      </c>
+      <c r="R32" s="13">
+        <v>254</v>
+      </c>
+      <c r="S32" s="13">
+        <v>206</v>
+      </c>
+      <c r="T32" s="13">
+        <v>257</v>
+      </c>
+      <c r="U32" s="13">
+        <v>310</v>
+      </c>
+      <c r="V32" s="13">
         <v>253</v>
       </c>
-      <c r="P32" s="13">
-        <v>202</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>280</v>
-      </c>
-      <c r="R32" s="13">
-        <v>186</v>
-      </c>
-      <c r="S32" s="13">
-        <v>281</v>
-      </c>
-      <c r="T32" s="13">
-        <v>254</v>
-      </c>
-      <c r="U32" s="13">
-        <v>206</v>
-      </c>
-      <c r="V32" s="13">
-        <v>257</v>
-      </c>
       <c r="W32" s="13">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="X32" s="13">
-        <v>253</v>
+        <v>382</v>
       </c>
       <c r="Y32" s="13">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="Z32" s="13">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="AA32" s="13">
-        <v>294</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>287</v>
-      </c>
-      <c r="AC32" s="13">
         <v>190</v>
       </c>
+      <c r="AB32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC32" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD32" s="13" t="s">
         <v>57</v>
       </c>
@@ -4238,27 +4238,27 @@
       <c r="AH32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ32" s="13" t="s">
-        <v>57</v>
+      <c r="AI32" s="13">
+        <v>21</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>23</v>
       </c>
       <c r="AK32" s="13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL32" s="13">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="AM32" s="13">
-        <v>24</v>
-      </c>
-      <c r="AN32" s="13">
-        <v>168</v>
-      </c>
-      <c r="AO32" s="13">
         <v>96</v>
       </c>
+      <c r="AN32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO32" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AP32" s="13" t="s">
         <v>57</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4308,80 +4308,80 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>1919</v>
+        <v>1678</v>
       </c>
       <c r="F33" s="11">
-        <v>1678</v>
+        <v>1889</v>
       </c>
       <c r="G33" s="11">
-        <v>1889</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>57</v>
+        <v>1779</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1854</v>
       </c>
       <c r="I33" s="11">
-        <v>1779</v>
+        <v>2072</v>
       </c>
       <c r="J33" s="11">
-        <v>1854</v>
+        <v>2009</v>
       </c>
       <c r="K33" s="11">
-        <v>2072</v>
+        <v>1760</v>
       </c>
       <c r="L33" s="11">
-        <v>2009</v>
+        <v>2036</v>
       </c>
       <c r="M33" s="11">
-        <v>1760</v>
+        <v>1944</v>
       </c>
       <c r="N33" s="11">
-        <v>2036</v>
+        <v>1987</v>
       </c>
       <c r="O33" s="11">
-        <v>1944</v>
+        <v>2213</v>
       </c>
       <c r="P33" s="11">
-        <v>1987</v>
+        <v>2048</v>
       </c>
       <c r="Q33" s="11">
-        <v>2213</v>
+        <v>2264</v>
       </c>
       <c r="R33" s="11">
-        <v>2048</v>
+        <v>2189</v>
       </c>
       <c r="S33" s="11">
-        <v>2264</v>
+        <v>2164</v>
       </c>
       <c r="T33" s="11">
-        <v>2189</v>
+        <v>2319</v>
       </c>
       <c r="U33" s="11">
-        <v>2164</v>
+        <v>2195</v>
       </c>
       <c r="V33" s="11">
-        <v>2319</v>
+        <v>2175</v>
       </c>
       <c r="W33" s="11">
-        <v>2195</v>
+        <v>2117</v>
       </c>
       <c r="X33" s="11">
+        <v>2276</v>
+      </c>
+      <c r="Y33" s="11">
         <v>2175</v>
       </c>
-      <c r="Y33" s="11">
-        <v>2117</v>
-      </c>
       <c r="Z33" s="11">
-        <v>2276</v>
+        <v>2215</v>
       </c>
       <c r="AA33" s="11">
-        <v>2175</v>
-      </c>
-      <c r="AB33" s="11">
-        <v>2215</v>
-      </c>
-      <c r="AC33" s="11">
         <v>1026</v>
       </c>
+      <c r="AB33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC33" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD33" s="11" t="s">
         <v>57</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4467,80 +4467,80 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="F34" s="13">
-        <v>1199</v>
+        <v>1664</v>
       </c>
       <c r="G34" s="13">
-        <v>1664</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>57</v>
+        <v>1884</v>
+      </c>
+      <c r="H34" s="13">
+        <v>2273</v>
       </c>
       <c r="I34" s="13">
-        <v>1884</v>
+        <v>2287</v>
       </c>
       <c r="J34" s="13">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="K34" s="13">
-        <v>2287</v>
+        <v>2413</v>
       </c>
       <c r="L34" s="13">
-        <v>2275</v>
+        <v>2449</v>
       </c>
       <c r="M34" s="13">
-        <v>2413</v>
+        <v>2376</v>
       </c>
       <c r="N34" s="13">
-        <v>2449</v>
+        <v>1793</v>
       </c>
       <c r="O34" s="13">
-        <v>2376</v>
+        <v>2211</v>
       </c>
       <c r="P34" s="13">
-        <v>1793</v>
+        <v>1731</v>
       </c>
       <c r="Q34" s="13">
         <v>2211</v>
       </c>
       <c r="R34" s="13">
-        <v>1731</v>
+        <v>2301</v>
       </c>
       <c r="S34" s="13">
-        <v>2211</v>
+        <v>2180</v>
       </c>
       <c r="T34" s="13">
-        <v>2301</v>
+        <v>2344</v>
       </c>
       <c r="U34" s="13">
-        <v>2180</v>
+        <v>2331</v>
       </c>
       <c r="V34" s="13">
-        <v>2344</v>
+        <v>2152</v>
       </c>
       <c r="W34" s="13">
-        <v>2331</v>
+        <v>2275</v>
       </c>
       <c r="X34" s="13">
-        <v>2152</v>
+        <v>2797</v>
       </c>
       <c r="Y34" s="13">
-        <v>2275</v>
+        <v>3036</v>
       </c>
       <c r="Z34" s="13">
-        <v>2797</v>
+        <v>3133</v>
       </c>
       <c r="AA34" s="13">
-        <v>3036</v>
-      </c>
-      <c r="AB34" s="13">
-        <v>3133</v>
-      </c>
-      <c r="AC34" s="13">
         <v>1379</v>
       </c>
+      <c r="AB34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC34" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD34" s="13" t="s">
         <v>57</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4626,80 +4626,80 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>1699</v>
+        <v>1962</v>
       </c>
       <c r="F35" s="11">
-        <v>1962</v>
+        <v>2222</v>
       </c>
       <c r="G35" s="11">
-        <v>2222</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>57</v>
+        <v>2435</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1853</v>
       </c>
       <c r="I35" s="11">
-        <v>2435</v>
+        <v>2936</v>
       </c>
       <c r="J35" s="11">
-        <v>1853</v>
+        <v>2176</v>
       </c>
       <c r="K35" s="11">
-        <v>2936</v>
+        <v>775</v>
       </c>
       <c r="L35" s="11">
-        <v>2176</v>
+        <v>2653</v>
       </c>
       <c r="M35" s="11">
-        <v>775</v>
+        <v>2254</v>
       </c>
       <c r="N35" s="11">
-        <v>2653</v>
+        <v>2236</v>
       </c>
       <c r="O35" s="11">
-        <v>2254</v>
+        <v>2614</v>
       </c>
       <c r="P35" s="11">
-        <v>2236</v>
+        <v>1848</v>
       </c>
       <c r="Q35" s="11">
-        <v>2614</v>
+        <v>2270</v>
       </c>
       <c r="R35" s="11">
-        <v>1848</v>
+        <v>2089</v>
       </c>
       <c r="S35" s="11">
-        <v>2270</v>
+        <v>2133</v>
       </c>
       <c r="T35" s="11">
-        <v>2089</v>
+        <v>2744</v>
       </c>
       <c r="U35" s="11">
-        <v>2133</v>
+        <v>2855</v>
       </c>
       <c r="V35" s="11">
-        <v>2744</v>
+        <v>2491</v>
       </c>
       <c r="W35" s="11">
-        <v>2855</v>
+        <v>2128</v>
       </c>
       <c r="X35" s="11">
-        <v>2491</v>
+        <v>2360</v>
       </c>
       <c r="Y35" s="11">
-        <v>2128</v>
+        <v>2719</v>
       </c>
       <c r="Z35" s="11">
-        <v>2360</v>
+        <v>2489</v>
       </c>
       <c r="AA35" s="11">
-        <v>2719</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>2489</v>
-      </c>
-      <c r="AC35" s="11">
         <v>1252</v>
       </c>
+      <c r="AB35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD35" s="11" t="s">
         <v>57</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4785,79 +4785,79 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>937</v>
+        <v>781</v>
       </c>
       <c r="F36" s="13">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="G36" s="13">
-        <v>760</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>57</v>
+        <v>719</v>
+      </c>
+      <c r="H36" s="13">
+        <v>748</v>
       </c>
       <c r="I36" s="13">
-        <v>719</v>
+        <v>624</v>
       </c>
       <c r="J36" s="13">
-        <v>748</v>
+        <v>802</v>
       </c>
       <c r="K36" s="13">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="L36" s="13">
-        <v>802</v>
+        <v>951</v>
       </c>
       <c r="M36" s="13">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="N36" s="13">
-        <v>951</v>
+        <v>856</v>
       </c>
       <c r="O36" s="13">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="P36" s="13">
-        <v>856</v>
+        <v>897</v>
       </c>
       <c r="Q36" s="13">
+        <v>896</v>
+      </c>
+      <c r="R36" s="13">
+        <v>765</v>
+      </c>
+      <c r="S36" s="13">
+        <v>855</v>
+      </c>
+      <c r="T36" s="13">
+        <v>959</v>
+      </c>
+      <c r="U36" s="13">
+        <v>948</v>
+      </c>
+      <c r="V36" s="13">
+        <v>1007</v>
+      </c>
+      <c r="W36" s="13">
+        <v>889</v>
+      </c>
+      <c r="X36" s="13">
+        <v>977</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>1048</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>979</v>
+      </c>
+      <c r="AA36" s="13">
         <v>888</v>
       </c>
-      <c r="R36" s="13">
-        <v>897</v>
-      </c>
-      <c r="S36" s="13">
-        <v>896</v>
-      </c>
-      <c r="T36" s="13">
-        <v>765</v>
-      </c>
-      <c r="U36" s="13">
-        <v>855</v>
-      </c>
-      <c r="V36" s="13">
-        <v>959</v>
-      </c>
-      <c r="W36" s="13">
-        <v>948</v>
-      </c>
-      <c r="X36" s="13">
-        <v>1007</v>
-      </c>
-      <c r="Y36" s="13">
-        <v>889</v>
-      </c>
-      <c r="Z36" s="13">
-        <v>977</v>
-      </c>
-      <c r="AA36" s="13">
-        <v>1048</v>
-      </c>
-      <c r="AB36" s="13">
-        <v>979</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>888</v>
+      <c r="AB36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD36" s="13" t="s">
         <v>57</v>
@@ -4935,7 +4935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -4961,11 +4961,11 @@
       <c r="J37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>57</v>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
       </c>
       <c r="M37" s="11">
         <v>0</v>
@@ -4976,17 +4976,17 @@
       <c r="O37" s="11">
         <v>0</v>
       </c>
-      <c r="P37" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>0</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>57</v>
+      <c r="P37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0</v>
+      </c>
+      <c r="S37" s="11">
+        <v>0</v>
       </c>
       <c r="T37" s="11">
         <v>0</v>
@@ -5009,11 +5009,11 @@
       <c r="Z37" s="11">
         <v>0</v>
       </c>
-      <c r="AA37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>0</v>
+      <c r="AA37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AC37" s="11" t="s">
         <v>57</v>
@@ -5094,7 +5094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>65</v>
       </c>
@@ -5171,89 +5171,89 @@
       <c r="AA38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC38" s="13" t="s">
-        <v>57</v>
+      <c r="AB38" s="13">
+        <v>3620</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>5812</v>
       </c>
       <c r="AD38" s="13">
-        <v>3620</v>
+        <v>5364</v>
       </c>
       <c r="AE38" s="13">
-        <v>5812</v>
+        <v>5686</v>
       </c>
       <c r="AF38" s="13">
-        <v>5364</v>
+        <v>6299</v>
       </c>
       <c r="AG38" s="13">
-        <v>5686</v>
+        <v>6401</v>
       </c>
       <c r="AH38" s="13">
-        <v>6299</v>
+        <v>6131</v>
       </c>
       <c r="AI38" s="13">
-        <v>6401</v>
+        <v>5683</v>
       </c>
       <c r="AJ38" s="13">
-        <v>6131</v>
+        <v>5915</v>
       </c>
       <c r="AK38" s="13">
-        <v>5683</v>
+        <v>6457</v>
       </c>
       <c r="AL38" s="13">
-        <v>5915</v>
+        <v>6487</v>
       </c>
       <c r="AM38" s="13">
-        <v>6457</v>
+        <v>6003</v>
       </c>
       <c r="AN38" s="13">
-        <v>6487</v>
+        <v>6540</v>
       </c>
       <c r="AO38" s="13">
-        <v>6003</v>
+        <v>6581</v>
       </c>
       <c r="AP38" s="13">
-        <v>6540</v>
+        <v>6908</v>
       </c>
       <c r="AQ38" s="13">
-        <v>6581</v>
+        <v>9676</v>
       </c>
       <c r="AR38" s="13">
-        <v>6908</v>
+        <v>7066</v>
       </c>
       <c r="AS38" s="13">
-        <v>8056</v>
+        <v>7316</v>
       </c>
       <c r="AT38" s="13">
-        <v>7066</v>
+        <v>7249</v>
       </c>
       <c r="AU38" s="13">
-        <v>7316</v>
+        <v>6989</v>
       </c>
       <c r="AV38" s="13">
-        <v>7249</v>
+        <v>7525</v>
       </c>
       <c r="AW38" s="13">
-        <v>6989</v>
+        <v>7478</v>
       </c>
       <c r="AX38" s="13">
-        <v>7525</v>
+        <v>6650</v>
       </c>
       <c r="AY38" s="13">
-        <v>7478</v>
+        <v>6414</v>
       </c>
       <c r="AZ38" s="13">
-        <v>6650</v>
+        <v>6459</v>
       </c>
       <c r="BA38" s="13">
-        <v>6414</v>
+        <v>6510</v>
       </c>
       <c r="BB38" s="13">
-        <v>6459</v>
+        <v>6048</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
@@ -5330,89 +5330,89 @@
       <c r="AA39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC39" s="11" t="s">
-        <v>57</v>
+      <c r="AB39" s="11">
+        <v>1454</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>2676</v>
       </c>
       <c r="AD39" s="11">
-        <v>1454</v>
+        <v>2698</v>
       </c>
       <c r="AE39" s="11">
-        <v>2676</v>
+        <v>4086</v>
       </c>
       <c r="AF39" s="11">
-        <v>2698</v>
+        <v>2760</v>
       </c>
       <c r="AG39" s="11">
-        <v>4086</v>
+        <v>2498</v>
       </c>
       <c r="AH39" s="11">
-        <v>2760</v>
+        <v>3824</v>
       </c>
       <c r="AI39" s="11">
-        <v>2498</v>
+        <v>3308</v>
       </c>
       <c r="AJ39" s="11">
-        <v>3824</v>
+        <v>2801</v>
       </c>
       <c r="AK39" s="11">
-        <v>3308</v>
+        <v>3041</v>
       </c>
       <c r="AL39" s="11">
-        <v>2801</v>
+        <v>2660</v>
       </c>
       <c r="AM39" s="11">
-        <v>3041</v>
+        <v>1820</v>
       </c>
       <c r="AN39" s="11">
-        <v>2660</v>
+        <v>2106</v>
       </c>
       <c r="AO39" s="11">
-        <v>1820</v>
+        <v>2893</v>
       </c>
       <c r="AP39" s="11">
-        <v>2106</v>
+        <v>2451</v>
       </c>
       <c r="AQ39" s="11">
-        <v>2893</v>
+        <v>2461</v>
       </c>
       <c r="AR39" s="11">
-        <v>2451</v>
+        <v>2697</v>
       </c>
       <c r="AS39" s="11">
-        <v>2461</v>
+        <v>1908</v>
       </c>
       <c r="AT39" s="11">
-        <v>2697</v>
+        <v>2415</v>
       </c>
       <c r="AU39" s="11">
-        <v>1908</v>
+        <v>1683</v>
       </c>
       <c r="AV39" s="11">
-        <v>2415</v>
+        <v>2770</v>
       </c>
       <c r="AW39" s="11">
-        <v>1683</v>
+        <v>3773</v>
       </c>
       <c r="AX39" s="11">
-        <v>2770</v>
+        <v>2533</v>
       </c>
       <c r="AY39" s="11">
-        <v>3773</v>
+        <v>2599</v>
       </c>
       <c r="AZ39" s="11">
-        <v>2533</v>
+        <v>1950</v>
       </c>
       <c r="BA39" s="11">
-        <v>2599</v>
+        <v>1562</v>
       </c>
       <c r="BB39" s="11">
-        <v>1950</v>
+        <v>3858</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>67</v>
       </c>
@@ -5489,89 +5489,89 @@
       <c r="AA40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC40" s="13" t="s">
-        <v>57</v>
+      <c r="AB40" s="13">
+        <v>353</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>309</v>
       </c>
       <c r="AD40" s="13">
+        <v>286</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>311</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>306</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>283</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>87</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>270</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>329</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>346</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>252</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>281</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>290</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>189</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>201</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>361</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>170</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>443</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>507</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>155</v>
+      </c>
+      <c r="AV40" s="13">
         <v>353</v>
       </c>
-      <c r="AE40" s="13">
-        <v>309</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>286</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>311</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>306</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>283</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>87</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>270</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>329</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>346</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>252</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>281</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>290</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>189</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>201</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>361</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>170</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>443</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>507</v>
-      </c>
       <c r="AW40" s="13">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AX40" s="13">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="AY40" s="13">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="AZ40" s="13">
-        <v>293</v>
+        <v>139</v>
       </c>
       <c r="BA40" s="13">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="BB40" s="13">
-        <v>139</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>68</v>
       </c>
@@ -5628,7 +5628,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>63</v>
       </c>
@@ -5705,20 +5705,20 @@
       <c r="AA42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC42" s="11" t="s">
-        <v>57</v>
+      <c r="AB42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>0</v>
       </c>
       <c r="AD42" s="11">
         <v>0</v>
       </c>
-      <c r="AE42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="11">
-        <v>0</v>
+      <c r="AE42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG42" s="11" t="s">
         <v>57</v>
@@ -5787,7 +5787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>70</v>
       </c>
@@ -5862,11 +5862,11 @@
       <c r="AA43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AB43" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC43" s="15" t="s">
-        <v>57</v>
+      <c r="AB43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="15">
+        <v>0</v>
       </c>
       <c r="AD43" s="15">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>73</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="BA44" s="19"/>
       <c r="BB44" s="19"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>74</v>
       </c>
@@ -6076,11 +6076,11 @@
       <c r="AA45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC45" s="17" t="s">
-        <v>57</v>
+      <c r="AB45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="17">
+        <v>0</v>
       </c>
       <c r="AD45" s="17">
         <v>0</v>
@@ -6158,164 +6158,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>5849</v>
+        <v>6297</v>
       </c>
       <c r="F46" s="15">
-        <v>6297</v>
+        <v>6866</v>
       </c>
       <c r="G46" s="15">
-        <v>6866</v>
+        <v>7511</v>
       </c>
       <c r="H46" s="15">
-        <v>0</v>
+        <v>7298</v>
       </c>
       <c r="I46" s="15">
-        <v>7511</v>
+        <v>8452</v>
       </c>
       <c r="J46" s="15">
-        <v>7298</v>
+        <v>8110</v>
       </c>
       <c r="K46" s="15">
-        <v>8452</v>
+        <v>6354</v>
       </c>
       <c r="L46" s="15">
-        <v>8110</v>
+        <v>9014</v>
       </c>
       <c r="M46" s="15">
-        <v>6354</v>
+        <v>8020</v>
       </c>
       <c r="N46" s="15">
-        <v>9014</v>
+        <v>7798</v>
       </c>
       <c r="O46" s="15">
-        <v>8020</v>
+        <v>8657</v>
       </c>
       <c r="P46" s="15">
-        <v>7798</v>
+        <v>6942</v>
       </c>
       <c r="Q46" s="15">
-        <v>8657</v>
+        <v>8183</v>
       </c>
       <c r="R46" s="15">
-        <v>6942</v>
+        <v>7999</v>
       </c>
       <c r="S46" s="15">
-        <v>8183</v>
+        <v>7918</v>
       </c>
       <c r="T46" s="15">
-        <v>7999</v>
+        <v>8825</v>
       </c>
       <c r="U46" s="15">
-        <v>7918</v>
+        <v>9225</v>
       </c>
       <c r="V46" s="15">
-        <v>8825</v>
+        <v>8329</v>
       </c>
       <c r="W46" s="15">
-        <v>9225</v>
+        <v>7813</v>
       </c>
       <c r="X46" s="15">
-        <v>8329</v>
+        <v>8913</v>
       </c>
       <c r="Y46" s="15">
-        <v>7813</v>
+        <v>9426</v>
       </c>
       <c r="Z46" s="15">
-        <v>8913</v>
+        <v>9251</v>
       </c>
       <c r="AA46" s="15">
-        <v>9426</v>
+        <v>4839</v>
       </c>
       <c r="AB46" s="15">
-        <v>9251</v>
+        <v>5427</v>
       </c>
       <c r="AC46" s="15">
-        <v>4839</v>
+        <v>8797</v>
       </c>
       <c r="AD46" s="15">
-        <v>5427</v>
+        <v>8348</v>
       </c>
       <c r="AE46" s="15">
-        <v>8797</v>
+        <v>10083</v>
       </c>
       <c r="AF46" s="15">
-        <v>8348</v>
+        <v>9365</v>
       </c>
       <c r="AG46" s="15">
-        <v>10083</v>
+        <v>9182</v>
       </c>
       <c r="AH46" s="15">
-        <v>9365</v>
+        <v>10042</v>
       </c>
       <c r="AI46" s="15">
-        <v>9182</v>
+        <v>9282</v>
       </c>
       <c r="AJ46" s="15">
-        <v>10042</v>
+        <v>9068</v>
       </c>
       <c r="AK46" s="15">
-        <v>9282</v>
+        <v>9868</v>
       </c>
       <c r="AL46" s="15">
-        <v>9068</v>
+        <v>9567</v>
       </c>
       <c r="AM46" s="15">
-        <v>9868</v>
+        <v>8200</v>
       </c>
       <c r="AN46" s="15">
-        <v>9567</v>
+        <v>8936</v>
       </c>
       <c r="AO46" s="15">
-        <v>8200</v>
+        <v>9663</v>
       </c>
       <c r="AP46" s="15">
-        <v>8936</v>
+        <v>9560</v>
       </c>
       <c r="AQ46" s="15">
-        <v>9663</v>
+        <v>12498</v>
       </c>
       <c r="AR46" s="15">
-        <v>9560</v>
+        <v>9933</v>
       </c>
       <c r="AS46" s="15">
-        <v>10878</v>
+        <v>9667</v>
       </c>
       <c r="AT46" s="15">
-        <v>9933</v>
+        <v>10171</v>
       </c>
       <c r="AU46" s="15">
-        <v>9667</v>
+        <v>8827</v>
       </c>
       <c r="AV46" s="15">
-        <v>10171</v>
+        <v>10648</v>
       </c>
       <c r="AW46" s="15">
-        <v>8827</v>
+        <v>11416</v>
       </c>
       <c r="AX46" s="15">
-        <v>10648</v>
+        <v>9476</v>
       </c>
       <c r="AY46" s="15">
-        <v>11416</v>
+        <v>9257</v>
       </c>
       <c r="AZ46" s="15">
-        <v>9476</v>
+        <v>8548</v>
       </c>
       <c r="BA46" s="15">
-        <v>9257</v>
+        <v>8368</v>
       </c>
       <c r="BB46" s="15">
-        <v>8548</v>
+        <v>10226</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6370,7 +6370,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6425,7 +6425,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6480,7 +6480,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6692,7 +6692,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>75</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -6758,79 +6758,79 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>871</v>
+        <v>2399</v>
       </c>
       <c r="F53" s="11">
-        <v>2399</v>
+        <v>681</v>
       </c>
       <c r="G53" s="11">
-        <v>681</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>57</v>
+        <v>2843</v>
+      </c>
+      <c r="H53" s="11">
+        <v>2121</v>
       </c>
       <c r="I53" s="11">
-        <v>2843</v>
+        <v>1581</v>
       </c>
       <c r="J53" s="11">
-        <v>2121</v>
+        <v>3129</v>
       </c>
       <c r="K53" s="11">
-        <v>1581</v>
+        <v>3689</v>
       </c>
       <c r="L53" s="11">
-        <v>3129</v>
+        <v>2579</v>
       </c>
       <c r="M53" s="11">
-        <v>3689</v>
+        <v>2457</v>
       </c>
       <c r="N53" s="11">
-        <v>2579</v>
+        <v>3708</v>
       </c>
       <c r="O53" s="11">
-        <v>2457</v>
+        <v>1620</v>
       </c>
       <c r="P53" s="11">
-        <v>3708</v>
+        <v>685</v>
       </c>
       <c r="Q53" s="11">
-        <v>1620</v>
+        <v>1053</v>
       </c>
       <c r="R53" s="11">
-        <v>685</v>
+        <v>1183</v>
       </c>
       <c r="S53" s="11">
-        <v>1053</v>
+        <v>2375</v>
       </c>
       <c r="T53" s="11">
-        <v>1183</v>
+        <v>0</v>
       </c>
       <c r="U53" s="11">
-        <v>2375</v>
+        <v>0</v>
       </c>
       <c r="V53" s="11">
-        <v>779</v>
+        <v>0</v>
       </c>
       <c r="W53" s="11">
-        <v>2720</v>
+        <v>0</v>
       </c>
       <c r="X53" s="11">
-        <v>2628</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
-        <v>1481</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="11">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="11">
-        <v>1442</v>
-      </c>
-      <c r="AB53" s="11">
-        <v>1504</v>
-      </c>
-      <c r="AC53" s="11">
-        <v>1079</v>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD53" s="11" t="s">
         <v>57</v>
@@ -6908,7 +6908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -6917,79 +6917,79 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>11726</v>
+        <v>17052</v>
       </c>
       <c r="F54" s="13">
-        <v>17052</v>
+        <v>22519</v>
       </c>
       <c r="G54" s="13">
-        <v>22519</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>57</v>
+        <v>29843</v>
+      </c>
+      <c r="H54" s="13">
+        <v>22584</v>
       </c>
       <c r="I54" s="13">
-        <v>29843</v>
+        <v>20153</v>
       </c>
       <c r="J54" s="13">
-        <v>22584</v>
+        <v>23129</v>
       </c>
       <c r="K54" s="13">
-        <v>20153</v>
+        <v>10199</v>
       </c>
       <c r="L54" s="13">
-        <v>23129</v>
+        <v>29159</v>
       </c>
       <c r="M54" s="13">
-        <v>10199</v>
+        <v>25377</v>
       </c>
       <c r="N54" s="13">
-        <v>29159</v>
+        <v>21308</v>
       </c>
       <c r="O54" s="13">
-        <v>25377</v>
+        <v>26495</v>
       </c>
       <c r="P54" s="13">
-        <v>21308</v>
+        <v>20991</v>
       </c>
       <c r="Q54" s="13">
-        <v>26495</v>
+        <v>31188</v>
       </c>
       <c r="R54" s="13">
-        <v>20991</v>
+        <v>27844</v>
       </c>
       <c r="S54" s="13">
-        <v>31188</v>
+        <v>21989</v>
       </c>
       <c r="T54" s="13">
-        <v>27844</v>
+        <v>0</v>
       </c>
       <c r="U54" s="13">
-        <v>21989</v>
+        <v>0</v>
       </c>
       <c r="V54" s="13">
-        <v>27151</v>
+        <v>0</v>
       </c>
       <c r="W54" s="13">
-        <v>31995</v>
+        <v>0</v>
       </c>
       <c r="X54" s="13">
-        <v>27395</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="13">
-        <v>23126</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="13">
-        <v>40136</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="13">
-        <v>33872</v>
-      </c>
-      <c r="AB54" s="13">
-        <v>36498</v>
-      </c>
-      <c r="AC54" s="13">
-        <v>25229</v>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD54" s="13" t="s">
         <v>57</v>
@@ -7006,27 +7006,27 @@
       <c r="AH54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ54" s="13" t="s">
-        <v>57</v>
+      <c r="AI54" s="13">
+        <v>5155</v>
+      </c>
+      <c r="AJ54" s="13">
+        <v>6868</v>
       </c>
       <c r="AK54" s="13">
-        <v>5155</v>
+        <v>8072</v>
       </c>
       <c r="AL54" s="13">
-        <v>6868</v>
+        <v>58652</v>
       </c>
       <c r="AM54" s="13">
-        <v>8072</v>
-      </c>
-      <c r="AN54" s="13">
-        <v>58652</v>
-      </c>
-      <c r="AO54" s="13">
         <v>36818</v>
       </c>
+      <c r="AN54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO54" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AP54" s="13" t="s">
         <v>57</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -7076,79 +7076,79 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>9701</v>
+        <v>9419</v>
       </c>
       <c r="F55" s="11">
-        <v>9419</v>
+        <v>11308</v>
       </c>
       <c r="G55" s="11">
-        <v>11308</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>57</v>
+        <v>10559</v>
+      </c>
+      <c r="H55" s="11">
+        <v>10931</v>
       </c>
       <c r="I55" s="11">
-        <v>10559</v>
+        <v>12226</v>
       </c>
       <c r="J55" s="11">
-        <v>10931</v>
+        <v>11920</v>
       </c>
       <c r="K55" s="11">
-        <v>12226</v>
+        <v>10154</v>
       </c>
       <c r="L55" s="11">
-        <v>11920</v>
+        <v>12220</v>
       </c>
       <c r="M55" s="11">
-        <v>10154</v>
+        <v>11694</v>
       </c>
       <c r="N55" s="11">
-        <v>12220</v>
+        <v>11895</v>
       </c>
       <c r="O55" s="11">
-        <v>11694</v>
+        <v>13076</v>
       </c>
       <c r="P55" s="11">
-        <v>11895</v>
+        <v>12227</v>
       </c>
       <c r="Q55" s="11">
-        <v>13076</v>
+        <v>13978</v>
       </c>
       <c r="R55" s="11">
-        <v>12227</v>
+        <v>13427</v>
       </c>
       <c r="S55" s="11">
-        <v>13978</v>
+        <v>13234</v>
       </c>
       <c r="T55" s="11">
-        <v>13427</v>
+        <v>0</v>
       </c>
       <c r="U55" s="11">
-        <v>13234</v>
+        <v>0</v>
       </c>
       <c r="V55" s="11">
-        <v>14341</v>
+        <v>0</v>
       </c>
       <c r="W55" s="11">
-        <v>13661</v>
+        <v>0</v>
       </c>
       <c r="X55" s="11">
-        <v>14062</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="11">
-        <v>14374</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="11">
-        <v>15049</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="11">
-        <v>14951</v>
-      </c>
-      <c r="AB55" s="11">
-        <v>15834</v>
-      </c>
-      <c r="AC55" s="11">
-        <v>7187</v>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD55" s="11" t="s">
         <v>57</v>
@@ -7226,7 +7226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>60</v>
       </c>
@@ -7235,79 +7235,79 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>1001</v>
+        <v>1189</v>
       </c>
       <c r="F56" s="13">
-        <v>1189</v>
+        <v>1739</v>
       </c>
       <c r="G56" s="13">
-        <v>1739</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>57</v>
+        <v>2864</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1865</v>
       </c>
       <c r="I56" s="13">
-        <v>2864</v>
+        <v>1719</v>
       </c>
       <c r="J56" s="13">
-        <v>1865</v>
+        <v>1850</v>
       </c>
       <c r="K56" s="13">
-        <v>1719</v>
+        <v>1916</v>
       </c>
       <c r="L56" s="13">
-        <v>1850</v>
+        <v>1871</v>
       </c>
       <c r="M56" s="13">
-        <v>1916</v>
+        <v>2346</v>
       </c>
       <c r="N56" s="13">
-        <v>1871</v>
+        <v>3535</v>
       </c>
       <c r="O56" s="13">
-        <v>2346</v>
+        <v>4188</v>
       </c>
       <c r="P56" s="13">
-        <v>3535</v>
+        <v>2990</v>
       </c>
       <c r="Q56" s="13">
-        <v>4188</v>
+        <v>3454</v>
       </c>
       <c r="R56" s="13">
-        <v>2990</v>
+        <v>3098</v>
       </c>
       <c r="S56" s="13">
-        <v>3454</v>
+        <v>2976</v>
       </c>
       <c r="T56" s="13">
-        <v>3098</v>
+        <v>0</v>
       </c>
       <c r="U56" s="13">
-        <v>2976</v>
+        <v>0</v>
       </c>
       <c r="V56" s="13">
-        <v>3019</v>
+        <v>0</v>
       </c>
       <c r="W56" s="13">
-        <v>2965</v>
+        <v>0</v>
       </c>
       <c r="X56" s="13">
-        <v>3090</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="13">
-        <v>1953</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="13">
-        <v>2853</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="13">
-        <v>3547</v>
-      </c>
-      <c r="AB56" s="13">
-        <v>3873</v>
-      </c>
-      <c r="AC56" s="13">
-        <v>2764</v>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD56" s="13" t="s">
         <v>57</v>
@@ -7385,7 +7385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
@@ -7394,79 +7394,79 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>60163</v>
+        <v>63167</v>
       </c>
       <c r="F57" s="11">
-        <v>63167</v>
+        <v>75103</v>
       </c>
       <c r="G57" s="11">
-        <v>75103</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>57</v>
+        <v>68470</v>
+      </c>
+      <c r="H57" s="11">
+        <v>55517</v>
       </c>
       <c r="I57" s="11">
-        <v>68470</v>
+        <v>103487</v>
       </c>
       <c r="J57" s="11">
-        <v>55517</v>
+        <v>73835</v>
       </c>
       <c r="K57" s="11">
-        <v>103487</v>
+        <v>31335</v>
       </c>
       <c r="L57" s="11">
-        <v>73835</v>
+        <v>104041</v>
       </c>
       <c r="M57" s="11">
-        <v>31335</v>
+        <v>81505</v>
       </c>
       <c r="N57" s="11">
-        <v>104041</v>
+        <v>73977</v>
       </c>
       <c r="O57" s="11">
-        <v>81505</v>
+        <v>77172</v>
       </c>
       <c r="P57" s="11">
-        <v>73977</v>
+        <v>54990</v>
       </c>
       <c r="Q57" s="11">
-        <v>77172</v>
+        <v>68033</v>
       </c>
       <c r="R57" s="11">
-        <v>54990</v>
+        <v>59708</v>
       </c>
       <c r="S57" s="11">
-        <v>68033</v>
+        <v>64036</v>
       </c>
       <c r="T57" s="11">
-        <v>59708</v>
+        <v>0</v>
       </c>
       <c r="U57" s="11">
-        <v>64036</v>
+        <v>0</v>
       </c>
       <c r="V57" s="11">
-        <v>92329</v>
+        <v>0</v>
       </c>
       <c r="W57" s="11">
-        <v>94504</v>
+        <v>0</v>
       </c>
       <c r="X57" s="11">
-        <v>96680</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="11">
-        <v>69404</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="11">
-        <v>77128</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="11">
-        <v>93745</v>
-      </c>
-      <c r="AB57" s="11">
-        <v>102102</v>
-      </c>
-      <c r="AC57" s="11">
-        <v>58592</v>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD57" s="11" t="s">
         <v>57</v>
@@ -7544,7 +7544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>62</v>
       </c>
@@ -7553,79 +7553,79 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>28085</v>
+        <v>26249</v>
       </c>
       <c r="F58" s="13">
-        <v>26249</v>
+        <v>27235</v>
       </c>
       <c r="G58" s="13">
-        <v>27235</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>57</v>
+        <v>25454</v>
+      </c>
+      <c r="H58" s="13">
+        <v>26848</v>
       </c>
       <c r="I58" s="13">
-        <v>25454</v>
+        <v>22414</v>
       </c>
       <c r="J58" s="13">
-        <v>26848</v>
+        <v>20377</v>
       </c>
       <c r="K58" s="13">
-        <v>22414</v>
+        <v>26394</v>
       </c>
       <c r="L58" s="13">
-        <v>20377</v>
+        <v>32572</v>
       </c>
       <c r="M58" s="13">
-        <v>26394</v>
+        <v>32467</v>
       </c>
       <c r="N58" s="13">
-        <v>32572</v>
+        <v>38429</v>
       </c>
       <c r="O58" s="13">
-        <v>32467</v>
+        <v>33996</v>
       </c>
       <c r="P58" s="13">
-        <v>38429</v>
+        <v>34127</v>
       </c>
       <c r="Q58" s="13">
-        <v>33996</v>
+        <v>34090</v>
       </c>
       <c r="R58" s="13">
-        <v>34127</v>
+        <v>37701</v>
       </c>
       <c r="S58" s="13">
-        <v>34090</v>
+        <v>23826</v>
       </c>
       <c r="T58" s="13">
-        <v>37701</v>
+        <v>0</v>
       </c>
       <c r="U58" s="13">
-        <v>23826</v>
+        <v>0</v>
       </c>
       <c r="V58" s="13">
-        <v>35383</v>
+        <v>0</v>
       </c>
       <c r="W58" s="13">
-        <v>43474</v>
+        <v>0</v>
       </c>
       <c r="X58" s="13">
-        <v>41237</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="13">
-        <v>41245</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="13">
-        <v>49340</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="13">
-        <v>50952</v>
-      </c>
-      <c r="AB58" s="13">
-        <v>57750</v>
-      </c>
-      <c r="AC58" s="13">
-        <v>36801</v>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD58" s="13" t="s">
         <v>57</v>
@@ -7703,7 +7703,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>63</v>
       </c>
@@ -7729,35 +7729,35 @@
       <c r="J59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="11" t="s">
-        <v>57</v>
+      <c r="K59" s="11">
+        <v>2050</v>
+      </c>
+      <c r="L59" s="11">
+        <v>12141</v>
       </c>
       <c r="M59" s="11">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="N59" s="11">
-        <v>12141</v>
+        <v>0</v>
       </c>
       <c r="O59" s="11">
         <v>0</v>
       </c>
-      <c r="P59" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="11">
-        <v>0</v>
-      </c>
-      <c r="R59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>57</v>
+      <c r="P59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R59" s="11">
+        <v>7737</v>
+      </c>
+      <c r="S59" s="11">
+        <v>0</v>
       </c>
       <c r="T59" s="11">
-        <v>7737</v>
+        <v>0</v>
       </c>
       <c r="U59" s="11">
         <v>0</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="11">
-        <v>62852</v>
+        <v>0</v>
       </c>
       <c r="X59" s="11">
         <v>0</v>
@@ -7775,13 +7775,13 @@
         <v>0</v>
       </c>
       <c r="Z59" s="11">
-        <v>45376</v>
-      </c>
-      <c r="AA59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AC59" s="11" t="s">
         <v>57</v>
@@ -7862,7 +7862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>65</v>
       </c>
@@ -7939,89 +7939,89 @@
       <c r="AA60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC60" s="13" t="s">
-        <v>57</v>
+      <c r="AB60" s="13">
+        <v>111422</v>
+      </c>
+      <c r="AC60" s="13">
+        <v>88692</v>
       </c>
       <c r="AD60" s="13">
-        <v>111422</v>
+        <v>86963</v>
       </c>
       <c r="AE60" s="13">
-        <v>88692</v>
+        <v>81270</v>
       </c>
       <c r="AF60" s="13">
-        <v>86963</v>
+        <v>91617</v>
       </c>
       <c r="AG60" s="13">
-        <v>81270</v>
+        <v>76117</v>
       </c>
       <c r="AH60" s="13">
-        <v>91617</v>
+        <v>71073</v>
       </c>
       <c r="AI60" s="13">
-        <v>76117</v>
+        <v>83868</v>
       </c>
       <c r="AJ60" s="13">
-        <v>71073</v>
+        <v>87893</v>
       </c>
       <c r="AK60" s="13">
-        <v>83868</v>
+        <v>96073</v>
       </c>
       <c r="AL60" s="13">
-        <v>87893</v>
+        <v>105760</v>
       </c>
       <c r="AM60" s="13">
-        <v>96073</v>
+        <v>99478</v>
       </c>
       <c r="AN60" s="13">
-        <v>105760</v>
+        <v>97816</v>
       </c>
       <c r="AO60" s="13">
-        <v>99478</v>
+        <v>94817</v>
       </c>
       <c r="AP60" s="13">
-        <v>97816</v>
+        <v>86864</v>
       </c>
       <c r="AQ60" s="13">
-        <v>94817</v>
+        <v>103902</v>
       </c>
       <c r="AR60" s="13">
-        <v>86864</v>
+        <v>97515</v>
       </c>
       <c r="AS60" s="13">
-        <v>103902</v>
+        <v>117214</v>
       </c>
       <c r="AT60" s="13">
-        <v>97515</v>
+        <v>126325</v>
       </c>
       <c r="AU60" s="13">
-        <v>117214</v>
+        <v>123383</v>
       </c>
       <c r="AV60" s="13">
-        <v>126325</v>
+        <v>148234</v>
       </c>
       <c r="AW60" s="13">
-        <v>123383</v>
+        <v>152457</v>
       </c>
       <c r="AX60" s="13">
-        <v>148234</v>
+        <v>188533</v>
       </c>
       <c r="AY60" s="13">
-        <v>152457</v>
+        <v>204146</v>
       </c>
       <c r="AZ60" s="13">
-        <v>188533</v>
+        <v>194334</v>
       </c>
       <c r="BA60" s="13">
-        <v>204146</v>
+        <v>202175</v>
       </c>
       <c r="BB60" s="13">
-        <v>194334</v>
+        <v>170059</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>66</v>
       </c>
@@ -8098,89 +8098,89 @@
       <c r="AA61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC61" s="11" t="s">
-        <v>57</v>
+      <c r="AB61" s="11">
+        <v>59150</v>
+      </c>
+      <c r="AC61" s="11">
+        <v>126215</v>
       </c>
       <c r="AD61" s="11">
-        <v>59150</v>
+        <v>127164</v>
       </c>
       <c r="AE61" s="11">
-        <v>126215</v>
+        <v>192508</v>
       </c>
       <c r="AF61" s="11">
-        <v>127164</v>
+        <v>127171</v>
       </c>
       <c r="AG61" s="11">
-        <v>192508</v>
+        <v>139994</v>
       </c>
       <c r="AH61" s="11">
-        <v>127171</v>
+        <v>214738</v>
       </c>
       <c r="AI61" s="11">
-        <v>139994</v>
+        <v>198239</v>
       </c>
       <c r="AJ61" s="11">
-        <v>214738</v>
+        <v>187780</v>
       </c>
       <c r="AK61" s="11">
-        <v>198239</v>
+        <v>213926</v>
       </c>
       <c r="AL61" s="11">
-        <v>187780</v>
+        <v>250760</v>
       </c>
       <c r="AM61" s="11">
-        <v>213926</v>
+        <v>287421</v>
       </c>
       <c r="AN61" s="11">
-        <v>250760</v>
+        <v>297267</v>
       </c>
       <c r="AO61" s="11">
-        <v>287421</v>
+        <v>401192</v>
       </c>
       <c r="AP61" s="11">
-        <v>297267</v>
+        <v>543446</v>
       </c>
       <c r="AQ61" s="11">
-        <v>401192</v>
+        <v>500023</v>
       </c>
       <c r="AR61" s="11">
-        <v>543446</v>
+        <v>558681</v>
       </c>
       <c r="AS61" s="11">
-        <v>500023</v>
+        <v>375573</v>
       </c>
       <c r="AT61" s="11">
-        <v>558681</v>
+        <v>417769</v>
       </c>
       <c r="AU61" s="11">
-        <v>375573</v>
+        <v>253405</v>
       </c>
       <c r="AV61" s="11">
-        <v>417769</v>
+        <v>390108</v>
       </c>
       <c r="AW61" s="11">
-        <v>253405</v>
+        <v>532338</v>
       </c>
       <c r="AX61" s="11">
-        <v>390108</v>
+        <v>449504</v>
       </c>
       <c r="AY61" s="11">
-        <v>532338</v>
+        <v>517716</v>
       </c>
       <c r="AZ61" s="11">
-        <v>449504</v>
+        <v>426011</v>
       </c>
       <c r="BA61" s="11">
-        <v>517716</v>
+        <v>321358</v>
       </c>
       <c r="BB61" s="11">
-        <v>426011</v>
+        <v>672276</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>67</v>
       </c>
@@ -8257,89 +8257,89 @@
       <c r="AA62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC62" s="13" t="s">
-        <v>57</v>
+      <c r="AB62" s="13">
+        <v>56013</v>
+      </c>
+      <c r="AC62" s="13">
+        <v>55553</v>
       </c>
       <c r="AD62" s="13">
-        <v>56013</v>
+        <v>50428</v>
       </c>
       <c r="AE62" s="13">
-        <v>55553</v>
+        <v>61800</v>
       </c>
       <c r="AF62" s="13">
-        <v>50428</v>
+        <v>92501</v>
       </c>
       <c r="AG62" s="13">
-        <v>61800</v>
+        <v>102864</v>
       </c>
       <c r="AH62" s="13">
-        <v>92501</v>
+        <v>29145</v>
       </c>
       <c r="AI62" s="13">
-        <v>102864</v>
+        <v>79245</v>
       </c>
       <c r="AJ62" s="13">
-        <v>29145</v>
+        <v>115226</v>
       </c>
       <c r="AK62" s="13">
-        <v>79245</v>
+        <v>111128</v>
       </c>
       <c r="AL62" s="13">
-        <v>115226</v>
+        <v>73604</v>
       </c>
       <c r="AM62" s="13">
-        <v>111128</v>
+        <v>98345</v>
       </c>
       <c r="AN62" s="13">
-        <v>73604</v>
+        <v>119028</v>
       </c>
       <c r="AO62" s="13">
-        <v>98345</v>
+        <v>85876</v>
       </c>
       <c r="AP62" s="13">
-        <v>119028</v>
+        <v>77495</v>
       </c>
       <c r="AQ62" s="13">
-        <v>85876</v>
+        <v>124570</v>
       </c>
       <c r="AR62" s="13">
-        <v>77495</v>
+        <v>57270</v>
       </c>
       <c r="AS62" s="13">
-        <v>124570</v>
+        <v>145160</v>
       </c>
       <c r="AT62" s="13">
-        <v>57270</v>
+        <v>175642</v>
       </c>
       <c r="AU62" s="13">
-        <v>145160</v>
+        <v>66371</v>
       </c>
       <c r="AV62" s="13">
-        <v>175642</v>
+        <v>133080</v>
       </c>
       <c r="AW62" s="13">
-        <v>66371</v>
+        <v>59251</v>
       </c>
       <c r="AX62" s="13">
-        <v>133080</v>
+        <v>100630</v>
       </c>
       <c r="AY62" s="13">
-        <v>59251</v>
+        <v>83335</v>
       </c>
       <c r="AZ62" s="13">
-        <v>100630</v>
+        <v>50806</v>
       </c>
       <c r="BA62" s="13">
-        <v>83335</v>
+        <v>97951</v>
       </c>
       <c r="BB62" s="13">
-        <v>50806</v>
+        <v>106877</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>76</v>
       </c>
@@ -8396,7 +8396,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>63</v>
       </c>
@@ -8473,20 +8473,20 @@
       <c r="AA64" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB64" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC64" s="11" t="s">
-        <v>57</v>
+      <c r="AB64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="11">
+        <v>0</v>
       </c>
       <c r="AD64" s="11">
         <v>0</v>
       </c>
-      <c r="AE64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="11">
-        <v>0</v>
+      <c r="AE64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF64" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG64" s="11" t="s">
         <v>57</v>
@@ -8555,7 +8555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>70</v>
       </c>
@@ -8632,11 +8632,11 @@
       <c r="AA65" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AB65" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC65" s="15" t="s">
-        <v>57</v>
+      <c r="AB65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="15">
+        <v>0</v>
       </c>
       <c r="AD65" s="15">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>77</v>
       </c>
@@ -8771,7 +8771,7 @@
       <c r="BA66" s="19"/>
       <c r="BB66" s="19"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>74</v>
       </c>
@@ -8848,11 +8848,11 @@
       <c r="AA67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC67" s="17" t="s">
-        <v>57</v>
+      <c r="AB67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="17">
+        <v>0</v>
       </c>
       <c r="AD67" s="17">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>78</v>
       </c>
@@ -8987,7 +8987,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>79</v>
       </c>
@@ -9064,11 +9064,11 @@
       <c r="AA69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC69" s="11" t="s">
-        <v>57</v>
+      <c r="AB69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="11">
+        <v>0</v>
       </c>
       <c r="AD69" s="11">
         <v>0</v>
@@ -9146,164 +9146,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
-        <v>111547</v>
+        <v>119475</v>
       </c>
       <c r="F70" s="15">
-        <v>119475</v>
+        <v>138585</v>
       </c>
       <c r="G70" s="15">
-        <v>138585</v>
+        <v>140033</v>
       </c>
       <c r="H70" s="15">
-        <v>0</v>
+        <v>119866</v>
       </c>
       <c r="I70" s="15">
-        <v>140033</v>
+        <v>161580</v>
       </c>
       <c r="J70" s="15">
-        <v>119866</v>
+        <v>134240</v>
       </c>
       <c r="K70" s="15">
-        <v>161580</v>
+        <v>85737</v>
       </c>
       <c r="L70" s="15">
-        <v>134240</v>
+        <v>194583</v>
       </c>
       <c r="M70" s="15">
-        <v>85737</v>
+        <v>155846</v>
       </c>
       <c r="N70" s="15">
-        <v>194583</v>
+        <v>152852</v>
       </c>
       <c r="O70" s="15">
-        <v>155846</v>
+        <v>156547</v>
       </c>
       <c r="P70" s="15">
-        <v>152852</v>
+        <v>126010</v>
       </c>
       <c r="Q70" s="15">
-        <v>156547</v>
+        <v>151796</v>
       </c>
       <c r="R70" s="15">
-        <v>126010</v>
+        <v>150698</v>
       </c>
       <c r="S70" s="15">
-        <v>151796</v>
+        <v>128436</v>
       </c>
       <c r="T70" s="15">
-        <v>150698</v>
+        <v>0</v>
       </c>
       <c r="U70" s="15">
-        <v>128436</v>
+        <v>0</v>
       </c>
       <c r="V70" s="15">
-        <v>173002</v>
+        <v>0</v>
       </c>
       <c r="W70" s="15">
-        <v>252171</v>
+        <v>0</v>
       </c>
       <c r="X70" s="15">
-        <v>185092</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="15">
-        <v>151583</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="15">
-        <v>231047</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="15">
-        <v>198509</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="15">
-        <v>217561</v>
+        <v>226585</v>
       </c>
       <c r="AC70" s="15">
-        <v>131652</v>
+        <v>270460</v>
       </c>
       <c r="AD70" s="15">
-        <v>226585</v>
+        <v>264555</v>
       </c>
       <c r="AE70" s="15">
-        <v>270460</v>
+        <v>335578</v>
       </c>
       <c r="AF70" s="15">
-        <v>264555</v>
+        <v>311289</v>
       </c>
       <c r="AG70" s="15">
-        <v>335578</v>
+        <v>318975</v>
       </c>
       <c r="AH70" s="15">
-        <v>311289</v>
+        <v>314956</v>
       </c>
       <c r="AI70" s="15">
-        <v>318975</v>
+        <v>366507</v>
       </c>
       <c r="AJ70" s="15">
-        <v>314956</v>
+        <v>397767</v>
       </c>
       <c r="AK70" s="15">
-        <v>366507</v>
+        <v>429199</v>
       </c>
       <c r="AL70" s="15">
-        <v>397767</v>
+        <v>488776</v>
       </c>
       <c r="AM70" s="15">
-        <v>429199</v>
+        <v>522062</v>
       </c>
       <c r="AN70" s="15">
-        <v>488776</v>
+        <v>514111</v>
       </c>
       <c r="AO70" s="15">
-        <v>522062</v>
+        <v>581885</v>
       </c>
       <c r="AP70" s="15">
-        <v>514111</v>
+        <v>707805</v>
       </c>
       <c r="AQ70" s="15">
-        <v>581885</v>
+        <v>728495</v>
       </c>
       <c r="AR70" s="15">
-        <v>707805</v>
+        <v>713466</v>
       </c>
       <c r="AS70" s="15">
-        <v>728495</v>
+        <v>637947</v>
       </c>
       <c r="AT70" s="15">
-        <v>713466</v>
+        <v>719736</v>
       </c>
       <c r="AU70" s="15">
-        <v>637947</v>
+        <v>443159</v>
       </c>
       <c r="AV70" s="15">
-        <v>719736</v>
+        <v>671422</v>
       </c>
       <c r="AW70" s="15">
-        <v>443159</v>
+        <v>744046</v>
       </c>
       <c r="AX70" s="15">
-        <v>671422</v>
+        <v>738667</v>
       </c>
       <c r="AY70" s="15">
-        <v>744046</v>
+        <v>805197</v>
       </c>
       <c r="AZ70" s="15">
-        <v>738667</v>
+        <v>671151</v>
       </c>
       <c r="BA70" s="15">
-        <v>805197</v>
+        <v>621484</v>
       </c>
       <c r="BB70" s="15">
-        <v>671151</v>
+        <v>949212</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9358,7 +9358,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9413,7 +9413,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9468,7 +9468,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>80</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9680,7 +9680,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>81</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -9746,80 +9746,80 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>5246988</v>
+        <v>6738764</v>
       </c>
       <c r="F77" s="11">
-        <v>6738764</v>
+        <v>8407407</v>
       </c>
       <c r="G77" s="11">
-        <v>8407407</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>57</v>
+        <v>6917275</v>
+      </c>
+      <c r="H77" s="11">
+        <v>6275148</v>
       </c>
       <c r="I77" s="11">
-        <v>6917275</v>
+        <v>5812500</v>
       </c>
       <c r="J77" s="11">
-        <v>6275148</v>
+        <v>5241206</v>
       </c>
       <c r="K77" s="11">
-        <v>5812500</v>
+        <v>5589394</v>
       </c>
       <c r="L77" s="11">
-        <v>5241206</v>
+        <v>4356419</v>
       </c>
       <c r="M77" s="11">
-        <v>5589394</v>
+        <v>4855731</v>
       </c>
       <c r="N77" s="11">
-        <v>4356419</v>
+        <v>5121547</v>
       </c>
       <c r="O77" s="11">
-        <v>4855731</v>
+        <v>3592018</v>
       </c>
       <c r="P77" s="11">
-        <v>5121547</v>
+        <v>2952586</v>
       </c>
       <c r="Q77" s="11">
-        <v>3592018</v>
+        <v>4034483</v>
       </c>
       <c r="R77" s="11">
-        <v>2952586</v>
+        <v>2950125</v>
       </c>
       <c r="S77" s="11">
-        <v>4034483</v>
+        <v>6250000</v>
       </c>
       <c r="T77" s="11">
-        <v>2950125</v>
+        <v>3856436</v>
       </c>
       <c r="U77" s="11">
-        <v>6250000</v>
+        <v>4641638</v>
       </c>
       <c r="V77" s="11">
-        <v>3856436</v>
+        <v>10470120</v>
       </c>
       <c r="W77" s="11">
-        <v>4641638</v>
+        <v>7405000</v>
       </c>
       <c r="X77" s="11">
-        <v>10470120</v>
+        <v>9628099</v>
       </c>
       <c r="Y77" s="11">
-        <v>7405000</v>
+        <v>9363636</v>
       </c>
       <c r="Z77" s="11">
-        <v>9628099</v>
+        <v>10162162</v>
       </c>
       <c r="AA77" s="11">
-        <v>9363636</v>
-      </c>
-      <c r="AB77" s="11">
-        <v>10162162</v>
-      </c>
-      <c r="AC77" s="11">
         <v>10375000</v>
       </c>
+      <c r="AB77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD77" s="11" t="s">
         <v>57</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>58</v>
       </c>
@@ -9905,80 +9905,80 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>50982609</v>
+        <v>53121495</v>
       </c>
       <c r="F78" s="13">
-        <v>53121495</v>
+        <v>90076000</v>
       </c>
       <c r="G78" s="13">
-        <v>90076000</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>57</v>
+        <v>105452297</v>
+      </c>
+      <c r="H78" s="13">
+        <v>97344828</v>
       </c>
       <c r="I78" s="13">
-        <v>105452297</v>
+        <v>77214559</v>
       </c>
       <c r="J78" s="13">
-        <v>97344828</v>
+        <v>92147410</v>
       </c>
       <c r="K78" s="13">
-        <v>77214559</v>
+        <v>97133333</v>
       </c>
       <c r="L78" s="13">
-        <v>92147410</v>
+        <v>87564565</v>
       </c>
       <c r="M78" s="13">
-        <v>97133333</v>
+        <v>100304348</v>
       </c>
       <c r="N78" s="13">
-        <v>87564565</v>
+        <v>105485149</v>
       </c>
       <c r="O78" s="13">
-        <v>100304348</v>
+        <v>94625000</v>
       </c>
       <c r="P78" s="13">
-        <v>105485149</v>
+        <v>112854839</v>
       </c>
       <c r="Q78" s="13">
-        <v>94625000</v>
+        <v>110989324</v>
       </c>
       <c r="R78" s="13">
-        <v>112854839</v>
+        <v>109622047</v>
       </c>
       <c r="S78" s="13">
-        <v>110989324</v>
+        <v>106742718</v>
       </c>
       <c r="T78" s="13">
-        <v>109622047</v>
+        <v>105645914</v>
       </c>
       <c r="U78" s="13">
-        <v>106742718</v>
+        <v>103209677</v>
       </c>
       <c r="V78" s="13">
-        <v>105645914</v>
+        <v>108280632</v>
       </c>
       <c r="W78" s="13">
-        <v>103209677</v>
+        <v>113362745</v>
       </c>
       <c r="X78" s="13">
-        <v>108280632</v>
+        <v>105068063</v>
       </c>
       <c r="Y78" s="13">
-        <v>113362745</v>
+        <v>115210884</v>
       </c>
       <c r="Z78" s="13">
-        <v>105068063</v>
+        <v>127170732</v>
       </c>
       <c r="AA78" s="13">
-        <v>115210884</v>
-      </c>
-      <c r="AB78" s="13">
-        <v>127170732</v>
-      </c>
-      <c r="AC78" s="13">
         <v>132784211</v>
       </c>
+      <c r="AB78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD78" s="13" t="s">
         <v>57</v>
       </c>
@@ -9994,27 +9994,27 @@
       <c r="AH78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ78" s="13" t="s">
-        <v>57</v>
+      <c r="AI78" s="13">
+        <v>245476190</v>
+      </c>
+      <c r="AJ78" s="13">
+        <v>298608696</v>
       </c>
       <c r="AK78" s="13">
-        <v>245476190</v>
+        <v>336333333</v>
       </c>
       <c r="AL78" s="13">
-        <v>298608696</v>
+        <v>349119048</v>
       </c>
       <c r="AM78" s="13">
-        <v>336333333</v>
-      </c>
-      <c r="AN78" s="13">
-        <v>349119048</v>
-      </c>
-      <c r="AO78" s="13">
         <v>383520833</v>
       </c>
+      <c r="AN78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AP78" s="13" t="s">
         <v>57</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>59</v>
       </c>
@@ -10064,80 +10064,80 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>5055237</v>
+        <v>5613230</v>
       </c>
       <c r="F79" s="11">
-        <v>5613230</v>
+        <v>5986236</v>
       </c>
       <c r="G79" s="11">
-        <v>5986236</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>57</v>
+        <v>5935357</v>
+      </c>
+      <c r="H79" s="11">
+        <v>5895901</v>
       </c>
       <c r="I79" s="11">
-        <v>5935357</v>
+        <v>5900579</v>
       </c>
       <c r="J79" s="11">
-        <v>5895901</v>
+        <v>5933300</v>
       </c>
       <c r="K79" s="11">
-        <v>5900579</v>
+        <v>5769318</v>
       </c>
       <c r="L79" s="11">
-        <v>5933300</v>
+        <v>6001965</v>
       </c>
       <c r="M79" s="11">
-        <v>5769318</v>
+        <v>6015432</v>
       </c>
       <c r="N79" s="11">
-        <v>6001965</v>
+        <v>5986412</v>
       </c>
       <c r="O79" s="11">
-        <v>6015432</v>
+        <v>5908721</v>
       </c>
       <c r="P79" s="11">
-        <v>5986412</v>
+        <v>5970215</v>
       </c>
       <c r="Q79" s="11">
-        <v>5908721</v>
+        <v>6174028</v>
       </c>
       <c r="R79" s="11">
-        <v>5970215</v>
+        <v>6133851</v>
       </c>
       <c r="S79" s="11">
-        <v>6174028</v>
+        <v>6115527</v>
       </c>
       <c r="T79" s="11">
-        <v>6133851</v>
+        <v>6184131</v>
       </c>
       <c r="U79" s="11">
-        <v>6115527</v>
+        <v>6223690</v>
       </c>
       <c r="V79" s="11">
-        <v>6184131</v>
+        <v>6465287</v>
       </c>
       <c r="W79" s="11">
-        <v>6223690</v>
+        <v>6789797</v>
       </c>
       <c r="X79" s="11">
-        <v>6465287</v>
+        <v>6612039</v>
       </c>
       <c r="Y79" s="11">
-        <v>6789797</v>
+        <v>6874023</v>
       </c>
       <c r="Z79" s="11">
-        <v>6612039</v>
+        <v>7148533</v>
       </c>
       <c r="AA79" s="11">
-        <v>6874023</v>
-      </c>
-      <c r="AB79" s="11">
-        <v>7148533</v>
-      </c>
-      <c r="AC79" s="11">
         <v>7004873</v>
       </c>
+      <c r="AB79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD79" s="11" t="s">
         <v>57</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
@@ -10223,80 +10223,80 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>1114699</v>
+        <v>991660</v>
       </c>
       <c r="F80" s="13">
-        <v>991660</v>
+        <v>1045072</v>
       </c>
       <c r="G80" s="13">
-        <v>1045072</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>57</v>
+        <v>1520170</v>
+      </c>
+      <c r="H80" s="13">
+        <v>820502</v>
       </c>
       <c r="I80" s="13">
-        <v>1520170</v>
+        <v>751640</v>
       </c>
       <c r="J80" s="13">
-        <v>820502</v>
+        <v>813187</v>
       </c>
       <c r="K80" s="13">
-        <v>751640</v>
+        <v>794032</v>
       </c>
       <c r="L80" s="13">
-        <v>813187</v>
+        <v>763985</v>
       </c>
       <c r="M80" s="13">
-        <v>794032</v>
+        <v>987374</v>
       </c>
       <c r="N80" s="13">
-        <v>763985</v>
+        <v>1971556</v>
       </c>
       <c r="O80" s="13">
-        <v>987374</v>
+        <v>1894166</v>
       </c>
       <c r="P80" s="13">
-        <v>1971556</v>
+        <v>1727325</v>
       </c>
       <c r="Q80" s="13">
-        <v>1894166</v>
+        <v>1562189</v>
       </c>
       <c r="R80" s="13">
-        <v>1727325</v>
+        <v>1346371</v>
       </c>
       <c r="S80" s="13">
-        <v>1562189</v>
+        <v>1365138</v>
       </c>
       <c r="T80" s="13">
-        <v>1346371</v>
+        <v>1287969</v>
       </c>
       <c r="U80" s="13">
-        <v>1365138</v>
+        <v>1271986</v>
       </c>
       <c r="V80" s="13">
-        <v>1287969</v>
+        <v>1435874</v>
       </c>
       <c r="W80" s="13">
-        <v>1271986</v>
+        <v>858462</v>
       </c>
       <c r="X80" s="13">
-        <v>1435874</v>
+        <v>1020021</v>
       </c>
       <c r="Y80" s="13">
-        <v>858462</v>
+        <v>1168314</v>
       </c>
       <c r="Z80" s="13">
-        <v>1020021</v>
+        <v>1236195</v>
       </c>
       <c r="AA80" s="13">
-        <v>1168314</v>
-      </c>
-      <c r="AB80" s="13">
-        <v>1236195</v>
-      </c>
-      <c r="AC80" s="13">
         <v>2004351</v>
       </c>
+      <c r="AB80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD80" s="13" t="s">
         <v>57</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
@@ -10382,80 +10382,80 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>35410830</v>
+        <v>32195209</v>
       </c>
       <c r="F81" s="11">
-        <v>32195209</v>
+        <v>33799730</v>
       </c>
       <c r="G81" s="11">
-        <v>33799730</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>57</v>
+        <v>28119097</v>
+      </c>
+      <c r="H81" s="11">
+        <v>29960604</v>
       </c>
       <c r="I81" s="11">
-        <v>28119097</v>
+        <v>35247616</v>
       </c>
       <c r="J81" s="11">
-        <v>29960604</v>
+        <v>33931526</v>
       </c>
       <c r="K81" s="11">
-        <v>35247616</v>
+        <v>40432258</v>
       </c>
       <c r="L81" s="11">
-        <v>33931526</v>
+        <v>39216359</v>
       </c>
       <c r="M81" s="11">
-        <v>40432258</v>
+        <v>36160160</v>
       </c>
       <c r="N81" s="11">
-        <v>39216359</v>
+        <v>33084526</v>
       </c>
       <c r="O81" s="11">
-        <v>36160160</v>
+        <v>29522571</v>
       </c>
       <c r="P81" s="11">
-        <v>33084526</v>
+        <v>29756494</v>
       </c>
       <c r="Q81" s="11">
-        <v>29522571</v>
+        <v>29970485</v>
       </c>
       <c r="R81" s="11">
-        <v>29756494</v>
+        <v>28582097</v>
       </c>
       <c r="S81" s="11">
-        <v>29970485</v>
+        <v>30021566</v>
       </c>
       <c r="T81" s="11">
-        <v>28582097</v>
+        <v>33647595</v>
       </c>
       <c r="U81" s="11">
-        <v>30021566</v>
+        <v>33101226</v>
       </c>
       <c r="V81" s="11">
-        <v>33647595</v>
+        <v>38811722</v>
       </c>
       <c r="W81" s="11">
-        <v>33101226</v>
+        <v>32614662</v>
       </c>
       <c r="X81" s="11">
-        <v>38811722</v>
+        <v>32681356</v>
       </c>
       <c r="Y81" s="11">
-        <v>32614662</v>
+        <v>34477749</v>
       </c>
       <c r="Z81" s="11">
-        <v>32681356</v>
+        <v>41021294</v>
       </c>
       <c r="AA81" s="11">
-        <v>34477749</v>
-      </c>
-      <c r="AB81" s="11">
-        <v>41021294</v>
-      </c>
-      <c r="AC81" s="11">
         <v>46798722</v>
       </c>
+      <c r="AB81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD81" s="11" t="s">
         <v>57</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>62</v>
       </c>
@@ -10541,80 +10541,80 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
-        <v>29973319</v>
+        <v>33609475</v>
       </c>
       <c r="F82" s="13">
-        <v>33609475</v>
+        <v>35835526</v>
       </c>
       <c r="G82" s="13">
-        <v>35835526</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>57</v>
+        <v>35401947</v>
+      </c>
+      <c r="H82" s="13">
+        <v>35893048</v>
       </c>
       <c r="I82" s="13">
-        <v>35401947</v>
+        <v>35919872</v>
       </c>
       <c r="J82" s="13">
-        <v>35893048</v>
+        <v>25407731</v>
       </c>
       <c r="K82" s="13">
-        <v>35919872</v>
+        <v>41176287</v>
       </c>
       <c r="L82" s="13">
-        <v>25407731</v>
+        <v>34250263</v>
       </c>
       <c r="M82" s="13">
-        <v>41176287</v>
+        <v>47259098</v>
       </c>
       <c r="N82" s="13">
-        <v>34250263</v>
+        <v>44893692</v>
       </c>
       <c r="O82" s="13">
-        <v>47259098</v>
+        <v>38283784</v>
       </c>
       <c r="P82" s="13">
-        <v>44893692</v>
+        <v>38045708</v>
       </c>
       <c r="Q82" s="13">
-        <v>38283784</v>
+        <v>38046875</v>
       </c>
       <c r="R82" s="13">
-        <v>38045708</v>
+        <v>49282353</v>
       </c>
       <c r="S82" s="13">
-        <v>38046875</v>
+        <v>27866667</v>
       </c>
       <c r="T82" s="13">
-        <v>49282353</v>
+        <v>36895725</v>
       </c>
       <c r="U82" s="13">
-        <v>27866667</v>
+        <v>45858650</v>
       </c>
       <c r="V82" s="13">
-        <v>36895725</v>
+        <v>40950348</v>
       </c>
       <c r="W82" s="13">
-        <v>45858650</v>
+        <v>46394826</v>
       </c>
       <c r="X82" s="13">
-        <v>40950348</v>
+        <v>50501535</v>
       </c>
       <c r="Y82" s="13">
-        <v>46394826</v>
+        <v>48618321</v>
       </c>
       <c r="Z82" s="13">
-        <v>50501535</v>
+        <v>58988764</v>
       </c>
       <c r="AA82" s="13">
-        <v>48618321</v>
-      </c>
-      <c r="AB82" s="13">
-        <v>58988764</v>
-      </c>
-      <c r="AC82" s="13">
         <v>41442568</v>
       </c>
+      <c r="AB82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD82" s="13" t="s">
         <v>57</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>63</v>
       </c>
@@ -10717,11 +10717,11 @@
       <c r="J83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L83" s="11" t="s">
-        <v>57</v>
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11">
+        <v>0</v>
       </c>
       <c r="M83" s="11">
         <v>0</v>
@@ -10732,17 +10732,17 @@
       <c r="O83" s="11">
         <v>0</v>
       </c>
-      <c r="P83" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="11">
-        <v>0</v>
-      </c>
-      <c r="R83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S83" s="11" t="s">
-        <v>57</v>
+      <c r="P83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R83" s="11">
+        <v>0</v>
+      </c>
+      <c r="S83" s="11">
+        <v>0</v>
       </c>
       <c r="T83" s="11">
         <v>0</v>
@@ -10765,11 +10765,11 @@
       <c r="Z83" s="11">
         <v>0</v>
       </c>
-      <c r="AA83" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="11">
-        <v>0</v>
+      <c r="AA83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AC83" s="11" t="s">
         <v>57</v>
@@ -10850,7 +10850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>65</v>
       </c>
@@ -10927,89 +10927,89 @@
       <c r="AA84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC84" s="13" t="s">
-        <v>57</v>
+      <c r="AB84" s="13">
+        <v>30779558</v>
+      </c>
+      <c r="AC84" s="13">
+        <v>15260151</v>
       </c>
       <c r="AD84" s="13">
-        <v>30779558</v>
+        <v>16212342</v>
       </c>
       <c r="AE84" s="13">
-        <v>15260151</v>
+        <v>14293000</v>
       </c>
       <c r="AF84" s="13">
-        <v>16212342</v>
+        <v>14544690</v>
       </c>
       <c r="AG84" s="13">
-        <v>14293000</v>
+        <v>11891423</v>
       </c>
       <c r="AH84" s="13">
-        <v>14544690</v>
+        <v>11592399</v>
       </c>
       <c r="AI84" s="13">
-        <v>11891423</v>
+        <v>14757698</v>
       </c>
       <c r="AJ84" s="13">
-        <v>11592399</v>
+        <v>14859341</v>
       </c>
       <c r="AK84" s="13">
-        <v>14757698</v>
+        <v>14878891</v>
       </c>
       <c r="AL84" s="13">
-        <v>14859341</v>
+        <v>16303376</v>
       </c>
       <c r="AM84" s="13">
-        <v>14878891</v>
+        <v>16571381</v>
       </c>
       <c r="AN84" s="13">
-        <v>16303376</v>
+        <v>14956575</v>
       </c>
       <c r="AO84" s="13">
-        <v>16571381</v>
+        <v>14407689</v>
       </c>
       <c r="AP84" s="13">
-        <v>14956575</v>
+        <v>12574406</v>
       </c>
       <c r="AQ84" s="13">
-        <v>14407689</v>
+        <v>10738115</v>
       </c>
       <c r="AR84" s="13">
-        <v>12574406</v>
+        <v>13800594</v>
       </c>
       <c r="AS84" s="13">
-        <v>11482610</v>
+        <v>16021597</v>
       </c>
       <c r="AT84" s="13">
-        <v>13800594</v>
+        <v>17426542</v>
       </c>
       <c r="AU84" s="13">
-        <v>16021597</v>
+        <v>17653885</v>
       </c>
       <c r="AV84" s="13">
-        <v>17426542</v>
+        <v>19698870</v>
       </c>
       <c r="AW84" s="13">
-        <v>17653885</v>
+        <v>20387403</v>
       </c>
       <c r="AX84" s="13">
-        <v>19698870</v>
+        <v>28350827</v>
       </c>
       <c r="AY84" s="13">
-        <v>20387403</v>
+        <v>31828188</v>
       </c>
       <c r="AZ84" s="13">
-        <v>28350827</v>
+        <v>30087320</v>
       </c>
       <c r="BA84" s="13">
-        <v>31828188</v>
+        <v>31056068</v>
       </c>
       <c r="BB84" s="13">
-        <v>30087320</v>
+        <v>28118221</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>66</v>
       </c>
@@ -11086,89 +11086,89 @@
       <c r="AA85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC85" s="11" t="s">
-        <v>57</v>
+      <c r="AB85" s="11">
+        <v>40680880</v>
+      </c>
+      <c r="AC85" s="11">
+        <v>47165546</v>
       </c>
       <c r="AD85" s="11">
-        <v>40680880</v>
+        <v>47132691</v>
       </c>
       <c r="AE85" s="11">
-        <v>47165546</v>
+        <v>47114048</v>
       </c>
       <c r="AF85" s="11">
-        <v>47132691</v>
+        <v>46076449</v>
       </c>
       <c r="AG85" s="11">
-        <v>47114048</v>
+        <v>56042434</v>
       </c>
       <c r="AH85" s="11">
-        <v>46076449</v>
+        <v>56155335</v>
       </c>
       <c r="AI85" s="11">
-        <v>56042434</v>
+        <v>59927146</v>
       </c>
       <c r="AJ85" s="11">
-        <v>56155335</v>
+        <v>67040343</v>
       </c>
       <c r="AK85" s="11">
-        <v>59927146</v>
+        <v>70347254</v>
       </c>
       <c r="AL85" s="11">
-        <v>67040343</v>
+        <v>94270677</v>
       </c>
       <c r="AM85" s="11">
-        <v>70347254</v>
+        <v>157923626</v>
       </c>
       <c r="AN85" s="11">
-        <v>94270677</v>
+        <v>141152422</v>
       </c>
       <c r="AO85" s="11">
-        <v>157923626</v>
+        <v>138676806</v>
       </c>
       <c r="AP85" s="11">
-        <v>141152422</v>
+        <v>221724194</v>
       </c>
       <c r="AQ85" s="11">
-        <v>138676806</v>
+        <v>203178789</v>
       </c>
       <c r="AR85" s="11">
-        <v>221724194</v>
+        <v>207149055</v>
       </c>
       <c r="AS85" s="11">
-        <v>203178789</v>
+        <v>196841195</v>
       </c>
       <c r="AT85" s="11">
-        <v>207149055</v>
+        <v>172989234</v>
       </c>
       <c r="AU85" s="11">
-        <v>196841195</v>
+        <v>150567439</v>
       </c>
       <c r="AV85" s="11">
-        <v>172989234</v>
+        <v>140833213</v>
       </c>
       <c r="AW85" s="11">
-        <v>150567439</v>
+        <v>141091439</v>
       </c>
       <c r="AX85" s="11">
-        <v>140833213</v>
+        <v>177459139</v>
       </c>
       <c r="AY85" s="11">
-        <v>141091439</v>
+        <v>199198153</v>
       </c>
       <c r="AZ85" s="11">
-        <v>177459139</v>
+        <v>218467179</v>
       </c>
       <c r="BA85" s="11">
-        <v>199198153</v>
+        <v>205734955</v>
       </c>
       <c r="BB85" s="11">
-        <v>218467179</v>
+        <v>174255054</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>67</v>
       </c>
@@ -11245,89 +11245,89 @@
       <c r="AA86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC86" s="13" t="s">
-        <v>57</v>
+      <c r="AB86" s="13">
+        <v>158677054</v>
+      </c>
+      <c r="AC86" s="13">
+        <v>179783172</v>
       </c>
       <c r="AD86" s="13">
-        <v>158677054</v>
+        <v>176321678</v>
       </c>
       <c r="AE86" s="13">
-        <v>179783172</v>
+        <v>198713826</v>
       </c>
       <c r="AF86" s="13">
-        <v>176321678</v>
+        <v>302290850</v>
       </c>
       <c r="AG86" s="13">
-        <v>198713826</v>
+        <v>363477032</v>
       </c>
       <c r="AH86" s="13">
-        <v>302290850</v>
+        <v>335000000</v>
       </c>
       <c r="AI86" s="13">
-        <v>363477032</v>
+        <v>293500000</v>
       </c>
       <c r="AJ86" s="13">
-        <v>335000000</v>
+        <v>350231003</v>
       </c>
       <c r="AK86" s="13">
-        <v>293500000</v>
+        <v>321179191</v>
       </c>
       <c r="AL86" s="13">
-        <v>350231003</v>
+        <v>292079365</v>
       </c>
       <c r="AM86" s="13">
-        <v>321179191</v>
+        <v>349982206</v>
       </c>
       <c r="AN86" s="13">
-        <v>292079365</v>
+        <v>410441379</v>
       </c>
       <c r="AO86" s="13">
-        <v>349982206</v>
+        <v>454370370</v>
       </c>
       <c r="AP86" s="13">
-        <v>410441379</v>
+        <v>385547264</v>
       </c>
       <c r="AQ86" s="13">
-        <v>454370370</v>
+        <v>345069252</v>
       </c>
       <c r="AR86" s="13">
-        <v>385547264</v>
+        <v>336882353</v>
       </c>
       <c r="AS86" s="13">
-        <v>345069252</v>
+        <v>327674944</v>
       </c>
       <c r="AT86" s="13">
-        <v>336882353</v>
+        <v>346433925</v>
       </c>
       <c r="AU86" s="13">
-        <v>327674944</v>
+        <v>428200000</v>
       </c>
       <c r="AV86" s="13">
-        <v>346433925</v>
+        <v>376997167</v>
       </c>
       <c r="AW86" s="13">
-        <v>428200000</v>
+        <v>359096970</v>
       </c>
       <c r="AX86" s="13">
-        <v>376997167</v>
+        <v>343447099</v>
       </c>
       <c r="AY86" s="13">
-        <v>359096970</v>
+        <v>341536885</v>
       </c>
       <c r="AZ86" s="13">
-        <v>343447099</v>
+        <v>365510791</v>
       </c>
       <c r="BA86" s="13">
-        <v>341536885</v>
+        <v>330915541</v>
       </c>
       <c r="BB86" s="13">
-        <v>365510791</v>
+        <v>333990625</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>84</v>
       </c>
@@ -11384,7 +11384,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>63</v>
       </c>
@@ -11461,20 +11461,20 @@
       <c r="AA88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB88" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC88" s="11" t="s">
-        <v>57</v>
+      <c r="AB88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="11">
+        <v>0</v>
       </c>
       <c r="AD88" s="11">
         <v>0</v>
       </c>
-      <c r="AE88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF88" s="11">
-        <v>0</v>
+      <c r="AE88" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF88" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG88" s="11" t="s">
         <v>57</v>

--- a/database/industries/methanol/shekolor/product/monthly.xlsx
+++ b/database/industries/methanol/shekolor/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="86">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/08</t>
+      <t xml:space="preserve">1397/09</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/09</t>
+      <t xml:space="preserve">1397/10</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/10</t>
+      <t xml:space="preserve">1397/11</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3397,70 +3397,70 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>261</v>
+        <v>636</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>742</v>
+        <v>390</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>390</v>
+        <v>651</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>642</v>
+        <v>285</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>195</v>
+        <v>575</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>575</v>
+        <v>206</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="12" t="n">
         <v>62</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA11" s="13" t="s">
         <v>57</v>
@@ -3556,71 +3556,71 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G12" s="15" t="n">
+        <v>264</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>250</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>267</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>231</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>239</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>186</v>
+      </c>
+      <c r="M12" s="15" t="n">
         <v>259</v>
       </c>
-      <c r="H12" s="15" t="n">
-        <v>264</v>
-      </c>
-      <c r="I12" s="15" t="n">
-        <v>250</v>
-      </c>
-      <c r="J12" s="15" t="n">
+      <c r="N12" s="15" t="n">
         <v>267</v>
       </c>
-      <c r="K12" s="15" t="n">
-        <v>231</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>239</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>186</v>
-      </c>
-      <c r="N12" s="15" t="n">
-        <v>259</v>
-      </c>
       <c r="O12" s="15" t="n">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="15" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="R12" s="15" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="S12" s="15" t="n">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="T12" s="15" t="n">
         <v>324</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>356</v>
-      </c>
-      <c r="Z12" s="15" t="n">
         <v>318</v>
       </c>
+      <c r="Z12" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AA12" s="16" t="s">
         <v>57</v>
       </c>
@@ -3639,8 +3639,8 @@
       <c r="AF12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AG12" s="16" t="s">
-        <v>57</v>
+      <c r="AG12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AH12" s="16" t="n">
         <v>0</v>
@@ -3654,8 +3654,8 @@
       <c r="AK12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" s="16" t="n">
-        <v>0</v>
+      <c r="AL12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AM12" s="16" t="s">
         <v>57</v>
@@ -3715,70 +3715,70 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>1949</v>
+        <v>1745</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>1745</v>
+        <v>1876</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>1876</v>
+        <v>2033</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>2033</v>
+        <v>2056</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>2056</v>
+        <v>1714</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>1714</v>
+        <v>2054</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>2054</v>
+        <v>1981</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>1981</v>
+        <v>1962</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>1962</v>
+        <v>2228</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2228</v>
+        <v>2091</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>2091</v>
+        <v>2324</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>2324</v>
+        <v>2170</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>2170</v>
+        <v>2235</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>2235</v>
+        <v>2289</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>2289</v>
+        <v>2252</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>2252</v>
+        <v>2237</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>2237</v>
+        <v>2248</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>2248</v>
+        <v>2339</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>2339</v>
+        <v>2236</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>2236</v>
+        <v>2286</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>2286</v>
-      </c>
-      <c r="Z13" s="13" t="n">
         <v>1177</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA13" s="13" t="s">
         <v>57</v>
@@ -3874,70 +3874,70 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>1644</v>
+        <v>1934</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>1934</v>
+        <v>2210</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>2210</v>
+        <v>2326</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>2326</v>
+        <v>2484</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>2484</v>
+        <v>2175</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>2175</v>
+        <v>2414</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>2414</v>
+        <v>2932</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>2932</v>
+        <v>1837</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>1837</v>
+        <v>1651</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>1656</v>
+        <v>2240</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>2240</v>
+        <v>2279</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>2279</v>
+        <v>2208</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>2208</v>
+        <v>2338</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>2338</v>
+        <v>2287</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>2287</v>
+        <v>2155</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>2155</v>
+        <v>2380</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>2380</v>
+        <v>2731</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>2731</v>
+        <v>2969</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>2969</v>
+        <v>3272</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>3272</v>
-      </c>
-      <c r="Z14" s="16" t="n">
         <v>1301</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>57</v>
@@ -4033,70 +4033,70 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
-        <v>2214</v>
+        <v>2652</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>2652</v>
+        <v>2557</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>2557</v>
+        <v>2077</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>2077</v>
+        <v>2387</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>2387</v>
+        <v>2409</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>2409</v>
+        <v>2391</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>2391</v>
+        <v>2270</v>
       </c>
       <c r="L15" s="13" t="n">
-        <v>2270</v>
+        <v>2115</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>2115</v>
+        <v>2507</v>
       </c>
       <c r="N15" s="13" t="n">
-        <v>2507</v>
+        <v>1692</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>1692</v>
+        <v>2161</v>
       </c>
       <c r="P15" s="13" t="n">
-        <v>2161</v>
+        <v>2232</v>
       </c>
       <c r="Q15" s="13" t="n">
-        <v>2232</v>
+        <v>2560</v>
       </c>
       <c r="R15" s="13" t="n">
-        <v>2560</v>
+        <v>2698</v>
       </c>
       <c r="S15" s="13" t="n">
-        <v>2698</v>
+        <v>2492</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>2492</v>
+        <v>2388</v>
       </c>
       <c r="U15" s="13" t="n">
-        <v>2388</v>
+        <v>2590</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>2590</v>
+        <v>2799</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>2799</v>
+        <v>2588</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>2588</v>
+        <v>2558</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>2558</v>
-      </c>
-      <c r="Z15" s="13" t="n">
         <v>1800</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>57</v>
@@ -4192,70 +4192,70 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>759</v>
+        <v>720</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>742</v>
+        <v>638</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>638</v>
+        <v>1203</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>1203</v>
+        <v>535</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>535</v>
+        <v>685</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>733</v>
+        <v>817</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>817</v>
+        <v>886</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>895</v>
+        <v>761</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="R16" s="16" t="n">
-        <v>854</v>
+        <v>974</v>
       </c>
       <c r="S16" s="16" t="n">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="T16" s="16" t="n">
-        <v>944</v>
+        <v>1009</v>
       </c>
       <c r="U16" s="16" t="n">
-        <v>1009</v>
+        <v>917</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>917</v>
+        <v>997</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>997</v>
+        <v>1041</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>1041</v>
+        <v>992</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>992</v>
-      </c>
-      <c r="Z16" s="16" t="n">
         <v>787</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA16" s="16" t="s">
         <v>57</v>
@@ -4362,8 +4362,8 @@
       <c r="H17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>57</v>
+      <c r="I17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J17" s="13" t="n">
         <v>0</v>
@@ -4377,14 +4377,14 @@
       <c r="M17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="13" t="n">
-        <v>0</v>
+      <c r="N17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="13" t="s">
-        <v>57</v>
+      <c r="P17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q17" s="13" t="n">
         <v>0</v>
@@ -4410,8 +4410,8 @@
       <c r="X17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y17" s="13" t="n">
-        <v>0</v>
+      <c r="Y17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z17" s="13" t="s">
         <v>57</v>
@@ -4572,92 +4572,92 @@
       <c r="Y18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z18" s="16" t="s">
-        <v>57</v>
+      <c r="Z18" s="16" t="n">
+        <v>3648</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>3648</v>
+        <v>5661</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>5661</v>
+        <v>5688</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>5688</v>
+        <v>5703</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>5703</v>
+        <v>6361</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>6361</v>
+        <v>6370</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>6370</v>
+        <v>6198</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>6198</v>
+        <v>6100</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>6100</v>
+        <v>5856</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>5856</v>
+        <v>6136</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>6136</v>
+        <v>6013</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>6013</v>
+        <v>5941</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>5941</v>
+        <v>6685</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>6685</v>
+        <v>6418</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>6418</v>
+        <v>7173</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>7173</v>
+        <v>8022</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>8022</v>
+        <v>7227</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>7227</v>
+        <v>7333</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>7333</v>
+        <v>7123</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>7123</v>
+        <v>7008</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>7008</v>
+        <v>7462</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>7462</v>
+        <v>7270</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>7270</v>
+        <v>6945</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>6945</v>
+        <v>6397</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>6397</v>
+        <v>6489</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>6489</v>
+        <v>6808</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>6808</v>
+        <v>5995</v>
       </c>
       <c r="BA18" s="16" t="n">
         <v>5995</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>5995</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,92 +4731,92 @@
       <c r="Y19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z19" s="13" t="s">
-        <v>57</v>
+      <c r="Z19" s="13" t="n">
+        <v>2119</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>2119</v>
+        <v>2729</v>
       </c>
       <c r="AB19" s="13" t="n">
-        <v>2729</v>
+        <v>2841</v>
       </c>
       <c r="AC19" s="13" t="n">
+        <v>2453</v>
+      </c>
+      <c r="AD19" s="13" t="n">
+        <v>2745</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>5481</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>2714</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>3308</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>864</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
         <v>2841</v>
       </c>
-      <c r="AD19" s="13" t="n">
-        <v>2453</v>
-      </c>
-      <c r="AE19" s="13" t="n">
-        <v>2745</v>
-      </c>
-      <c r="AF19" s="13" t="n">
-        <v>5481</v>
-      </c>
-      <c r="AG19" s="13" t="n">
-        <v>2714</v>
-      </c>
-      <c r="AH19" s="13" t="n">
-        <v>3308</v>
-      </c>
-      <c r="AI19" s="13" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AJ19" s="13" t="n">
-        <v>864</v>
-      </c>
       <c r="AK19" s="13" t="n">
-        <v>2841</v>
+        <v>2537</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>2536</v>
+        <v>1734</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>1734</v>
+        <v>2279</v>
       </c>
       <c r="AO19" s="13" t="n">
-        <v>2279</v>
+        <v>2600</v>
       </c>
       <c r="AP19" s="13" t="n">
-        <v>2600</v>
+        <v>3557</v>
       </c>
       <c r="AQ19" s="13" t="n">
-        <v>3557</v>
+        <v>2701</v>
       </c>
       <c r="AR19" s="13" t="n">
-        <v>2701</v>
+        <v>2630</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>2630</v>
+        <v>2271</v>
       </c>
       <c r="AT19" s="13" t="n">
-        <v>2271</v>
+        <v>2733</v>
       </c>
       <c r="AU19" s="13" t="n">
-        <v>2733</v>
+        <v>2843</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>2843</v>
+        <v>2707</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>2707</v>
+        <v>2552</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>2552</v>
+        <v>2594</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>2594</v>
+        <v>2261</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>2261</v>
+        <v>2444</v>
       </c>
       <c r="BA19" s="13" t="n">
         <v>2444</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>2444</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4890,92 +4890,92 @@
       <c r="Y20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z20" s="16" t="s">
-        <v>57</v>
+      <c r="Z20" s="16" t="n">
+        <v>344</v>
       </c>
       <c r="AA20" s="16" t="n">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AB20" s="16" t="n">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="AC20" s="16" t="n">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="AD20" s="16" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AE20" s="16" t="n">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="AF20" s="16" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="AH20" s="16" t="n">
+        <v>288</v>
+      </c>
+      <c r="AI20" s="16" t="n">
+        <v>304</v>
+      </c>
+      <c r="AJ20" s="16" t="n">
+        <v>317</v>
+      </c>
+      <c r="AK20" s="16" t="n">
+        <v>284</v>
+      </c>
+      <c r="AL20" s="16" t="n">
+        <v>339</v>
+      </c>
+      <c r="AM20" s="16" t="n">
+        <v>169</v>
+      </c>
+      <c r="AN20" s="16" t="n">
+        <v>289</v>
+      </c>
+      <c r="AO20" s="16" t="n">
+        <v>441</v>
+      </c>
+      <c r="AP20" s="16" t="n">
         <v>291</v>
       </c>
-      <c r="AI20" s="16" t="n">
-        <v>288</v>
-      </c>
-      <c r="AJ20" s="16" t="n">
-        <v>304</v>
-      </c>
-      <c r="AK20" s="16" t="n">
-        <v>317</v>
-      </c>
-      <c r="AL20" s="16" t="n">
-        <v>284</v>
-      </c>
-      <c r="AM20" s="16" t="n">
-        <v>339</v>
-      </c>
-      <c r="AN20" s="16" t="n">
-        <v>169</v>
-      </c>
-      <c r="AO20" s="16" t="n">
-        <v>289</v>
-      </c>
-      <c r="AP20" s="16" t="n">
-        <v>441</v>
-      </c>
       <c r="AQ20" s="16" t="n">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="AU20" s="16" t="n">
+        <v>347</v>
+      </c>
+      <c r="AV20" s="16" t="n">
+        <v>350</v>
+      </c>
+      <c r="AW20" s="16" t="n">
+        <v>371</v>
+      </c>
+      <c r="AX20" s="16" t="n">
         <v>355</v>
       </c>
-      <c r="AV20" s="16" t="n">
-        <v>347</v>
-      </c>
-      <c r="AW20" s="16" t="n">
-        <v>350</v>
-      </c>
-      <c r="AX20" s="16" t="n">
-        <v>371</v>
-      </c>
       <c r="AY20" s="16" t="n">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="BA20" s="16" t="n">
         <v>336</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>336</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,8 +5106,8 @@
       <c r="Y22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z22" s="13" t="s">
-        <v>57</v>
+      <c r="Z22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA22" s="13" t="n">
         <v>0</v>
@@ -5115,8 +5115,8 @@
       <c r="AB22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC22" s="13" t="n">
-        <v>0</v>
+      <c r="AC22" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD22" s="13" t="s">
         <v>57</v>
@@ -5263,8 +5263,8 @@
       <c r="Y23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Z23" s="19" t="s">
-        <v>57</v>
+      <c r="Z23" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="AA23" s="19" t="n">
         <v>0</v>
@@ -5358,154 +5358,154 @@
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="n">
-        <v>7120</v>
+        <v>7544</v>
       </c>
       <c r="F24" s="21" t="n">
-        <v>7544</v>
+        <v>7867</v>
       </c>
       <c r="G24" s="21" t="n">
-        <v>7867</v>
+        <v>7599</v>
       </c>
       <c r="H24" s="21" t="n">
-        <v>7599</v>
+        <v>9016</v>
       </c>
       <c r="I24" s="21" t="n">
-        <v>9016</v>
+        <v>7810</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>7810</v>
+        <v>8517</v>
       </c>
       <c r="K24" s="21" t="n">
-        <v>8517</v>
+        <v>8545</v>
       </c>
       <c r="L24" s="21" t="n">
-        <v>8545</v>
+        <v>7568</v>
       </c>
       <c r="M24" s="21" t="n">
-        <v>7568</v>
+        <v>8173</v>
       </c>
       <c r="N24" s="21" t="n">
-        <v>8173</v>
+        <v>6891</v>
       </c>
       <c r="O24" s="21" t="n">
-        <v>6891</v>
+        <v>8195</v>
       </c>
       <c r="P24" s="21" t="n">
-        <v>8195</v>
+        <v>7977</v>
       </c>
       <c r="Q24" s="21" t="n">
-        <v>7977</v>
+        <v>8332</v>
       </c>
       <c r="R24" s="21" t="n">
-        <v>8332</v>
+        <v>9170</v>
       </c>
       <c r="S24" s="21" t="n">
-        <v>9170</v>
+        <v>8505</v>
       </c>
       <c r="T24" s="21" t="n">
-        <v>8505</v>
+        <v>8451</v>
       </c>
       <c r="U24" s="21" t="n">
-        <v>8451</v>
+        <v>8853</v>
       </c>
       <c r="V24" s="21" t="n">
-        <v>8853</v>
+        <v>9451</v>
       </c>
       <c r="W24" s="21" t="n">
-        <v>9451</v>
+        <v>9380</v>
       </c>
       <c r="X24" s="21" t="n">
-        <v>9380</v>
+        <v>9529</v>
       </c>
       <c r="Y24" s="21" t="n">
-        <v>9529</v>
+        <v>5445</v>
       </c>
       <c r="Z24" s="21" t="n">
-        <v>5445</v>
+        <v>6111</v>
       </c>
       <c r="AA24" s="21" t="n">
-        <v>6111</v>
+        <v>8695</v>
       </c>
       <c r="AB24" s="21" t="n">
-        <v>8695</v>
+        <v>8752</v>
       </c>
       <c r="AC24" s="21" t="n">
-        <v>8752</v>
+        <v>8439</v>
       </c>
       <c r="AD24" s="21" t="n">
-        <v>8439</v>
+        <v>9402</v>
       </c>
       <c r="AE24" s="21" t="n">
-        <v>9402</v>
+        <v>12092</v>
       </c>
       <c r="AF24" s="21" t="n">
-        <v>12092</v>
+        <v>9140</v>
       </c>
       <c r="AG24" s="21" t="n">
-        <v>9140</v>
+        <v>9699</v>
       </c>
       <c r="AH24" s="21" t="n">
-        <v>9699</v>
+        <v>7394</v>
       </c>
       <c r="AI24" s="21" t="n">
-        <v>7394</v>
+        <v>7304</v>
       </c>
       <c r="AJ24" s="21" t="n">
-        <v>7304</v>
+        <v>9171</v>
       </c>
       <c r="AK24" s="21" t="n">
-        <v>9171</v>
+        <v>8762</v>
       </c>
       <c r="AL24" s="21" t="n">
-        <v>8762</v>
+        <v>9560</v>
       </c>
       <c r="AM24" s="21" t="n">
-        <v>9560</v>
+        <v>8321</v>
       </c>
       <c r="AN24" s="21" t="n">
-        <v>8321</v>
+        <v>9741</v>
       </c>
       <c r="AO24" s="21" t="n">
-        <v>9741</v>
+        <v>11063</v>
       </c>
       <c r="AP24" s="21" t="n">
-        <v>11063</v>
+        <v>11075</v>
       </c>
       <c r="AQ24" s="21" t="n">
-        <v>11075</v>
+        <v>10347</v>
       </c>
       <c r="AR24" s="21" t="n">
-        <v>10347</v>
+        <v>10129</v>
       </c>
       <c r="AS24" s="21" t="n">
-        <v>10129</v>
+        <v>9519</v>
       </c>
       <c r="AT24" s="21" t="n">
-        <v>9519</v>
+        <v>10550</v>
       </c>
       <c r="AU24" s="21" t="n">
-        <v>10550</v>
+        <v>10460</v>
       </c>
       <c r="AV24" s="21" t="n">
-        <v>10460</v>
+        <v>10002</v>
       </c>
       <c r="AW24" s="21" t="n">
-        <v>10002</v>
+        <v>9320</v>
       </c>
       <c r="AX24" s="21" t="n">
-        <v>9320</v>
+        <v>9438</v>
       </c>
       <c r="AY24" s="21" t="n">
-        <v>9438</v>
+        <v>9230</v>
       </c>
       <c r="AZ24" s="21" t="n">
-        <v>9230</v>
+        <v>8775</v>
       </c>
       <c r="BA24" s="21" t="n">
         <v>8775</v>
       </c>
       <c r="BB24" s="21" t="n">
-        <v>8775</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,70 +5951,70 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="n">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="G31" s="13" t="n">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="H31" s="13" t="n">
-        <v>272</v>
+        <v>597</v>
       </c>
       <c r="I31" s="13" t="n">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="J31" s="13" t="n">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="K31" s="13" t="n">
-        <v>592</v>
+        <v>506</v>
       </c>
       <c r="L31" s="13" t="n">
-        <v>506</v>
+        <v>724</v>
       </c>
       <c r="M31" s="13" t="n">
-        <v>724</v>
+        <v>451</v>
       </c>
       <c r="N31" s="13" t="n">
-        <v>451</v>
+        <v>232</v>
       </c>
       <c r="O31" s="13" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="P31" s="13" t="n">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="Q31" s="13" t="n">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="R31" s="13" t="n">
-        <v>380</v>
+        <v>202</v>
       </c>
       <c r="S31" s="13" t="n">
-        <v>202</v>
+        <v>586</v>
       </c>
       <c r="T31" s="13" t="n">
-        <v>586</v>
+        <v>251</v>
       </c>
       <c r="U31" s="13" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z31" s="13" t="n">
         <v>104</v>
+      </c>
+      <c r="Z31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA31" s="13" t="s">
         <v>57</v>
@@ -6110,71 +6110,71 @@
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="F32" s="16" t="n">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="G32" s="16" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="H32" s="16" t="n">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I32" s="16" t="n">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="J32" s="16" t="n">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="K32" s="16" t="n">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="L32" s="16" t="n">
+        <v>202</v>
+      </c>
+      <c r="M32" s="16" t="n">
+        <v>280</v>
+      </c>
+      <c r="N32" s="16" t="n">
+        <v>186</v>
+      </c>
+      <c r="O32" s="16" t="n">
+        <v>281</v>
+      </c>
+      <c r="P32" s="16" t="n">
+        <v>254</v>
+      </c>
+      <c r="Q32" s="16" t="n">
+        <v>206</v>
+      </c>
+      <c r="R32" s="16" t="n">
+        <v>257</v>
+      </c>
+      <c r="S32" s="16" t="n">
+        <v>310</v>
+      </c>
+      <c r="T32" s="16" t="n">
         <v>253</v>
       </c>
-      <c r="M32" s="16" t="n">
-        <v>202</v>
-      </c>
-      <c r="N32" s="16" t="n">
-        <v>280</v>
-      </c>
-      <c r="O32" s="16" t="n">
-        <v>186</v>
-      </c>
-      <c r="P32" s="16" t="n">
-        <v>281</v>
-      </c>
-      <c r="Q32" s="16" t="n">
-        <v>254</v>
-      </c>
-      <c r="R32" s="16" t="n">
-        <v>206</v>
-      </c>
-      <c r="S32" s="16" t="n">
-        <v>257</v>
-      </c>
-      <c r="T32" s="16" t="n">
-        <v>310</v>
-      </c>
       <c r="U32" s="16" t="n">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="V32" s="16" t="n">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="W32" s="16" t="n">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="X32" s="16" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Y32" s="16" t="n">
-        <v>287</v>
-      </c>
-      <c r="Z32" s="16" t="n">
         <v>190</v>
       </c>
+      <c r="Z32" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AA32" s="16" t="s">
         <v>57</v>
       </c>
@@ -6193,23 +6193,23 @@
       <c r="AF32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AG32" s="16" t="s">
-        <v>57</v>
+      <c r="AG32" s="16" t="n">
+        <v>21</v>
       </c>
       <c r="AH32" s="16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI32" s="16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ32" s="16" t="n">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="AK32" s="16" t="n">
-        <v>168</v>
-      </c>
-      <c r="AL32" s="16" t="n">
         <v>96</v>
+      </c>
+      <c r="AL32" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AM32" s="16" t="s">
         <v>57</v>
@@ -6269,70 +6269,70 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="n">
-        <v>1889</v>
+        <v>1779</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1779</v>
+        <v>1854</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>1854</v>
+        <v>2072</v>
       </c>
       <c r="H33" s="13" t="n">
-        <v>2072</v>
+        <v>2009</v>
       </c>
       <c r="I33" s="13" t="n">
-        <v>2009</v>
+        <v>1760</v>
       </c>
       <c r="J33" s="13" t="n">
-        <v>1760</v>
+        <v>2036</v>
       </c>
       <c r="K33" s="13" t="n">
-        <v>2036</v>
+        <v>1944</v>
       </c>
       <c r="L33" s="13" t="n">
-        <v>1944</v>
+        <v>1987</v>
       </c>
       <c r="M33" s="13" t="n">
-        <v>1987</v>
+        <v>2213</v>
       </c>
       <c r="N33" s="13" t="n">
-        <v>2213</v>
+        <v>2048</v>
       </c>
       <c r="O33" s="13" t="n">
-        <v>2048</v>
+        <v>2264</v>
       </c>
       <c r="P33" s="13" t="n">
-        <v>2264</v>
+        <v>2189</v>
       </c>
       <c r="Q33" s="13" t="n">
-        <v>2189</v>
+        <v>2164</v>
       </c>
       <c r="R33" s="13" t="n">
-        <v>2164</v>
+        <v>2319</v>
       </c>
       <c r="S33" s="13" t="n">
-        <v>2319</v>
+        <v>2195</v>
       </c>
       <c r="T33" s="13" t="n">
-        <v>2195</v>
+        <v>2175</v>
       </c>
       <c r="U33" s="13" t="n">
+        <v>2117</v>
+      </c>
+      <c r="V33" s="13" t="n">
+        <v>2276</v>
+      </c>
+      <c r="W33" s="13" t="n">
         <v>2175</v>
       </c>
-      <c r="V33" s="13" t="n">
-        <v>2117</v>
-      </c>
-      <c r="W33" s="13" t="n">
-        <v>2276</v>
-      </c>
       <c r="X33" s="13" t="n">
-        <v>2175</v>
+        <v>2215</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>2215</v>
-      </c>
-      <c r="Z33" s="13" t="n">
         <v>1026</v>
+      </c>
+      <c r="Z33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA33" s="13" t="s">
         <v>57</v>
@@ -6428,70 +6428,70 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="n">
-        <v>1664</v>
+        <v>1884</v>
       </c>
       <c r="F34" s="16" t="n">
-        <v>1884</v>
+        <v>2273</v>
       </c>
       <c r="G34" s="16" t="n">
-        <v>2273</v>
+        <v>2287</v>
       </c>
       <c r="H34" s="16" t="n">
-        <v>2287</v>
+        <v>2275</v>
       </c>
       <c r="I34" s="16" t="n">
+        <v>2413</v>
+      </c>
+      <c r="J34" s="16" t="n">
+        <v>2449</v>
+      </c>
+      <c r="K34" s="16" t="n">
+        <v>2376</v>
+      </c>
+      <c r="L34" s="16" t="n">
+        <v>1793</v>
+      </c>
+      <c r="M34" s="16" t="n">
+        <v>2211</v>
+      </c>
+      <c r="N34" s="16" t="n">
+        <v>1731</v>
+      </c>
+      <c r="O34" s="16" t="n">
+        <v>2211</v>
+      </c>
+      <c r="P34" s="16" t="n">
+        <v>2301</v>
+      </c>
+      <c r="Q34" s="16" t="n">
+        <v>2180</v>
+      </c>
+      <c r="R34" s="16" t="n">
+        <v>2344</v>
+      </c>
+      <c r="S34" s="16" t="n">
+        <v>2331</v>
+      </c>
+      <c r="T34" s="16" t="n">
+        <v>2152</v>
+      </c>
+      <c r="U34" s="16" t="n">
         <v>2275</v>
       </c>
-      <c r="J34" s="16" t="n">
-        <v>2413</v>
-      </c>
-      <c r="K34" s="16" t="n">
-        <v>2449</v>
-      </c>
-      <c r="L34" s="16" t="n">
-        <v>2376</v>
-      </c>
-      <c r="M34" s="16" t="n">
-        <v>1793</v>
-      </c>
-      <c r="N34" s="16" t="n">
-        <v>2211</v>
-      </c>
-      <c r="O34" s="16" t="n">
-        <v>1731</v>
-      </c>
-      <c r="P34" s="16" t="n">
-        <v>2211</v>
-      </c>
-      <c r="Q34" s="16" t="n">
-        <v>2301</v>
-      </c>
-      <c r="R34" s="16" t="n">
-        <v>2180</v>
-      </c>
-      <c r="S34" s="16" t="n">
-        <v>2344</v>
-      </c>
-      <c r="T34" s="16" t="n">
-        <v>2331</v>
-      </c>
-      <c r="U34" s="16" t="n">
-        <v>2152</v>
-      </c>
       <c r="V34" s="16" t="n">
-        <v>2275</v>
+        <v>2797</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>2797</v>
+        <v>3036</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>3036</v>
+        <v>3133</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>3133</v>
-      </c>
-      <c r="Z34" s="16" t="n">
         <v>1379</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA34" s="16" t="s">
         <v>57</v>
@@ -6587,70 +6587,70 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="n">
-        <v>2222</v>
+        <v>2435</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>2435</v>
+        <v>1853</v>
       </c>
       <c r="G35" s="13" t="n">
-        <v>1853</v>
+        <v>2936</v>
       </c>
       <c r="H35" s="13" t="n">
-        <v>2936</v>
+        <v>2176</v>
       </c>
       <c r="I35" s="13" t="n">
-        <v>2176</v>
+        <v>775</v>
       </c>
       <c r="J35" s="13" t="n">
-        <v>775</v>
+        <v>2653</v>
       </c>
       <c r="K35" s="13" t="n">
-        <v>2653</v>
+        <v>2254</v>
       </c>
       <c r="L35" s="13" t="n">
-        <v>2254</v>
+        <v>2236</v>
       </c>
       <c r="M35" s="13" t="n">
-        <v>2236</v>
+        <v>2614</v>
       </c>
       <c r="N35" s="13" t="n">
-        <v>2614</v>
+        <v>1848</v>
       </c>
       <c r="O35" s="13" t="n">
-        <v>1848</v>
+        <v>2270</v>
       </c>
       <c r="P35" s="13" t="n">
-        <v>2270</v>
+        <v>2089</v>
       </c>
       <c r="Q35" s="13" t="n">
-        <v>2089</v>
+        <v>2133</v>
       </c>
       <c r="R35" s="13" t="n">
-        <v>2133</v>
+        <v>2744</v>
       </c>
       <c r="S35" s="13" t="n">
-        <v>2744</v>
+        <v>2855</v>
       </c>
       <c r="T35" s="13" t="n">
-        <v>2855</v>
+        <v>2491</v>
       </c>
       <c r="U35" s="13" t="n">
-        <v>2491</v>
+        <v>2128</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>2128</v>
+        <v>2360</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>2360</v>
+        <v>2719</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>2719</v>
+        <v>2489</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>2489</v>
-      </c>
-      <c r="Z35" s="13" t="n">
         <v>1252</v>
+      </c>
+      <c r="Z35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA35" s="13" t="s">
         <v>57</v>
@@ -6746,70 +6746,70 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="n">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="F36" s="16" t="n">
-        <v>719</v>
+        <v>748</v>
       </c>
       <c r="G36" s="16" t="n">
-        <v>748</v>
+        <v>624</v>
       </c>
       <c r="H36" s="16" t="n">
-        <v>624</v>
+        <v>802</v>
       </c>
       <c r="I36" s="16" t="n">
-        <v>802</v>
+        <v>641</v>
       </c>
       <c r="J36" s="16" t="n">
-        <v>641</v>
+        <v>951</v>
       </c>
       <c r="K36" s="16" t="n">
-        <v>951</v>
+        <v>687</v>
       </c>
       <c r="L36" s="16" t="n">
-        <v>687</v>
+        <v>856</v>
       </c>
       <c r="M36" s="16" t="n">
-        <v>856</v>
+        <v>888</v>
       </c>
       <c r="N36" s="16" t="n">
+        <v>897</v>
+      </c>
+      <c r="O36" s="16" t="n">
+        <v>896</v>
+      </c>
+      <c r="P36" s="16" t="n">
+        <v>765</v>
+      </c>
+      <c r="Q36" s="16" t="n">
+        <v>855</v>
+      </c>
+      <c r="R36" s="16" t="n">
+        <v>959</v>
+      </c>
+      <c r="S36" s="16" t="n">
+        <v>948</v>
+      </c>
+      <c r="T36" s="16" t="n">
+        <v>1007</v>
+      </c>
+      <c r="U36" s="16" t="n">
+        <v>889</v>
+      </c>
+      <c r="V36" s="16" t="n">
+        <v>977</v>
+      </c>
+      <c r="W36" s="16" t="n">
+        <v>1048</v>
+      </c>
+      <c r="X36" s="16" t="n">
+        <v>979</v>
+      </c>
+      <c r="Y36" s="16" t="n">
         <v>888</v>
       </c>
-      <c r="O36" s="16" t="n">
-        <v>897</v>
-      </c>
-      <c r="P36" s="16" t="n">
-        <v>896</v>
-      </c>
-      <c r="Q36" s="16" t="n">
-        <v>765</v>
-      </c>
-      <c r="R36" s="16" t="n">
-        <v>855</v>
-      </c>
-      <c r="S36" s="16" t="n">
-        <v>959</v>
-      </c>
-      <c r="T36" s="16" t="n">
-        <v>948</v>
-      </c>
-      <c r="U36" s="16" t="n">
-        <v>1007</v>
-      </c>
-      <c r="V36" s="16" t="n">
-        <v>889</v>
-      </c>
-      <c r="W36" s="16" t="n">
-        <v>977</v>
-      </c>
-      <c r="X36" s="16" t="n">
-        <v>1048</v>
-      </c>
-      <c r="Y36" s="16" t="n">
-        <v>979</v>
-      </c>
-      <c r="Z36" s="16" t="n">
-        <v>888</v>
+      <c r="Z36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA36" s="16" t="s">
         <v>57</v>
@@ -6916,8 +6916,8 @@
       <c r="H37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>57</v>
+      <c r="I37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J37" s="13" t="n">
         <v>0</v>
@@ -6931,14 +6931,14 @@
       <c r="M37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N37" s="13" t="n">
-        <v>0</v>
+      <c r="N37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P37" s="13" t="s">
-        <v>57</v>
+      <c r="P37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q37" s="13" t="n">
         <v>0</v>
@@ -6964,8 +6964,8 @@
       <c r="X37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y37" s="13" t="n">
-        <v>0</v>
+      <c r="Y37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z37" s="13" t="s">
         <v>57</v>
@@ -7126,92 +7126,92 @@
       <c r="Y38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z38" s="16" t="s">
-        <v>57</v>
+      <c r="Z38" s="16" t="n">
+        <v>3620</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>3620</v>
+        <v>5812</v>
       </c>
       <c r="AB38" s="16" t="n">
-        <v>5812</v>
+        <v>5364</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>5364</v>
+        <v>5686</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>5686</v>
+        <v>6299</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>6299</v>
+        <v>6401</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>6401</v>
+        <v>6131</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>6131</v>
+        <v>5683</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>5683</v>
+        <v>5915</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>5915</v>
+        <v>6457</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>6457</v>
+        <v>6487</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>6487</v>
+        <v>6003</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>6003</v>
+        <v>6540</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>6540</v>
+        <v>6581</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>6581</v>
+        <v>6908</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>6908</v>
+        <v>9676</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>9676</v>
+        <v>7066</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>7066</v>
+        <v>7316</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>7316</v>
+        <v>7249</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>7249</v>
+        <v>6989</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>6989</v>
+        <v>7525</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>7525</v>
+        <v>7478</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>7478</v>
+        <v>6650</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>6650</v>
+        <v>6414</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>6414</v>
+        <v>6459</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>6459</v>
+        <v>6510</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>6510</v>
+        <v>6048</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>6048</v>
+        <v>7504</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>7504</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,92 +7285,92 @@
       <c r="Y39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z39" s="13" t="s">
-        <v>57</v>
+      <c r="Z39" s="13" t="n">
+        <v>1454</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>1454</v>
+        <v>2676</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>2676</v>
+        <v>2698</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>2698</v>
+        <v>4086</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>4086</v>
+        <v>2760</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>2760</v>
+        <v>2498</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>2498</v>
+        <v>3824</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>3824</v>
+        <v>3308</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>3308</v>
+        <v>2801</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>2801</v>
+        <v>3041</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>3041</v>
+        <v>2660</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>2660</v>
+        <v>1820</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>1820</v>
+        <v>2106</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>2106</v>
+        <v>2893</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>2893</v>
+        <v>2451</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>2451</v>
+        <v>2461</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>2461</v>
+        <v>2697</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>2697</v>
+        <v>1908</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>1908</v>
+        <v>2415</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>2415</v>
+        <v>1683</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>1683</v>
+        <v>2770</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>2770</v>
+        <v>3773</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>3773</v>
+        <v>2533</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>2533</v>
+        <v>2599</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>2599</v>
+        <v>1950</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>1950</v>
+        <v>1562</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>1562</v>
+        <v>3858</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>3858</v>
+        <v>2864</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>2864</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,92 +7444,92 @@
       <c r="Y40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z40" s="16" t="s">
-        <v>57</v>
+      <c r="Z40" s="16" t="n">
+        <v>353</v>
       </c>
       <c r="AA40" s="16" t="n">
+        <v>309</v>
+      </c>
+      <c r="AB40" s="16" t="n">
+        <v>286</v>
+      </c>
+      <c r="AC40" s="16" t="n">
+        <v>311</v>
+      </c>
+      <c r="AD40" s="16" t="n">
+        <v>306</v>
+      </c>
+      <c r="AE40" s="16" t="n">
+        <v>283</v>
+      </c>
+      <c r="AF40" s="16" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG40" s="16" t="n">
+        <v>270</v>
+      </c>
+      <c r="AH40" s="16" t="n">
+        <v>329</v>
+      </c>
+      <c r="AI40" s="16" t="n">
+        <v>346</v>
+      </c>
+      <c r="AJ40" s="16" t="n">
+        <v>252</v>
+      </c>
+      <c r="AK40" s="16" t="n">
+        <v>281</v>
+      </c>
+      <c r="AL40" s="16" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM40" s="16" t="n">
+        <v>189</v>
+      </c>
+      <c r="AN40" s="16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AO40" s="16" t="n">
+        <v>361</v>
+      </c>
+      <c r="AP40" s="16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AQ40" s="16" t="n">
+        <v>443</v>
+      </c>
+      <c r="AR40" s="16" t="n">
+        <v>507</v>
+      </c>
+      <c r="AS40" s="16" t="n">
+        <v>155</v>
+      </c>
+      <c r="AT40" s="16" t="n">
         <v>353</v>
       </c>
-      <c r="AB40" s="16" t="n">
-        <v>309</v>
-      </c>
-      <c r="AC40" s="16" t="n">
-        <v>286</v>
-      </c>
-      <c r="AD40" s="16" t="n">
-        <v>311</v>
-      </c>
-      <c r="AE40" s="16" t="n">
-        <v>306</v>
-      </c>
-      <c r="AF40" s="16" t="n">
-        <v>283</v>
-      </c>
-      <c r="AG40" s="16" t="n">
-        <v>87</v>
-      </c>
-      <c r="AH40" s="16" t="n">
-        <v>270</v>
-      </c>
-      <c r="AI40" s="16" t="n">
-        <v>329</v>
-      </c>
-      <c r="AJ40" s="16" t="n">
-        <v>346</v>
-      </c>
-      <c r="AK40" s="16" t="n">
-        <v>252</v>
-      </c>
-      <c r="AL40" s="16" t="n">
-        <v>281</v>
-      </c>
-      <c r="AM40" s="16" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN40" s="16" t="n">
-        <v>189</v>
-      </c>
-      <c r="AO40" s="16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP40" s="16" t="n">
-        <v>361</v>
-      </c>
-      <c r="AQ40" s="16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AR40" s="16" t="n">
-        <v>443</v>
-      </c>
-      <c r="AS40" s="16" t="n">
-        <v>507</v>
-      </c>
-      <c r="AT40" s="16" t="n">
-        <v>155</v>
-      </c>
       <c r="AU40" s="16" t="n">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>258</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7660,8 +7660,8 @@
       <c r="Y42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z42" s="13" t="s">
-        <v>57</v>
+      <c r="Z42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA42" s="13" t="n">
         <v>0</v>
@@ -7669,8 +7669,8 @@
       <c r="AB42" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC42" s="13" t="n">
-        <v>0</v>
+      <c r="AC42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD42" s="13" t="s">
         <v>57</v>
@@ -7817,8 +7817,8 @@
       <c r="Y43" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Z43" s="19" t="s">
-        <v>57</v>
+      <c r="Z43" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="AA43" s="19" t="n">
         <v>0</v>
@@ -8031,8 +8031,8 @@
       <c r="Y45" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="Z45" s="21" t="s">
-        <v>57</v>
+      <c r="Z45" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="AA45" s="21" t="n">
         <v>0</v>
@@ -8126,154 +8126,154 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19" t="n">
-        <v>6866</v>
+        <v>7511</v>
       </c>
       <c r="F46" s="19" t="n">
-        <v>7511</v>
+        <v>7298</v>
       </c>
       <c r="G46" s="19" t="n">
-        <v>7298</v>
+        <v>8452</v>
       </c>
       <c r="H46" s="19" t="n">
-        <v>8452</v>
+        <v>8110</v>
       </c>
       <c r="I46" s="19" t="n">
-        <v>8110</v>
+        <v>6354</v>
       </c>
       <c r="J46" s="19" t="n">
-        <v>6354</v>
+        <v>9014</v>
       </c>
       <c r="K46" s="19" t="n">
-        <v>9014</v>
+        <v>8020</v>
       </c>
       <c r="L46" s="19" t="n">
-        <v>8020</v>
+        <v>7798</v>
       </c>
       <c r="M46" s="19" t="n">
-        <v>7798</v>
+        <v>8657</v>
       </c>
       <c r="N46" s="19" t="n">
-        <v>8657</v>
+        <v>6942</v>
       </c>
       <c r="O46" s="19" t="n">
-        <v>6942</v>
+        <v>8183</v>
       </c>
       <c r="P46" s="19" t="n">
-        <v>8183</v>
+        <v>7999</v>
       </c>
       <c r="Q46" s="19" t="n">
-        <v>7999</v>
+        <v>7918</v>
       </c>
       <c r="R46" s="19" t="n">
-        <v>7918</v>
+        <v>8825</v>
       </c>
       <c r="S46" s="19" t="n">
-        <v>8825</v>
+        <v>9225</v>
       </c>
       <c r="T46" s="19" t="n">
-        <v>9225</v>
+        <v>8329</v>
       </c>
       <c r="U46" s="19" t="n">
-        <v>8329</v>
+        <v>7813</v>
       </c>
       <c r="V46" s="19" t="n">
-        <v>7813</v>
+        <v>8913</v>
       </c>
       <c r="W46" s="19" t="n">
-        <v>8913</v>
+        <v>9426</v>
       </c>
       <c r="X46" s="19" t="n">
-        <v>9426</v>
+        <v>9251</v>
       </c>
       <c r="Y46" s="19" t="n">
-        <v>9251</v>
+        <v>4839</v>
       </c>
       <c r="Z46" s="19" t="n">
-        <v>4839</v>
+        <v>5427</v>
       </c>
       <c r="AA46" s="19" t="n">
-        <v>5427</v>
+        <v>8797</v>
       </c>
       <c r="AB46" s="19" t="n">
-        <v>8797</v>
+        <v>8348</v>
       </c>
       <c r="AC46" s="19" t="n">
-        <v>8348</v>
+        <v>10083</v>
       </c>
       <c r="AD46" s="19" t="n">
-        <v>10083</v>
+        <v>9365</v>
       </c>
       <c r="AE46" s="19" t="n">
-        <v>9365</v>
+        <v>9182</v>
       </c>
       <c r="AF46" s="19" t="n">
-        <v>9182</v>
+        <v>10042</v>
       </c>
       <c r="AG46" s="19" t="n">
-        <v>10042</v>
+        <v>9282</v>
       </c>
       <c r="AH46" s="19" t="n">
-        <v>9282</v>
+        <v>9068</v>
       </c>
       <c r="AI46" s="19" t="n">
-        <v>9068</v>
+        <v>9868</v>
       </c>
       <c r="AJ46" s="19" t="n">
-        <v>9868</v>
+        <v>9567</v>
       </c>
       <c r="AK46" s="19" t="n">
-        <v>9567</v>
+        <v>8200</v>
       </c>
       <c r="AL46" s="19" t="n">
-        <v>8200</v>
+        <v>8936</v>
       </c>
       <c r="AM46" s="19" t="n">
-        <v>8936</v>
+        <v>9663</v>
       </c>
       <c r="AN46" s="19" t="n">
-        <v>9663</v>
+        <v>9560</v>
       </c>
       <c r="AO46" s="19" t="n">
-        <v>9560</v>
+        <v>12498</v>
       </c>
       <c r="AP46" s="19" t="n">
-        <v>12498</v>
+        <v>9933</v>
       </c>
       <c r="AQ46" s="19" t="n">
-        <v>9933</v>
+        <v>9667</v>
       </c>
       <c r="AR46" s="19" t="n">
-        <v>9667</v>
+        <v>10171</v>
       </c>
       <c r="AS46" s="19" t="n">
-        <v>10171</v>
+        <v>8827</v>
       </c>
       <c r="AT46" s="19" t="n">
-        <v>8827</v>
+        <v>10648</v>
       </c>
       <c r="AU46" s="19" t="n">
-        <v>10648</v>
+        <v>11416</v>
       </c>
       <c r="AV46" s="19" t="n">
-        <v>11416</v>
+        <v>9476</v>
       </c>
       <c r="AW46" s="19" t="n">
-        <v>9476</v>
+        <v>9257</v>
       </c>
       <c r="AX46" s="19" t="n">
-        <v>9257</v>
+        <v>8548</v>
       </c>
       <c r="AY46" s="19" t="n">
-        <v>8548</v>
+        <v>8368</v>
       </c>
       <c r="AZ46" s="19" t="n">
-        <v>8368</v>
+        <v>10226</v>
       </c>
       <c r="BA46" s="19" t="n">
-        <v>10226</v>
+        <v>10626</v>
       </c>
       <c r="BB46" s="19" t="n">
-        <v>10626</v>
+        <v>10915</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,46 +8719,46 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="n">
-        <v>681</v>
+        <v>2843</v>
       </c>
       <c r="F53" s="13" t="n">
-        <v>2843</v>
+        <v>2121</v>
       </c>
       <c r="G53" s="13" t="n">
-        <v>2121</v>
+        <v>1581</v>
       </c>
       <c r="H53" s="13" t="n">
-        <v>1581</v>
+        <v>3129</v>
       </c>
       <c r="I53" s="13" t="n">
-        <v>3129</v>
+        <v>3689</v>
       </c>
       <c r="J53" s="13" t="n">
-        <v>3689</v>
+        <v>2579</v>
       </c>
       <c r="K53" s="13" t="n">
-        <v>2579</v>
+        <v>2457</v>
       </c>
       <c r="L53" s="13" t="n">
-        <v>2457</v>
+        <v>3708</v>
       </c>
       <c r="M53" s="13" t="n">
-        <v>3708</v>
+        <v>1620</v>
       </c>
       <c r="N53" s="13" t="n">
-        <v>1620</v>
+        <v>685</v>
       </c>
       <c r="O53" s="13" t="n">
-        <v>685</v>
+        <v>1053</v>
       </c>
       <c r="P53" s="13" t="n">
-        <v>1053</v>
+        <v>1183</v>
       </c>
       <c r="Q53" s="13" t="n">
-        <v>1183</v>
+        <v>2375</v>
       </c>
       <c r="R53" s="13" t="n">
-        <v>2375</v>
+        <v>0</v>
       </c>
       <c r="S53" s="13" t="n">
         <v>0</v>
@@ -8781,8 +8781,8 @@
       <c r="Y53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Z53" s="13" t="n">
-        <v>0</v>
+      <c r="Z53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA53" s="13" t="s">
         <v>57</v>
@@ -8878,46 +8878,46 @@
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16" t="n">
-        <v>22519</v>
+        <v>29843</v>
       </c>
       <c r="F54" s="16" t="n">
-        <v>29843</v>
+        <v>22584</v>
       </c>
       <c r="G54" s="16" t="n">
-        <v>22584</v>
+        <v>20153</v>
       </c>
       <c r="H54" s="16" t="n">
-        <v>20153</v>
+        <v>23129</v>
       </c>
       <c r="I54" s="16" t="n">
-        <v>23129</v>
+        <v>10199</v>
       </c>
       <c r="J54" s="16" t="n">
-        <v>10199</v>
+        <v>29159</v>
       </c>
       <c r="K54" s="16" t="n">
-        <v>29159</v>
+        <v>25377</v>
       </c>
       <c r="L54" s="16" t="n">
-        <v>25377</v>
+        <v>21308</v>
       </c>
       <c r="M54" s="16" t="n">
-        <v>21308</v>
+        <v>26495</v>
       </c>
       <c r="N54" s="16" t="n">
-        <v>26495</v>
+        <v>20991</v>
       </c>
       <c r="O54" s="16" t="n">
-        <v>20991</v>
+        <v>31188</v>
       </c>
       <c r="P54" s="16" t="n">
-        <v>31188</v>
+        <v>27844</v>
       </c>
       <c r="Q54" s="16" t="n">
-        <v>27844</v>
+        <v>21989</v>
       </c>
       <c r="R54" s="16" t="n">
-        <v>21989</v>
+        <v>0</v>
       </c>
       <c r="S54" s="16" t="n">
         <v>0</v>
@@ -8940,8 +8940,8 @@
       <c r="Y54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Z54" s="16" t="n">
-        <v>0</v>
+      <c r="Z54" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA54" s="16" t="s">
         <v>57</v>
@@ -8961,23 +8961,23 @@
       <c r="AF54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AG54" s="16" t="s">
-        <v>57</v>
+      <c r="AG54" s="16" t="n">
+        <v>5155</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>5155</v>
+        <v>6868</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>6868</v>
+        <v>8072</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>8072</v>
+        <v>58652</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>58652</v>
-      </c>
-      <c r="AL54" s="16" t="n">
         <v>36818</v>
+      </c>
+      <c r="AL54" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AM54" s="16" t="s">
         <v>57</v>
@@ -9037,46 +9037,46 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="n">
-        <v>11308</v>
+        <v>10559</v>
       </c>
       <c r="F55" s="13" t="n">
-        <v>10559</v>
+        <v>10931</v>
       </c>
       <c r="G55" s="13" t="n">
-        <v>10931</v>
+        <v>12226</v>
       </c>
       <c r="H55" s="13" t="n">
-        <v>12226</v>
+        <v>11920</v>
       </c>
       <c r="I55" s="13" t="n">
-        <v>11920</v>
+        <v>10154</v>
       </c>
       <c r="J55" s="13" t="n">
-        <v>10154</v>
+        <v>12220</v>
       </c>
       <c r="K55" s="13" t="n">
-        <v>12220</v>
+        <v>11694</v>
       </c>
       <c r="L55" s="13" t="n">
-        <v>11694</v>
+        <v>11895</v>
       </c>
       <c r="M55" s="13" t="n">
-        <v>11895</v>
+        <v>13076</v>
       </c>
       <c r="N55" s="13" t="n">
-        <v>13076</v>
+        <v>12227</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>12227</v>
+        <v>13978</v>
       </c>
       <c r="P55" s="13" t="n">
-        <v>13978</v>
+        <v>13427</v>
       </c>
       <c r="Q55" s="13" t="n">
-        <v>13427</v>
+        <v>13234</v>
       </c>
       <c r="R55" s="13" t="n">
-        <v>13234</v>
+        <v>0</v>
       </c>
       <c r="S55" s="13" t="n">
         <v>0</v>
@@ -9099,8 +9099,8 @@
       <c r="Y55" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Z55" s="13" t="n">
-        <v>0</v>
+      <c r="Z55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA55" s="13" t="s">
         <v>57</v>
@@ -9196,46 +9196,46 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="n">
-        <v>1739</v>
+        <v>2864</v>
       </c>
       <c r="F56" s="16" t="n">
-        <v>2864</v>
+        <v>1865</v>
       </c>
       <c r="G56" s="16" t="n">
-        <v>1865</v>
+        <v>1719</v>
       </c>
       <c r="H56" s="16" t="n">
-        <v>1719</v>
+        <v>1850</v>
       </c>
       <c r="I56" s="16" t="n">
-        <v>1850</v>
+        <v>1916</v>
       </c>
       <c r="J56" s="16" t="n">
-        <v>1916</v>
+        <v>1871</v>
       </c>
       <c r="K56" s="16" t="n">
-        <v>1871</v>
+        <v>2346</v>
       </c>
       <c r="L56" s="16" t="n">
-        <v>2346</v>
+        <v>3535</v>
       </c>
       <c r="M56" s="16" t="n">
-        <v>3535</v>
+        <v>4188</v>
       </c>
       <c r="N56" s="16" t="n">
-        <v>4188</v>
+        <v>2990</v>
       </c>
       <c r="O56" s="16" t="n">
-        <v>2990</v>
+        <v>3454</v>
       </c>
       <c r="P56" s="16" t="n">
-        <v>3454</v>
+        <v>3098</v>
       </c>
       <c r="Q56" s="16" t="n">
-        <v>3098</v>
+        <v>2976</v>
       </c>
       <c r="R56" s="16" t="n">
-        <v>2976</v>
+        <v>0</v>
       </c>
       <c r="S56" s="16" t="n">
         <v>0</v>
@@ -9258,8 +9258,8 @@
       <c r="Y56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Z56" s="16" t="n">
-        <v>0</v>
+      <c r="Z56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA56" s="16" t="s">
         <v>57</v>
@@ -9355,46 +9355,46 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="n">
-        <v>75103</v>
+        <v>68470</v>
       </c>
       <c r="F57" s="13" t="n">
-        <v>68470</v>
+        <v>55517</v>
       </c>
       <c r="G57" s="13" t="n">
-        <v>55517</v>
+        <v>103487</v>
       </c>
       <c r="H57" s="13" t="n">
-        <v>103487</v>
+        <v>73835</v>
       </c>
       <c r="I57" s="13" t="n">
-        <v>73835</v>
+        <v>31335</v>
       </c>
       <c r="J57" s="13" t="n">
-        <v>31335</v>
+        <v>104041</v>
       </c>
       <c r="K57" s="13" t="n">
-        <v>104041</v>
+        <v>81505</v>
       </c>
       <c r="L57" s="13" t="n">
-        <v>81505</v>
+        <v>73977</v>
       </c>
       <c r="M57" s="13" t="n">
-        <v>73977</v>
+        <v>77172</v>
       </c>
       <c r="N57" s="13" t="n">
-        <v>77172</v>
+        <v>54990</v>
       </c>
       <c r="O57" s="13" t="n">
-        <v>54990</v>
+        <v>68033</v>
       </c>
       <c r="P57" s="13" t="n">
-        <v>68033</v>
+        <v>59708</v>
       </c>
       <c r="Q57" s="13" t="n">
-        <v>59708</v>
+        <v>64036</v>
       </c>
       <c r="R57" s="13" t="n">
-        <v>64036</v>
+        <v>0</v>
       </c>
       <c r="S57" s="13" t="n">
         <v>0</v>
@@ -9417,8 +9417,8 @@
       <c r="Y57" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Z57" s="13" t="n">
-        <v>0</v>
+      <c r="Z57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA57" s="13" t="s">
         <v>57</v>
@@ -9514,46 +9514,46 @@
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16" t="n">
-        <v>27235</v>
+        <v>25454</v>
       </c>
       <c r="F58" s="16" t="n">
-        <v>25454</v>
+        <v>26848</v>
       </c>
       <c r="G58" s="16" t="n">
-        <v>26848</v>
+        <v>22414</v>
       </c>
       <c r="H58" s="16" t="n">
-        <v>22414</v>
+        <v>20377</v>
       </c>
       <c r="I58" s="16" t="n">
-        <v>20377</v>
+        <v>26394</v>
       </c>
       <c r="J58" s="16" t="n">
-        <v>26394</v>
+        <v>32572</v>
       </c>
       <c r="K58" s="16" t="n">
-        <v>32572</v>
+        <v>32467</v>
       </c>
       <c r="L58" s="16" t="n">
-        <v>32467</v>
+        <v>38429</v>
       </c>
       <c r="M58" s="16" t="n">
-        <v>38429</v>
+        <v>33996</v>
       </c>
       <c r="N58" s="16" t="n">
-        <v>33996</v>
+        <v>34127</v>
       </c>
       <c r="O58" s="16" t="n">
-        <v>34127</v>
+        <v>34090</v>
       </c>
       <c r="P58" s="16" t="n">
-        <v>34090</v>
+        <v>37701</v>
       </c>
       <c r="Q58" s="16" t="n">
-        <v>37701</v>
+        <v>23826</v>
       </c>
       <c r="R58" s="16" t="n">
-        <v>23826</v>
+        <v>0</v>
       </c>
       <c r="S58" s="16" t="n">
         <v>0</v>
@@ -9576,8 +9576,8 @@
       <c r="Y58" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Z58" s="16" t="n">
-        <v>0</v>
+      <c r="Z58" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA58" s="16" t="s">
         <v>57</v>
@@ -9684,14 +9684,14 @@
       <c r="H59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>57</v>
+      <c r="I59" s="13" t="n">
+        <v>2050</v>
       </c>
       <c r="J59" s="13" t="n">
-        <v>2050</v>
+        <v>12141</v>
       </c>
       <c r="K59" s="13" t="n">
-        <v>12141</v>
+        <v>0</v>
       </c>
       <c r="L59" s="13" t="n">
         <v>0</v>
@@ -9699,17 +9699,17 @@
       <c r="M59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="13" t="n">
-        <v>0</v>
+      <c r="N59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P59" s="13" t="s">
-        <v>57</v>
+      <c r="P59" s="13" t="n">
+        <v>7737</v>
       </c>
       <c r="Q59" s="13" t="n">
-        <v>7737</v>
+        <v>0</v>
       </c>
       <c r="R59" s="13" t="n">
         <v>0</v>
@@ -9732,8 +9732,8 @@
       <c r="X59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y59" s="13" t="n">
-        <v>0</v>
+      <c r="Y59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z59" s="13" t="s">
         <v>57</v>
@@ -9894,92 +9894,92 @@
       <c r="Y60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z60" s="16" t="s">
-        <v>57</v>
+      <c r="Z60" s="16" t="n">
+        <v>111422</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>111422</v>
+        <v>88692</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>88692</v>
+        <v>86963</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>86963</v>
+        <v>81270</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>81270</v>
+        <v>91617</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>91617</v>
+        <v>76117</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>76117</v>
+        <v>71073</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>71073</v>
+        <v>83868</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>83868</v>
+        <v>87893</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>87893</v>
+        <v>96073</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>96073</v>
+        <v>105760</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>105760</v>
+        <v>99478</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>99478</v>
+        <v>97816</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>97816</v>
+        <v>94817</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>94817</v>
+        <v>86864</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>86864</v>
+        <v>103902</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>103902</v>
+        <v>97515</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>97515</v>
+        <v>117214</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>117214</v>
+        <v>126325</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>126325</v>
+        <v>123383</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>123383</v>
+        <v>148234</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>148234</v>
+        <v>152457</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>152457</v>
+        <v>188533</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>188533</v>
+        <v>204146</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>204146</v>
+        <v>194334</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>194334</v>
+        <v>202175</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>202175</v>
+        <v>170059</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>170059</v>
+        <v>256016</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>256016</v>
+        <v>248616</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10053,92 +10053,92 @@
       <c r="Y61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z61" s="13" t="s">
-        <v>57</v>
+      <c r="Z61" s="13" t="n">
+        <v>59150</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>59150</v>
+        <v>126215</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>126215</v>
+        <v>127164</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>127164</v>
+        <v>192508</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>192508</v>
+        <v>127171</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>127171</v>
+        <v>139994</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>139994</v>
+        <v>214738</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>214738</v>
+        <v>198239</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>198239</v>
+        <v>187780</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>187780</v>
+        <v>213926</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>213926</v>
+        <v>250760</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>250760</v>
+        <v>287421</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>287421</v>
+        <v>297267</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>297267</v>
+        <v>401192</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>401192</v>
+        <v>543446</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>543446</v>
+        <v>500023</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>500023</v>
+        <v>558681</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>558681</v>
+        <v>375573</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>375573</v>
+        <v>417769</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>417769</v>
+        <v>253405</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>253405</v>
+        <v>390108</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>390108</v>
+        <v>532338</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>532338</v>
+        <v>449504</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>449504</v>
+        <v>517716</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>517716</v>
+        <v>426011</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>426011</v>
+        <v>321358</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>321358</v>
+        <v>672276</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>672276</v>
+        <v>687256</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>687256</v>
+        <v>609345</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10212,92 +10212,92 @@
       <c r="Y62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z62" s="16" t="s">
-        <v>57</v>
+      <c r="Z62" s="16" t="n">
+        <v>56013</v>
       </c>
       <c r="AA62" s="16" t="n">
-        <v>56013</v>
+        <v>55553</v>
       </c>
       <c r="AB62" s="16" t="n">
-        <v>55553</v>
+        <v>50428</v>
       </c>
       <c r="AC62" s="16" t="n">
-        <v>50428</v>
+        <v>61800</v>
       </c>
       <c r="AD62" s="16" t="n">
-        <v>61800</v>
+        <v>92501</v>
       </c>
       <c r="AE62" s="16" t="n">
-        <v>92501</v>
+        <v>102864</v>
       </c>
       <c r="AF62" s="16" t="n">
-        <v>102864</v>
+        <v>29145</v>
       </c>
       <c r="AG62" s="16" t="n">
-        <v>29145</v>
+        <v>79245</v>
       </c>
       <c r="AH62" s="16" t="n">
-        <v>79245</v>
+        <v>115226</v>
       </c>
       <c r="AI62" s="16" t="n">
-        <v>115226</v>
+        <v>111128</v>
       </c>
       <c r="AJ62" s="16" t="n">
-        <v>111128</v>
+        <v>73604</v>
       </c>
       <c r="AK62" s="16" t="n">
-        <v>73604</v>
+        <v>98345</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>98345</v>
+        <v>119028</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>119028</v>
+        <v>85876</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>85876</v>
+        <v>77495</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>77495</v>
+        <v>124570</v>
       </c>
       <c r="AP62" s="16" t="n">
-        <v>124570</v>
+        <v>57270</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>57270</v>
+        <v>145160</v>
       </c>
       <c r="AR62" s="16" t="n">
-        <v>145160</v>
+        <v>175642</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>175642</v>
+        <v>66371</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>66371</v>
+        <v>133080</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>133080</v>
+        <v>59251</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>59251</v>
+        <v>100630</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>100630</v>
+        <v>83335</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>83335</v>
+        <v>50806</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>50806</v>
+        <v>97951</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>97951</v>
+        <v>106877</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>106877</v>
+        <v>81528</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>81528</v>
+        <v>60855</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10428,8 +10428,8 @@
       <c r="Y64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z64" s="13" t="s">
-        <v>57</v>
+      <c r="Z64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA64" s="13" t="n">
         <v>0</v>
@@ -10437,8 +10437,8 @@
       <c r="AB64" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC64" s="13" t="n">
-        <v>0</v>
+      <c r="AC64" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD64" s="13" t="s">
         <v>57</v>
@@ -10587,8 +10587,8 @@
       <c r="Y65" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Z65" s="19" t="s">
-        <v>57</v>
+      <c r="Z65" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AA65" s="24" t="n">
         <v>0</v>
@@ -10803,8 +10803,8 @@
       <c r="Y67" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="Z67" s="21" t="s">
-        <v>57</v>
+      <c r="Z67" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="AA67" s="25" t="n">
         <v>0</v>
@@ -11019,8 +11019,8 @@
       <c r="Y69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z69" s="13" t="s">
-        <v>57</v>
+      <c r="Z69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA69" s="13" t="n">
         <v>0</v>
@@ -11114,46 +11114,46 @@
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24" t="n">
-        <v>138585</v>
+        <v>140033</v>
       </c>
       <c r="F70" s="24" t="n">
-        <v>140033</v>
+        <v>119866</v>
       </c>
       <c r="G70" s="24" t="n">
-        <v>119866</v>
+        <v>161580</v>
       </c>
       <c r="H70" s="24" t="n">
-        <v>161580</v>
+        <v>134240</v>
       </c>
       <c r="I70" s="24" t="n">
-        <v>134240</v>
+        <v>85737</v>
       </c>
       <c r="J70" s="24" t="n">
-        <v>85737</v>
+        <v>194583</v>
       </c>
       <c r="K70" s="24" t="n">
-        <v>194583</v>
+        <v>155846</v>
       </c>
       <c r="L70" s="24" t="n">
-        <v>155846</v>
+        <v>152852</v>
       </c>
       <c r="M70" s="24" t="n">
-        <v>152852</v>
+        <v>156547</v>
       </c>
       <c r="N70" s="24" t="n">
-        <v>156547</v>
+        <v>126010</v>
       </c>
       <c r="O70" s="24" t="n">
-        <v>126010</v>
+        <v>151796</v>
       </c>
       <c r="P70" s="24" t="n">
-        <v>151796</v>
+        <v>150698</v>
       </c>
       <c r="Q70" s="24" t="n">
-        <v>150698</v>
+        <v>128436</v>
       </c>
       <c r="R70" s="24" t="n">
-        <v>128436</v>
+        <v>0</v>
       </c>
       <c r="S70" s="24" t="n">
         <v>0</v>
@@ -11177,91 +11177,91 @@
         <v>0</v>
       </c>
       <c r="Z70" s="24" t="n">
-        <v>0</v>
+        <v>226585</v>
       </c>
       <c r="AA70" s="24" t="n">
-        <v>226585</v>
+        <v>270460</v>
       </c>
       <c r="AB70" s="24" t="n">
-        <v>270460</v>
+        <v>264555</v>
       </c>
       <c r="AC70" s="24" t="n">
-        <v>264555</v>
+        <v>335578</v>
       </c>
       <c r="AD70" s="24" t="n">
-        <v>335578</v>
+        <v>311289</v>
       </c>
       <c r="AE70" s="24" t="n">
-        <v>311289</v>
+        <v>318975</v>
       </c>
       <c r="AF70" s="24" t="n">
-        <v>318975</v>
+        <v>314956</v>
       </c>
       <c r="AG70" s="24" t="n">
-        <v>314956</v>
+        <v>366507</v>
       </c>
       <c r="AH70" s="24" t="n">
-        <v>366507</v>
+        <v>397767</v>
       </c>
       <c r="AI70" s="24" t="n">
-        <v>397767</v>
+        <v>429199</v>
       </c>
       <c r="AJ70" s="24" t="n">
-        <v>429199</v>
+        <v>488776</v>
       </c>
       <c r="AK70" s="24" t="n">
-        <v>488776</v>
+        <v>522062</v>
       </c>
       <c r="AL70" s="24" t="n">
-        <v>522062</v>
+        <v>514111</v>
       </c>
       <c r="AM70" s="24" t="n">
-        <v>514111</v>
+        <v>581885</v>
       </c>
       <c r="AN70" s="24" t="n">
-        <v>581885</v>
+        <v>707805</v>
       </c>
       <c r="AO70" s="24" t="n">
-        <v>707805</v>
+        <v>728495</v>
       </c>
       <c r="AP70" s="24" t="n">
-        <v>728495</v>
+        <v>713466</v>
       </c>
       <c r="AQ70" s="24" t="n">
-        <v>713466</v>
+        <v>637947</v>
       </c>
       <c r="AR70" s="24" t="n">
-        <v>637947</v>
+        <v>719736</v>
       </c>
       <c r="AS70" s="24" t="n">
-        <v>719736</v>
+        <v>443159</v>
       </c>
       <c r="AT70" s="24" t="n">
-        <v>443159</v>
+        <v>671422</v>
       </c>
       <c r="AU70" s="24" t="n">
-        <v>671422</v>
+        <v>744046</v>
       </c>
       <c r="AV70" s="24" t="n">
-        <v>744046</v>
+        <v>738667</v>
       </c>
       <c r="AW70" s="24" t="n">
-        <v>738667</v>
+        <v>805197</v>
       </c>
       <c r="AX70" s="24" t="n">
-        <v>805197</v>
+        <v>671151</v>
       </c>
       <c r="AY70" s="24" t="n">
-        <v>671151</v>
+        <v>621484</v>
       </c>
       <c r="AZ70" s="24" t="n">
-        <v>621484</v>
+        <v>949212</v>
       </c>
       <c r="BA70" s="24" t="n">
-        <v>949212</v>
+        <v>1024800</v>
       </c>
       <c r="BB70" s="24" t="n">
-        <v>1024800</v>
+        <v>918816</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11707,70 +11707,70 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="n">
-        <v>8407407</v>
+        <v>6917275</v>
       </c>
       <c r="F77" s="13" t="n">
-        <v>6917275</v>
+        <v>6275148</v>
       </c>
       <c r="G77" s="13" t="n">
-        <v>6275148</v>
+        <v>5812500</v>
       </c>
       <c r="H77" s="13" t="n">
-        <v>5812500</v>
+        <v>5241206</v>
       </c>
       <c r="I77" s="13" t="n">
-        <v>5241206</v>
+        <v>5589394</v>
       </c>
       <c r="J77" s="13" t="n">
-        <v>5589394</v>
+        <v>4356419</v>
       </c>
       <c r="K77" s="13" t="n">
-        <v>4356419</v>
+        <v>4855731</v>
       </c>
       <c r="L77" s="13" t="n">
-        <v>4855731</v>
+        <v>5121547</v>
       </c>
       <c r="M77" s="13" t="n">
-        <v>5121547</v>
+        <v>3592018</v>
       </c>
       <c r="N77" s="13" t="n">
-        <v>3592018</v>
+        <v>2952586</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>2952586</v>
+        <v>4034483</v>
       </c>
       <c r="P77" s="13" t="n">
-        <v>4034483</v>
+        <v>2950125</v>
       </c>
       <c r="Q77" s="13" t="n">
-        <v>2950125</v>
+        <v>6250000</v>
       </c>
       <c r="R77" s="13" t="n">
-        <v>6250000</v>
+        <v>3856436</v>
       </c>
       <c r="S77" s="13" t="n">
-        <v>3856436</v>
+        <v>4641638</v>
       </c>
       <c r="T77" s="13" t="n">
-        <v>4641638</v>
+        <v>10470120</v>
       </c>
       <c r="U77" s="13" t="n">
-        <v>10470120</v>
+        <v>7405000</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>7405000</v>
+        <v>9628099</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>9628099</v>
+        <v>9363636</v>
       </c>
       <c r="X77" s="13" t="n">
-        <v>9363636</v>
+        <v>10162162</v>
       </c>
       <c r="Y77" s="13" t="n">
-        <v>10162162</v>
-      </c>
-      <c r="Z77" s="13" t="n">
         <v>10375000</v>
+      </c>
+      <c r="Z77" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA77" s="13" t="s">
         <v>57</v>
@@ -11866,71 +11866,71 @@
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="n">
-        <v>90076000</v>
+        <v>105452297</v>
       </c>
       <c r="F78" s="16" t="n">
-        <v>105452297</v>
+        <v>97344828</v>
       </c>
       <c r="G78" s="16" t="n">
-        <v>97344828</v>
+        <v>77214559</v>
       </c>
       <c r="H78" s="16" t="n">
-        <v>77214559</v>
+        <v>92147410</v>
       </c>
       <c r="I78" s="16" t="n">
-        <v>92147410</v>
+        <v>97133333</v>
       </c>
       <c r="J78" s="16" t="n">
-        <v>97133333</v>
+        <v>87564565</v>
       </c>
       <c r="K78" s="16" t="n">
-        <v>87564565</v>
+        <v>100304348</v>
       </c>
       <c r="L78" s="16" t="n">
-        <v>100304348</v>
+        <v>105485149</v>
       </c>
       <c r="M78" s="16" t="n">
-        <v>105485149</v>
+        <v>94625000</v>
       </c>
       <c r="N78" s="16" t="n">
-        <v>94625000</v>
+        <v>112854839</v>
       </c>
       <c r="O78" s="16" t="n">
-        <v>112854839</v>
+        <v>110989324</v>
       </c>
       <c r="P78" s="16" t="n">
-        <v>110989324</v>
+        <v>109622047</v>
       </c>
       <c r="Q78" s="16" t="n">
-        <v>109622047</v>
+        <v>106742718</v>
       </c>
       <c r="R78" s="16" t="n">
-        <v>106742718</v>
+        <v>105645914</v>
       </c>
       <c r="S78" s="16" t="n">
-        <v>105645914</v>
+        <v>103209677</v>
       </c>
       <c r="T78" s="16" t="n">
-        <v>103209677</v>
+        <v>108280632</v>
       </c>
       <c r="U78" s="16" t="n">
-        <v>108280632</v>
+        <v>113362745</v>
       </c>
       <c r="V78" s="16" t="n">
-        <v>113362745</v>
+        <v>105068063</v>
       </c>
       <c r="W78" s="16" t="n">
-        <v>105068063</v>
+        <v>115210884</v>
       </c>
       <c r="X78" s="16" t="n">
-        <v>115210884</v>
+        <v>127170732</v>
       </c>
       <c r="Y78" s="16" t="n">
-        <v>127170732</v>
-      </c>
-      <c r="Z78" s="16" t="n">
         <v>132784211</v>
       </c>
+      <c r="Z78" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AA78" s="16" t="s">
         <v>57</v>
       </c>
@@ -11949,23 +11949,23 @@
       <c r="AF78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AG78" s="16" t="s">
-        <v>57</v>
+      <c r="AG78" s="16" t="n">
+        <v>245476190</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>245476190</v>
+        <v>298608696</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>298608696</v>
+        <v>336333333</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>336333333</v>
+        <v>349119048</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>349119048</v>
-      </c>
-      <c r="AL78" s="16" t="n">
         <v>383520833</v>
+      </c>
+      <c r="AL78" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AM78" s="16" t="s">
         <v>57</v>
@@ -12025,70 +12025,70 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="n">
-        <v>5986236</v>
+        <v>5935357</v>
       </c>
       <c r="F79" s="13" t="n">
-        <v>5935357</v>
+        <v>5895901</v>
       </c>
       <c r="G79" s="13" t="n">
-        <v>5895901</v>
+        <v>5900579</v>
       </c>
       <c r="H79" s="13" t="n">
-        <v>5900579</v>
+        <v>5933300</v>
       </c>
       <c r="I79" s="13" t="n">
-        <v>5933300</v>
+        <v>5769318</v>
       </c>
       <c r="J79" s="13" t="n">
-        <v>5769318</v>
+        <v>6001965</v>
       </c>
       <c r="K79" s="13" t="n">
-        <v>6001965</v>
+        <v>6015432</v>
       </c>
       <c r="L79" s="13" t="n">
-        <v>6015432</v>
+        <v>5986412</v>
       </c>
       <c r="M79" s="13" t="n">
-        <v>5986412</v>
+        <v>5908721</v>
       </c>
       <c r="N79" s="13" t="n">
-        <v>5908721</v>
+        <v>5970215</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>5970215</v>
+        <v>6174028</v>
       </c>
       <c r="P79" s="13" t="n">
-        <v>6174028</v>
+        <v>6133851</v>
       </c>
       <c r="Q79" s="13" t="n">
-        <v>6133851</v>
+        <v>6115527</v>
       </c>
       <c r="R79" s="13" t="n">
-        <v>6115527</v>
+        <v>6184131</v>
       </c>
       <c r="S79" s="13" t="n">
-        <v>6184131</v>
+        <v>6223690</v>
       </c>
       <c r="T79" s="13" t="n">
-        <v>6223690</v>
+        <v>6465287</v>
       </c>
       <c r="U79" s="13" t="n">
-        <v>6465287</v>
+        <v>6789797</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>6789797</v>
+        <v>6612039</v>
       </c>
       <c r="W79" s="13" t="n">
-        <v>6612039</v>
+        <v>6874023</v>
       </c>
       <c r="X79" s="13" t="n">
-        <v>6874023</v>
+        <v>7148533</v>
       </c>
       <c r="Y79" s="13" t="n">
-        <v>7148533</v>
-      </c>
-      <c r="Z79" s="13" t="n">
         <v>7004873</v>
+      </c>
+      <c r="Z79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA79" s="13" t="s">
         <v>57</v>
@@ -12184,70 +12184,70 @@
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="n">
-        <v>1045072</v>
+        <v>1520170</v>
       </c>
       <c r="F80" s="16" t="n">
-        <v>1520170</v>
+        <v>820502</v>
       </c>
       <c r="G80" s="16" t="n">
-        <v>820502</v>
+        <v>751640</v>
       </c>
       <c r="H80" s="16" t="n">
-        <v>751640</v>
+        <v>813187</v>
       </c>
       <c r="I80" s="16" t="n">
-        <v>813187</v>
+        <v>794032</v>
       </c>
       <c r="J80" s="16" t="n">
-        <v>794032</v>
+        <v>763985</v>
       </c>
       <c r="K80" s="16" t="n">
-        <v>763985</v>
+        <v>987374</v>
       </c>
       <c r="L80" s="16" t="n">
-        <v>987374</v>
+        <v>1971556</v>
       </c>
       <c r="M80" s="16" t="n">
-        <v>1971556</v>
+        <v>1894166</v>
       </c>
       <c r="N80" s="16" t="n">
-        <v>1894166</v>
+        <v>1727325</v>
       </c>
       <c r="O80" s="16" t="n">
-        <v>1727325</v>
+        <v>1562189</v>
       </c>
       <c r="P80" s="16" t="n">
-        <v>1562189</v>
+        <v>1346371</v>
       </c>
       <c r="Q80" s="16" t="n">
-        <v>1346371</v>
+        <v>1365138</v>
       </c>
       <c r="R80" s="16" t="n">
-        <v>1365138</v>
+        <v>1287969</v>
       </c>
       <c r="S80" s="16" t="n">
-        <v>1287969</v>
+        <v>1271986</v>
       </c>
       <c r="T80" s="16" t="n">
-        <v>1271986</v>
+        <v>1435874</v>
       </c>
       <c r="U80" s="16" t="n">
-        <v>1435874</v>
+        <v>858462</v>
       </c>
       <c r="V80" s="16" t="n">
-        <v>858462</v>
+        <v>1020021</v>
       </c>
       <c r="W80" s="16" t="n">
-        <v>1020021</v>
+        <v>1168314</v>
       </c>
       <c r="X80" s="16" t="n">
-        <v>1168314</v>
+        <v>1236195</v>
       </c>
       <c r="Y80" s="16" t="n">
-        <v>1236195</v>
-      </c>
-      <c r="Z80" s="16" t="n">
         <v>2004351</v>
+      </c>
+      <c r="Z80" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA80" s="16" t="s">
         <v>57</v>
@@ -12343,70 +12343,70 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="n">
-        <v>33799730</v>
+        <v>28119097</v>
       </c>
       <c r="F81" s="13" t="n">
-        <v>28119097</v>
+        <v>29960604</v>
       </c>
       <c r="G81" s="13" t="n">
-        <v>29960604</v>
+        <v>35247616</v>
       </c>
       <c r="H81" s="13" t="n">
-        <v>35247616</v>
+        <v>33931526</v>
       </c>
       <c r="I81" s="13" t="n">
-        <v>33931526</v>
+        <v>40432258</v>
       </c>
       <c r="J81" s="13" t="n">
-        <v>40432258</v>
+        <v>39216359</v>
       </c>
       <c r="K81" s="13" t="n">
-        <v>39216359</v>
+        <v>36160160</v>
       </c>
       <c r="L81" s="13" t="n">
-        <v>36160160</v>
+        <v>33084526</v>
       </c>
       <c r="M81" s="13" t="n">
-        <v>33084526</v>
+        <v>29522571</v>
       </c>
       <c r="N81" s="13" t="n">
-        <v>29522571</v>
+        <v>29756494</v>
       </c>
       <c r="O81" s="13" t="n">
-        <v>29756494</v>
+        <v>29970485</v>
       </c>
       <c r="P81" s="13" t="n">
-        <v>29970485</v>
+        <v>28582097</v>
       </c>
       <c r="Q81" s="13" t="n">
-        <v>28582097</v>
+        <v>30021566</v>
       </c>
       <c r="R81" s="13" t="n">
-        <v>30021566</v>
+        <v>33647595</v>
       </c>
       <c r="S81" s="13" t="n">
-        <v>33647595</v>
+        <v>33101226</v>
       </c>
       <c r="T81" s="13" t="n">
-        <v>33101226</v>
+        <v>38811722</v>
       </c>
       <c r="U81" s="13" t="n">
-        <v>38811722</v>
+        <v>32614662</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>32614662</v>
+        <v>32681356</v>
       </c>
       <c r="W81" s="13" t="n">
-        <v>32681356</v>
+        <v>34477749</v>
       </c>
       <c r="X81" s="13" t="n">
-        <v>34477749</v>
+        <v>41021294</v>
       </c>
       <c r="Y81" s="13" t="n">
-        <v>41021294</v>
-      </c>
-      <c r="Z81" s="13" t="n">
         <v>46798722</v>
+      </c>
+      <c r="Z81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA81" s="13" t="s">
         <v>57</v>
@@ -12502,70 +12502,70 @@
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16" t="n">
-        <v>35835526</v>
+        <v>35401947</v>
       </c>
       <c r="F82" s="16" t="n">
-        <v>35401947</v>
+        <v>35893048</v>
       </c>
       <c r="G82" s="16" t="n">
-        <v>35893048</v>
+        <v>35919872</v>
       </c>
       <c r="H82" s="16" t="n">
-        <v>35919872</v>
+        <v>25407731</v>
       </c>
       <c r="I82" s="16" t="n">
-        <v>25407731</v>
+        <v>41176287</v>
       </c>
       <c r="J82" s="16" t="n">
-        <v>41176287</v>
+        <v>34250263</v>
       </c>
       <c r="K82" s="16" t="n">
-        <v>34250263</v>
+        <v>47259098</v>
       </c>
       <c r="L82" s="16" t="n">
-        <v>47259098</v>
+        <v>44893692</v>
       </c>
       <c r="M82" s="16" t="n">
-        <v>44893692</v>
+        <v>38283784</v>
       </c>
       <c r="N82" s="16" t="n">
-        <v>38283784</v>
+        <v>38045708</v>
       </c>
       <c r="O82" s="16" t="n">
-        <v>38045708</v>
+        <v>38046875</v>
       </c>
       <c r="P82" s="16" t="n">
-        <v>38046875</v>
+        <v>49282353</v>
       </c>
       <c r="Q82" s="16" t="n">
-        <v>49282353</v>
+        <v>27866667</v>
       </c>
       <c r="R82" s="16" t="n">
-        <v>27866667</v>
+        <v>36895725</v>
       </c>
       <c r="S82" s="16" t="n">
-        <v>36895725</v>
+        <v>45858650</v>
       </c>
       <c r="T82" s="16" t="n">
-        <v>45858650</v>
+        <v>40950348</v>
       </c>
       <c r="U82" s="16" t="n">
-        <v>40950348</v>
+        <v>46394826</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>46394826</v>
+        <v>50501535</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>50501535</v>
+        <v>48618321</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>48618321</v>
+        <v>58988764</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>58988764</v>
-      </c>
-      <c r="Z82" s="16" t="n">
         <v>41442568</v>
+      </c>
+      <c r="Z82" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA82" s="16" t="s">
         <v>57</v>
@@ -12672,8 +12672,8 @@
       <c r="H83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I83" s="13" t="s">
-        <v>57</v>
+      <c r="I83" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J83" s="13" t="n">
         <v>0</v>
@@ -12687,14 +12687,14 @@
       <c r="M83" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="N83" s="13" t="n">
-        <v>0</v>
+      <c r="N83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P83" s="13" t="s">
-        <v>57</v>
+      <c r="P83" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q83" s="13" t="n">
         <v>0</v>
@@ -12720,8 +12720,8 @@
       <c r="X83" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y83" s="13" t="n">
-        <v>0</v>
+      <c r="Y83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z83" s="13" t="s">
         <v>57</v>
@@ -12882,92 +12882,92 @@
       <c r="Y84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z84" s="16" t="s">
-        <v>57</v>
+      <c r="Z84" s="16" t="n">
+        <v>30779558</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>30779558</v>
+        <v>15260151</v>
       </c>
       <c r="AB84" s="16" t="n">
-        <v>15260151</v>
+        <v>16212342</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>16212342</v>
+        <v>14293000</v>
       </c>
       <c r="AD84" s="16" t="n">
-        <v>14293000</v>
+        <v>14544690</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>14544690</v>
+        <v>11891423</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>11891423</v>
+        <v>11592399</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>11592399</v>
+        <v>14757698</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>14757698</v>
+        <v>14859341</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>14859341</v>
+        <v>14878891</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>14878891</v>
+        <v>16303376</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>16303376</v>
+        <v>16571381</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>16571381</v>
+        <v>14956575</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>14956575</v>
+        <v>14407689</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>14407689</v>
+        <v>12574406</v>
       </c>
       <c r="AO84" s="16" t="n">
-        <v>12574406</v>
+        <v>10738115</v>
       </c>
       <c r="AP84" s="16" t="n">
-        <v>10738115</v>
+        <v>13800594</v>
       </c>
       <c r="AQ84" s="16" t="n">
-        <v>13800594</v>
+        <v>16021597</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>16021597</v>
+        <v>17426542</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>17426542</v>
+        <v>17653885</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>17653885</v>
+        <v>19698870</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>19698870</v>
+        <v>20387403</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>20387403</v>
+        <v>28350827</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>28350827</v>
+        <v>31828188</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>31828188</v>
+        <v>30087320</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>30087320</v>
+        <v>31056068</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>31056068</v>
+        <v>28118221</v>
       </c>
       <c r="BA84" s="16" t="n">
-        <v>28118221</v>
+        <v>34117271</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>34117271</v>
+        <v>35700172</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13041,92 +13041,92 @@
       <c r="Y85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z85" s="13" t="s">
-        <v>57</v>
+      <c r="Z85" s="13" t="n">
+        <v>40680880</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>40680880</v>
+        <v>47165546</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>47165546</v>
+        <v>47132691</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>47132691</v>
+        <v>47114048</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>47114048</v>
+        <v>46076449</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>46076449</v>
+        <v>56042434</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>56042434</v>
+        <v>56155335</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>56155335</v>
+        <v>59927146</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>59927146</v>
+        <v>67040343</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>67040343</v>
+        <v>70347254</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>70347254</v>
+        <v>94270677</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>94270677</v>
+        <v>157923626</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>157923626</v>
+        <v>141152422</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>141152422</v>
+        <v>138676806</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>138676806</v>
+        <v>221724194</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>221724194</v>
+        <v>203178789</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>203178789</v>
+        <v>207149055</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>207149055</v>
+        <v>196841195</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>196841195</v>
+        <v>172989234</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>172989234</v>
+        <v>150567439</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>150567439</v>
+        <v>140833213</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>140833213</v>
+        <v>141091439</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>141091439</v>
+        <v>177459139</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>177459139</v>
+        <v>199198153</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>199198153</v>
+        <v>218467179</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>218467179</v>
+        <v>205734955</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>205734955</v>
+        <v>174255054</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>174255054</v>
+        <v>239963687</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>239963687</v>
+        <v>161629973</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13200,92 +13200,92 @@
       <c r="Y86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z86" s="16" t="s">
-        <v>57</v>
+      <c r="Z86" s="16" t="n">
+        <v>158677054</v>
       </c>
       <c r="AA86" s="16" t="n">
-        <v>158677054</v>
+        <v>179783172</v>
       </c>
       <c r="AB86" s="16" t="n">
-        <v>179783172</v>
+        <v>176321678</v>
       </c>
       <c r="AC86" s="16" t="n">
-        <v>176321678</v>
+        <v>198713826</v>
       </c>
       <c r="AD86" s="16" t="n">
-        <v>198713826</v>
+        <v>302290850</v>
       </c>
       <c r="AE86" s="16" t="n">
-        <v>302290850</v>
+        <v>363477032</v>
       </c>
       <c r="AF86" s="16" t="n">
-        <v>363477032</v>
+        <v>335000000</v>
       </c>
       <c r="AG86" s="16" t="n">
-        <v>335000000</v>
+        <v>293500000</v>
       </c>
       <c r="AH86" s="16" t="n">
-        <v>293500000</v>
+        <v>350231003</v>
       </c>
       <c r="AI86" s="16" t="n">
-        <v>350231003</v>
+        <v>321179191</v>
       </c>
       <c r="AJ86" s="16" t="n">
-        <v>321179191</v>
+        <v>292079365</v>
       </c>
       <c r="AK86" s="16" t="n">
-        <v>292079365</v>
+        <v>349982206</v>
       </c>
       <c r="AL86" s="16" t="n">
-        <v>349982206</v>
+        <v>410441379</v>
       </c>
       <c r="AM86" s="16" t="n">
-        <v>410441379</v>
+        <v>454370370</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>454370370</v>
+        <v>385547264</v>
       </c>
       <c r="AO86" s="16" t="n">
-        <v>385547264</v>
+        <v>345069252</v>
       </c>
       <c r="AP86" s="16" t="n">
-        <v>345069252</v>
+        <v>336882353</v>
       </c>
       <c r="AQ86" s="16" t="n">
-        <v>336882353</v>
+        <v>327674944</v>
       </c>
       <c r="AR86" s="16" t="n">
-        <v>327674944</v>
+        <v>346433925</v>
       </c>
       <c r="AS86" s="16" t="n">
-        <v>346433925</v>
+        <v>428200000</v>
       </c>
       <c r="AT86" s="16" t="n">
-        <v>428200000</v>
+        <v>376997167</v>
       </c>
       <c r="AU86" s="16" t="n">
-        <v>376997167</v>
+        <v>359096970</v>
       </c>
       <c r="AV86" s="16" t="n">
-        <v>359096970</v>
+        <v>343447099</v>
       </c>
       <c r="AW86" s="16" t="n">
-        <v>343447099</v>
+        <v>341536885</v>
       </c>
       <c r="AX86" s="16" t="n">
-        <v>341536885</v>
+        <v>365510791</v>
       </c>
       <c r="AY86" s="16" t="n">
-        <v>365510791</v>
+        <v>330915541</v>
       </c>
       <c r="AZ86" s="16" t="n">
-        <v>330915541</v>
+        <v>333990625</v>
       </c>
       <c r="BA86" s="16" t="n">
-        <v>333990625</v>
+        <v>316000000</v>
       </c>
       <c r="BB86" s="16" t="n">
-        <v>316000000</v>
+        <v>336215470</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13416,8 +13416,8 @@
       <c r="Y88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z88" s="13" t="s">
-        <v>57</v>
+      <c r="Z88" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA88" s="13" t="n">
         <v>0</v>
@@ -13425,8 +13425,8 @@
       <c r="AB88" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC88" s="13" t="n">
-        <v>0</v>
+      <c r="AC88" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD88" s="13" t="s">
         <v>57</v>
